--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4D7799-3CA5-D549-86C1-455035174953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051466F-F8DE-984E-9DBF-94AF48A66761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="3160" windowWidth="28040" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="part 1" sheetId="1" r:id="rId1"/>
+    <sheet name="plan_50_trials" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'part 1'!$F$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">plan_50_trials!$F$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="29">
   <si>
     <t>ACQ function</t>
   </si>
@@ -61,9 +61,6 @@
     <t>calibrator</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>SCP+ensembler</t>
   </si>
   <si>
@@ -91,13 +88,43 @@
     <t>Goal</t>
   </si>
   <si>
-    <t>determin train_test_split</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
     <t>Benchmark</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>set train_test_split, num_init</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>explore the impact of acquisition function</t>
+  </si>
+  <si>
+    <t>random_sampling</t>
+  </si>
+  <si>
+    <t>explore the impact of search strategy</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -141,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -156,7 +183,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,12 +524,14 @@
     <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="9" max="9" width="9.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -519,24 +554,30 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
@@ -545,24 +586,36 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3">
+        <v>91.148399999999995</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <v>2</v>
@@ -571,22 +624,32 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>72.691100000000006</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -595,22 +658,32 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3">
+        <v>46.804000000000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.43819999999999998</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -619,21 +692,31 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3">
+        <v>91.058599999999998</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.3024</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -642,21 +725,31 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3">
+        <v>91.130399999999995</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -665,21 +758,31 @@
         <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>91.113</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
@@ -688,21 +791,22 @@
         <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -711,21 +815,22 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -734,21 +839,22 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -757,21 +863,22 @@
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -780,21 +887,22 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -803,21 +911,22 @@
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -826,21 +935,22 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -849,21 +959,22 @@
         <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -872,43 +983,352 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3">
         <v>0.5</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J2:J4"/>
+  <mergeCells count="4">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="L17:L25"/>
+    <mergeCell ref="L26:L34"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E1:E8 E9:E12 E13:E1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E1:E1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D9 F1:F8 F9:F12 F13:F1048576 D1:D5 D13" xr:uid="{95FF4133-8836-DA45-BCC2-693DEF85617C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{95FF4133-8836-DA45-BCC2-693DEF85617C}">
       <formula1>"2, 4, 6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F8 F9:F12 F13:F1048576" xr:uid="{20E2142D-A44E-0340-B2F9-67A84D614A5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{20E2142D-A44E-0340-B2F9-67A84D614A5E}">
       <formula1>"SCP+ensembler, SCP+quantile, Gaussian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C8 C9:C12 C13:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B8 B9:B12 B13:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F8 F9:F12 F13:F1048576" xr:uid="{C7A7B1A9-F306-8841-9A67-22D01DDD766C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{C7A7B1A9-F306-8841-9A67-22D01DDD766C}">
       <formula1>"0.3, 0.5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G8 G9:G12 G13:G1048576" xr:uid="{34DFD1B8-BEDC-624D-ACC8-C741455A86D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{34DFD1B8-BEDC-624D-ACC8-C741455A86D8}">
       <formula1>"NA, 0.3, 0.5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A8 A9:A12 A13:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+      <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051466F-F8DE-984E-9DBF-94AF48A66761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2828E61-B4FC-AF45-9EF1-3E215248412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="plan_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>ACQ function</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Benchmark</t>
-  </si>
-  <si>
     <t>✅</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>EI</t>
   </si>
   <si>
-    <t>explore the impact of acquisition function</t>
-  </si>
-  <si>
     <t>random_sampling</t>
   </si>
   <si>
@@ -125,6 +119,24 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>explore the impact of acquisition function (train_test_split=0.5, num_init=10)</t>
+  </si>
+  <si>
+    <t>explore_factor=0.75. Rationale: left skewed; if set to too high value, extreme quantiles have less observation and might have less reliable estimation.</t>
+  </si>
+  <si>
+    <t>optimum: 91.57</t>
+  </si>
+  <si>
+    <t>optimum: 73.25999</t>
+  </si>
+  <si>
+    <t>optimum: 47.33333</t>
   </si>
 </sst>
 </file>
@@ -148,15 +160,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -164,11 +188,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -186,10 +228,37 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,7 +580,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L17" sqref="L17:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,13 +623,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -569,7 +641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -592,19 +664,23 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="11">
+        <v>91.148399999999995</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <f>J2/I2</f>
+        <v>3.1289633169644233E-3</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3">
-        <v>91.148399999999995</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.28510000000000002</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>17</v>
+      <c r="M2" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -612,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -624,29 +700,33 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.3</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3">
-        <v>72.691100000000006</v>
+        <v>91.058599999999998</v>
       </c>
       <c r="J3" s="3">
-        <v>0.62749999999999995</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
+        <v>0.3024</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K17" si="0">J3/I3</f>
+        <v>3.3209383847324692E-3</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -658,22 +738,26 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.5</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3">
-        <v>46.804000000000002</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.43819999999999998</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="12">
+        <v>91.130399999999995</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5458024983979004E-3</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -689,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -698,55 +782,65 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3">
-        <v>91.058599999999998</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.3024</v>
-      </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>91.113</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.22520000000000001</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4716560754228269E-3</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
         <v>0.5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3">
-        <v>91.130399999999995</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="L6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7">
+        <v>91.040800000000004</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.2427</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6658377342905597E-3</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -755,31 +849,38 @@
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.3</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3">
-        <v>91.113</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.22520000000000001</v>
-      </c>
-      <c r="L7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="11">
+        <v>72.691100000000006</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>8.6324185491758951E-3</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -788,15 +889,29 @@
         <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3">
+        <v>72.474400000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1880719260870047E-3</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -818,9 +933,23 @@
         <v>7</v>
       </c>
       <c r="G9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="L9" s="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12">
+        <v>72.538799999999995</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>7.4263704389926494E-3</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
@@ -836,46 +965,74 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3">
+        <v>72.537599999999998</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.70789999999999997</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7590766719604736E-3</v>
+      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7">
         <v>0.5</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="L11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7">
+        <v>72.221999999999994</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0424801307080947E-2</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -884,15 +1041,31 @@
         <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="11">
+        <v>46.804000000000002</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.43819999999999998</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
+        <v>9.3624476540466618E-3</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -916,7 +1089,21 @@
       <c r="G13" s="3">
         <v>0.3</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3">
+        <v>46.622</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.208227875252027E-2</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -940,7 +1127,21 @@
       <c r="G14" s="3">
         <v>0.5</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12">
+        <v>46.6447</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>9.1028562730599612E-3</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -964,33 +1165,61 @@
       <c r="G15" s="3">
         <v>0.3</v>
       </c>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3">
+        <v>46.372</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0404985767273355E-2</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
         <v>30</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
         <v>0.5</v>
       </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="7">
+        <v>46.360700000000001</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0994225712726513E-2</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -998,24 +1227,46 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3">
+        <v>91.107200000000006</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.639668434547434E-3</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -1023,48 +1274,79 @@
       <c r="D18" s="3">
         <v>2</v>
       </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3">
+        <v>72.653599999999997</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="K20" s="3">
+        <f>J20/I20</f>
+        <v>8.8130526223063957E-3</v>
+      </c>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1072,22 +1354,28 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -1095,66 +1383,91 @@
       <c r="D22" s="3">
         <v>2</v>
       </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
       </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="G24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1167,11 +1480,11 @@
       <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1184,9 +1497,9 @@
       <c r="F27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -1199,9 +1512,9 @@
       <c r="F28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1214,9 +1527,9 @@
       <c r="F29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1232,10 +1545,9 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -1248,11 +1560,11 @@
       <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>8</v>
@@ -1263,11 +1575,11 @@
       <c r="F32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
@@ -1278,11 +1590,11 @@
       <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>14</v>
@@ -1293,14 +1605,16 @@
       <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M2:M4"/>
+  <mergeCells count="6">
     <mergeCell ref="L2:L16"/>
     <mergeCell ref="L17:L25"/>
     <mergeCell ref="L26:L34"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="M12:M16"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E1:E1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2828E61-B4FC-AF45-9EF1-3E215248412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1657FC1-59BE-1B47-8D8E-3987B1E7A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="plan_50_trials" sheetId="1" r:id="rId1"/>
+    <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">plan_50_trials!$F$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">agg_50_trials!$B$1:$B$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="35">
   <si>
     <t>ACQ function</t>
   </si>
@@ -94,9 +94,6 @@
     <t>✅</t>
   </si>
   <si>
-    <t>set train_test_split, num_init</t>
-  </si>
-  <si>
     <t>UCB</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>cv</t>
   </si>
   <si>
-    <t>explore the impact of acquisition function (train_test_split=0.5, num_init=10)</t>
-  </si>
-  <si>
     <t>explore_factor=0.75. Rationale: left skewed; if set to too high value, extreme quantiles have less observation and might have less reliable estimation.</t>
   </si>
   <si>
@@ -137,13 +131,25 @@
   </si>
   <si>
     <t>optimum: 47.33333</t>
+  </si>
+  <si>
+    <t>num_quantile</t>
+  </si>
+  <si>
+    <t>set train_test_split, num_init, num_quantile</t>
+  </si>
+  <si>
+    <t>explore the impact of acquisition function (train_test_split=0.5, num_init=10, num_quantile=10)</t>
+  </si>
+  <si>
+    <t>dynamic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +161,27 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -227,26 +254,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -259,6 +289,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,10 +619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:BB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:L25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,19 +630,21 @@
     <col min="1" max="1" width="21.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="3" customWidth="1"/>
-    <col min="10" max="11" width="8.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="26.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -614,34 +658,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -657,33 +704,36 @@
       <c r="E2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7">
         <v>91.148399999999995</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.28520000000000001</v>
       </c>
-      <c r="K2" s="3">
-        <f>J2/I2</f>
+      <c r="L2" s="3">
+        <f>K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -699,29 +749,32 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.3</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3">
         <v>91.058599999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.3024</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K17" si="0">J3/I3</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L21" si="0">K3/J3</f>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" s="12"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -735,586 +788,662 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3">
+        <v>91.061599999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.3039</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4/J4</f>
+        <v>3.3373013432665363E-3</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
         <v>0.5</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8">
         <v>91.130399999999995</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K5" s="8">
         <v>0.23200000000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L5" s="8">
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3">
+        <v>91.015199999999993</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <f>K6/J6</f>
+        <v>3.3324104105687843E-3</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.3</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3">
         <v>91.113</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K7" s="7">
         <v>0.22520000000000001</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="6">
         <v>30</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="G8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6">
         <v>0.5</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="6">
         <v>91.040800000000004</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K8" s="6">
         <v>0.2427</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7">
         <v>72.691100000000006</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K9" s="8">
         <v>0.62749999999999995</v>
       </c>
-      <c r="K7" s="12">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.3</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3">
         <v>72.474400000000003</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K10" s="3">
         <v>0.66590000000000005</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
         <v>0.5</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8">
         <v>72.538799999999995</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K11" s="7">
         <v>0.53869999999999996</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L11" s="7">
         <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3">
         <v>0.3</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3">
         <v>72.537599999999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K12" s="3">
         <v>0.70789999999999997</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6">
         <v>0.5</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6">
         <v>72.221999999999994</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K13" s="6">
         <v>0.75290000000000001</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="M13" s="12"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="7">
         <v>46.804000000000002</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K14" s="8">
         <v>0.43819999999999998</v>
       </c>
-      <c r="K12" s="12">
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="M14" s="12"/>
+      <c r="N14" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.3</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3">
         <v>46.622</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K15" s="3">
         <v>0.56330000000000002</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3">
         <v>0.5</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8">
         <v>46.6447</v>
       </c>
-      <c r="J14" s="11">
+      <c r="K16" s="7">
         <v>0.42459999999999998</v>
       </c>
-      <c r="K14" s="11">
-        <f t="shared" si="0"/>
+      <c r="L16" s="7">
+        <f>K16/J16</f>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
         <v>30</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3">
         <v>0.3</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="3">
         <v>46.372</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K17" s="3">
         <v>0.48249999999999998</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6">
         <v>30</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="G18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.5</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="I18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="6">
         <v>46.360700000000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="K18" s="6">
         <v>0.50970000000000004</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="M18" s="13"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
         <v>0.5</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3">
         <v>91.107200000000006</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K19" s="3">
         <v>0.33160000000000001</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="M19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1325,33 +1454,36 @@
       <c r="E20" s="3">
         <v>10</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3">
         <v>0.5</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3">
-        <v>72.653599999999997</v>
+      <c r="I20" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J20" s="3">
-        <v>0.64029999999999998</v>
+        <v>91.131200000000007</v>
       </c>
       <c r="K20" s="3">
-        <f>J20/I20</f>
-        <v>8.8130526223063957E-3</v>
-      </c>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.214047439296311E-3</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>20</v>
@@ -1362,15 +1494,31 @@
       <c r="E21" s="3">
         <v>10</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
         <v>0.5</v>
       </c>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
+        <v>91.122799999999998</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1561804509957995E-3</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -1386,20 +1534,36 @@
       <c r="E22" s="3">
         <v>10</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3">
         <v>0.5</v>
       </c>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="3">
+        <v>72.653599999999997</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" ref="L22:L27" si="1">K22/J22</f>
+        <v>8.8130526223063957E-3</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1410,20 +1574,36 @@
       <c r="E23" s="3">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3">
         <v>0.5</v>
       </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9">
+        <v>72.707599999999999</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.56310000000000004</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="1"/>
+        <v>7.7447199467455957E-3</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
@@ -1434,215 +1614,1298 @@
       <c r="E24" s="3">
         <v>10</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3">
         <v>0.5</v>
       </c>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3">
+        <v>72.3536</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="1"/>
+        <v>9.3388580526746427E-3</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="7">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
         <v>0.5</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="3">
+        <v>46.718699999999998</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="1"/>
+        <v>9.8996761468105928E-3</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3">
+        <v>46.621299999999998</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.46060000000000001</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="1"/>
+        <v>9.8796043868360599E-3</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="6">
+        <v>46.463999999999999</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.4768</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0261707988980717E-2</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+    </row>
+    <row r="28" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>14</v>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+    </row>
+    <row r="29" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D29" s="3">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3">
+        <v>91.136200000000002</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.2707</v>
+      </c>
+      <c r="L29" s="3">
+        <f>K29/J29</f>
+        <v>2.9702796473849028E-3</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3">
+        <v>72.583200000000005</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="L31" s="3">
+        <f>K31/J31</f>
+        <v>8.1410023256070271E-3</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3">
+        <v>46.592700000000001</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="L33" s="3">
+        <f>K33/J33</f>
+        <v>1.1624138545308599E-2</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
         <v>6</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="5">
+        <v>91.231200000000001</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="L34" s="3">
+        <f>K34/J34</f>
+        <v>2.9660905479704314E-3</v>
+      </c>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="20"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="9">
+        <v>91.158799999999999</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="L35" s="9">
+        <f>K35/J35</f>
+        <v>2.8444867637573111E-3</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="20"/>
+    </row>
+    <row r="37" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9">
+        <v>72.741200000000006</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="L37" s="9">
+        <f>K37/J37</f>
+        <v>7.3300962865611233E-3</v>
+      </c>
+      <c r="M37" s="18"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="3">
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10">
         <v>6</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="E38" s="10">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="20"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="6">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6">
+        <v>10</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="6">
+        <v>46.727200000000003</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.4239</v>
+      </c>
+      <c r="L39" s="6">
+        <f>K39/J39</f>
+        <v>9.0718040028077863E-3</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="3">
+        <v>90.944199999999995</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.2364</v>
+      </c>
+      <c r="L40" s="3">
+        <f>K40/J40</f>
+        <v>2.5993961132210744E-3</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="20"/>
+    </row>
+    <row r="41" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="E41" s="3">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="3">
+        <v>72.263999999999996</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="L41" s="3">
+        <f>K41/J41</f>
+        <v>9.2729436510572347E-3</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="6"/>
+      <c r="E42" s="6">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6">
+        <v>10</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="6">
+        <v>46.311300000000003</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.4627</v>
+      </c>
+      <c r="L42" s="6">
+        <f>K42/J42</f>
+        <v>9.991082090116234E-3</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6">
+        <v>10</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N44" s="21"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B42" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
   <mergeCells count="6">
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="L17:L25"/>
-    <mergeCell ref="L26:L34"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="M12:M16"/>
+    <mergeCell ref="M28:M42"/>
+    <mergeCell ref="M2:M18"/>
+    <mergeCell ref="M19:M27"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="N14:N18"/>
   </mergeCells>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 E1:E1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F1048576 F1:F37" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{95FF4133-8836-DA45-BCC2-693DEF85617C}">
-      <formula1>"2, 4, 6"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:C1048576 C1:C37" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+      <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{20E2142D-A44E-0340-B2F9-67A84D614A5E}">
-      <formula1>"SCP+ensembler, SCP+quantile, Gaussian"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H39:H1048576 H1:H37" xr:uid="{34DFD1B8-BEDC-624D-ACC8-C741455A86D8}">
+      <formula1>"NA, 0.3, 0.5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
-      <formula1>"ITS, PI, EI, UCB"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+      <formula1>"mutation, random_sampling, dynamic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D1048576 D1:D37" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+      <formula1>"2, 4, 6, NA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E1048576 E1:E37" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+      <formula1>"10,20,NA,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{9EC15767-A0DD-D249-900A-4CAD7CCF2A91}">
+      <formula1>"Gaussian, SCP+ensembler"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{C7A7B1A9-F306-8841-9A67-22D01DDD766C}">
-      <formula1>"0.3, 0.5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{34DFD1B8-BEDC-624D-ACC8-C741455A86D8}">
-      <formula1>"NA, 0.3, 0.5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
-      <formula1>"mutation, random_sampling"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
-      <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1657FC1-59BE-1B47-8D8E-3987B1E7A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BEE348-A46E-C84F-9E39-D3E905233705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="31020" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">agg_50_trials!$B$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">agg_50_trials!$B$1:$B$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="42">
   <si>
     <t>ACQ function</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>dynamic</t>
+  </si>
+  <si>
+    <t>CVCP+quantile</t>
+  </si>
+  <si>
+    <t>SCP+quantile</t>
+  </si>
+  <si>
+    <t>CVCP+ensembler</t>
+  </si>
+  <si>
+    <t>BtCP</t>
+  </si>
+  <si>
+    <t>num_estimator = 5</t>
+  </si>
+  <si>
+    <t>num_estimator = 8</t>
+  </si>
+  <si>
+    <t>num_estimator = 10</t>
   </si>
 </sst>
 </file>
@@ -181,7 +202,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF70AD47"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -267,9 +285,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -301,6 +316,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +667,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,7 +764,7 @@
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>91.148399999999995</v>
       </c>
       <c r="K2" s="3">
@@ -726,10 +774,10 @@
         <f>K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -768,11 +816,11 @@
         <v>0.3024</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L21" si="0">K3/J3</f>
+        <f>K3/J3</f>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -812,8 +860,8 @@
         <f>K4/J4</f>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -843,18 +891,18 @@
       <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>91.130399999999995</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L5" s="8">
-        <f t="shared" si="0"/>
+      <c r="L5" s="7">
+        <f>K5/J5</f>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="15"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -894,8 +942,8 @@
         <f>K6/J6</f>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -928,56 +976,56 @@
       <c r="J7" s="3">
         <v>91.113</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>0.22520000000000001</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" si="0"/>
+      <c r="L7" s="6">
+        <f>K7/J7</f>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
         <v>30</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.5</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5">
         <v>91.040800000000004</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.2427</v>
       </c>
-      <c r="L8" s="6">
-        <f t="shared" si="0"/>
+      <c r="L8" s="5">
+        <f>K8/J8</f>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="16"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1007,17 +1055,17 @@
       <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>72.691100000000006</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.62749999999999995</v>
       </c>
-      <c r="L9" s="8">
-        <f t="shared" si="0"/>
+      <c r="L9" s="7">
+        <f>K9/J9</f>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="15" t="s">
         <v>29</v>
       </c>
@@ -1057,52 +1105,52 @@
         <v>0.66590000000000005</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="0"/>
+        <f>K10/J10</f>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="18">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18">
+        <v>10</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="18">
         <v>0.5</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="27">
         <v>72.538799999999995</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="26">
         <v>0.53869999999999996</v>
       </c>
-      <c r="L11" s="7">
-        <f t="shared" si="0"/>
+      <c r="L11" s="26">
+        <f>K11/J11</f>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1139,177 +1187,177 @@
         <v>0.70789999999999997</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="0"/>
+        <f>K12/J12</f>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="M12" s="10"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
         <v>30</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.5</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5">
         <v>72.221999999999994</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>0.75290000000000001</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="0"/>
+      <c r="L13" s="5">
+        <f>K13/J13</f>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="18">
+        <v>10</v>
+      </c>
+      <c r="F14" s="18">
+        <v>10</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="26">
         <v>46.804000000000002</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="27">
         <v>0.43819999999999998</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="0"/>
+      <c r="L14" s="27">
+        <f>K14/J14</f>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="10"/>
+      <c r="N14" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3">
-        <v>10</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="18">
+        <v>10</v>
+      </c>
+      <c r="F15" s="18">
+        <v>10</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="18">
         <v>0.3</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="18">
         <v>46.622</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="18">
         <v>0.56330000000000002</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
+      <c r="L15" s="18">
+        <f>K15/J15</f>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="E16" s="18">
+        <v>10</v>
+      </c>
+      <c r="F16" s="18">
+        <v>10</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="18">
         <v>0.5</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="27">
         <v>46.6447</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="26">
         <v>0.42459999999999998</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="26">
         <f>K16/J16</f>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1346,95 +1394,95 @@
         <v>0.48249999999999998</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="0"/>
+        <f>K17/J17</f>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="M17" s="10"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
         <v>30</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>0.5</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="5">
         <v>46.360700000000001</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>0.50970000000000004</v>
       </c>
-      <c r="L18" s="6">
-        <f t="shared" si="0"/>
+      <c r="L18" s="5">
+        <f>K18/J18</f>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3">
-        <v>10</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="18">
+        <v>10</v>
+      </c>
+      <c r="F19" s="18">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="18">
         <v>0.5</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="18">
         <v>91.107200000000006</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="18">
         <v>0.33160000000000001</v>
       </c>
-      <c r="L19" s="3">
-        <f t="shared" si="0"/>
+      <c r="L19" s="18">
+        <f>K19/J19</f>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1473,50 +1521,52 @@
         <v>0.29289999999999999</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="0"/>
+        <f>K20/J20</f>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="18">
         <v>2</v>
       </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="18">
+        <v>10</v>
+      </c>
+      <c r="F21" s="18">
+        <v>10</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="18">
         <v>0.5</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="18">
         <v>91.122799999999998</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="18">
         <v>0.28760000000000002</v>
       </c>
-      <c r="L21" s="3">
-        <f t="shared" si="0"/>
+      <c r="L21" s="18">
+        <f>K21/J21</f>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1553,50 +1603,50 @@
         <v>0.64029999999999998</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" ref="L22:L27" si="1">K22/J22</f>
+        <f>K22/J22</f>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="18">
         <v>2</v>
       </c>
-      <c r="E23" s="3">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="18">
+        <v>10</v>
+      </c>
+      <c r="F23" s="18">
+        <v>10</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="18">
         <v>0.5</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="I23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="28">
         <v>72.707599999999999</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="28">
         <v>0.56310000000000004</v>
       </c>
-      <c r="L23" s="9">
-        <f t="shared" si="1"/>
+      <c r="L23" s="28">
+        <f>K23/J23</f>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1633,10 +1683,10 @@
         <v>0.67569999999999997</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="1"/>
+        <f>K24/J24</f>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1673,10 +1723,10 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="1"/>
+        <f>K25/J25</f>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1713,50 +1763,50 @@
         <v>0.46060000000000001</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="1"/>
+        <f>K26/J26</f>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="5">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>0.5</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5">
         <v>46.463999999999999</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>0.4768</v>
       </c>
-      <c r="L27" s="6">
-        <f t="shared" si="1"/>
+      <c r="L27" s="5">
+        <f>K27/J27</f>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1800,885 +1850,946 @@
       <c r="BB27" s="3"/>
     </row>
     <row r="28" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="18">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="E28" s="18">
+        <v>10</v>
+      </c>
+      <c r="F28" s="18">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="I28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="18">
+        <v>91.223600000000005</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0.249</v>
+      </c>
+      <c r="L28" s="18">
+        <f>K28/J28</f>
+        <v>2.7295568252075119E-3</v>
+      </c>
+      <c r="M28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
     </row>
     <row r="29" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="18">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="18">
+        <v>10</v>
+      </c>
+      <c r="F29" s="18">
+        <v>10</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="18">
         <v>0.5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="18">
         <v>91.136200000000002</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="18">
         <v>0.2707</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="18">
         <f>K29/J29</f>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+    </row>
+    <row r="30" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="E30" s="20">
+        <v>10</v>
+      </c>
+      <c r="F30" s="20">
+        <v>10</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="I30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="20">
+        <v>72.909599999999998</v>
+      </c>
+      <c r="K30" s="20">
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="L30" s="20">
+        <f>K30/J30</f>
+        <v>5.9306319058121289E-3</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+    </row>
+    <row r="31" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="21">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="21">
+        <v>10</v>
+      </c>
+      <c r="F31" s="21">
+        <v>10</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="21">
         <v>0.5</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="3">
-        <v>72.583200000000005</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.59089999999999998</v>
-      </c>
-      <c r="L31" s="3">
+      <c r="I31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="21">
+        <v>72.492800000000003</v>
+      </c>
+      <c r="K31" s="21">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="L31" s="21">
         <f>K31/J31</f>
-        <v>8.1410023256070271E-3</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>9.1457358523880997E-3</v>
+      </c>
+      <c r="M31" s="16"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+    </row>
+    <row r="32" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="20">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="E32" s="20">
+        <v>10</v>
+      </c>
+      <c r="F32" s="20">
+        <v>10</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="I32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="20">
+        <v>46.885300000000001</v>
+      </c>
+      <c r="K32" s="20">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="L32" s="20">
+        <f>K32/J32</f>
+        <v>7.2218797789499059E-3</v>
+      </c>
+      <c r="M32" s="16"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="24"/>
+      <c r="AJ32" s="24"/>
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="24"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+    </row>
+    <row r="33" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="21">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="21">
+        <v>10</v>
+      </c>
+      <c r="F33" s="21">
+        <v>10</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="21">
         <v>0.5</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="21">
         <v>46.592700000000001</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="21">
         <v>0.54159999999999997</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="21">
         <f>K33/J33</f>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="20"/>
-      <c r="AR33" s="20"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="24"/>
+      <c r="AJ33" s="24"/>
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="24"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="24"/>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="20">
         <v>6</v>
       </c>
-      <c r="E34" s="3">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="E34" s="20">
+        <v>10</v>
+      </c>
+      <c r="F34" s="20">
+        <v>10</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="5">
+      <c r="I34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="30">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="30">
         <v>0.27060000000000001</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="20">
         <f>K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+      <c r="AJ34" s="18"/>
+      <c r="AK34" s="18"/>
+      <c r="AL34" s="18"/>
+      <c r="AM34" s="18"/>
+      <c r="AN34" s="18"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="18"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="21">
         <v>6</v>
       </c>
-      <c r="E35" s="3">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="21">
+        <v>10</v>
+      </c>
+      <c r="F35" s="21">
+        <v>10</v>
+      </c>
+      <c r="G35" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="21">
         <v>0.5</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="I35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="21">
         <v>91.158799999999999</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="21">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="21">
         <f>K35/J35</f>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="20"/>
-      <c r="AO35" s="20"/>
-      <c r="AP35" s="20"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="M35" s="16"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="18"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="18"/>
+      <c r="AQ35" s="18"/>
+      <c r="AR35" s="18"/>
+    </row>
+    <row r="36" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="20">
         <v>6</v>
       </c>
-      <c r="E36" s="3">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="E36" s="20">
+        <v>10</v>
+      </c>
+      <c r="F36" s="20">
+        <v>10</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="20">
         <v>0.5</v>
       </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-    </row>
-    <row r="37" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="I36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="20">
+        <v>72.915599999999998</v>
+      </c>
+      <c r="K36" s="20">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="L36" s="20">
+        <f>K36/J36</f>
+        <v>6.0398597830916842E-3</v>
+      </c>
+      <c r="M36" s="16"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="24"/>
+      <c r="AJ36" s="24"/>
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
+      <c r="AP36" s="24"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+    </row>
+    <row r="37" spans="1:54" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="20">
         <v>6</v>
       </c>
-      <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3">
-        <v>10</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="20">
+        <v>10</v>
+      </c>
+      <c r="F37" s="20">
+        <v>10</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="20">
         <v>0.5</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="I37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="20">
         <v>72.741200000000006</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="20">
         <v>0.53320000000000001</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="20">
         <f>K37/J37</f>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="24"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="24"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="22"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9">
         <v>6</v>
       </c>
-      <c r="E38" s="10">
-        <v>10</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="E38" s="9">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9">
         <v>10</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>0.5</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="20"/>
-      <c r="AP38" s="20"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
+      <c r="I38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="20">
+        <v>46.8</v>
+      </c>
+      <c r="K38" s="20">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="L38" s="20">
+        <f>K38/J38</f>
+        <v>8.5790598290598295E-3</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+      <c r="AJ38" s="18"/>
+      <c r="AK38" s="18"/>
+      <c r="AL38" s="18"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="18"/>
+      <c r="AQ38" s="18"/>
+      <c r="AR38" s="18"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
         <v>6</v>
       </c>
-      <c r="E39" s="6">
-        <v>10</v>
-      </c>
-      <c r="F39" s="6">
-        <v>10</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="E39" s="5">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>0.5</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="6">
+      <c r="I39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="5">
         <v>46.727200000000003</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>0.4239</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <f>K39/J39</f>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="18"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="18"/>
+      <c r="AQ39" s="18"/>
+      <c r="AR39" s="18"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="3">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3">
-        <v>10</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="E40" s="18">
+        <v>10</v>
+      </c>
+      <c r="F40" s="18">
+        <v>10</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="18">
         <v>0.5</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="3">
-        <v>90.944199999999995</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0.2364</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="J40" s="18">
+        <v>91.021600000000007</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0.2651</v>
+      </c>
+      <c r="L40" s="18">
         <f>K40/J40</f>
-        <v>2.5993961132210744E-3</v>
-      </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="20"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="20"/>
-    </row>
-    <row r="41" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2.9124954955746765E-3</v>
+      </c>
+      <c r="M40" s="16"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+      <c r="AJ40" s="18"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="18"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="18"/>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
@@ -2702,180 +2813,871 @@
         <v>17</v>
       </c>
       <c r="J41" s="3">
-        <v>72.263999999999996</v>
+        <v>90.944199999999995</v>
       </c>
       <c r="K41" s="3">
-        <v>0.67010000000000003</v>
+        <v>0.2364</v>
       </c>
       <c r="L41" s="3">
         <f>K41/J41</f>
+        <v>2.5993961132210744E-3</v>
+      </c>
+      <c r="M41" s="16"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="18"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="18"/>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="18">
+        <v>10</v>
+      </c>
+      <c r="F42" s="18">
+        <v>10</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="18">
+        <v>72.332800000000006</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="L42" s="18">
+        <f>K42/J42</f>
+        <v>8.5659617766766939E-3</v>
+      </c>
+      <c r="M42" s="16"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
+    </row>
+    <row r="43" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="18">
+        <v>10</v>
+      </c>
+      <c r="F43" s="18">
+        <v>10</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="18">
+        <v>72.263999999999996</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="L43" s="18">
+        <f>K43/J43</f>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="M43" s="16"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+    </row>
+    <row r="44" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6">
-        <v>10</v>
-      </c>
-      <c r="F42" s="6">
-        <v>10</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="E44" s="9">
+        <v>10</v>
+      </c>
+      <c r="F44" s="9">
+        <v>10</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3">
+        <v>46.543999999999997</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="L44" s="3">
+        <f>K44/J44</f>
+        <v>9.7090924716397402E-3</v>
+      </c>
+      <c r="M44" s="16"/>
+      <c r="N44" s="17"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H45" s="5">
         <v>0.5</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="6">
+      <c r="I45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="5">
         <v>46.311300000000003</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K45" s="5">
         <v>0.4627</v>
       </c>
-      <c r="L42" s="6">
-        <f>K42/J42</f>
+      <c r="L45" s="5">
+        <f>K45/J45</f>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="6"/>
-      <c r="AQ42" s="6"/>
-      <c r="AR42" s="6"/>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="M45" s="11"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="3">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="I46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="3">
+        <v>91.159599999999998</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.2757</v>
+      </c>
+      <c r="L46" s="3">
+        <f>K46/J46</f>
+        <v>3.024366056893624E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="6">
-        <v>10</v>
-      </c>
-      <c r="F44" s="6">
-        <v>10</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H47" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="3">
+        <v>91.126000000000005</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="L47" s="3">
+        <f>K47/J47</f>
+        <v>2.8740425345126527E-3</v>
+      </c>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5">
+        <v>10</v>
+      </c>
+      <c r="F48" s="5">
+        <v>10</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="5">
         <v>0.5</v>
       </c>
-      <c r="N44" s="21"/>
+      <c r="I48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="5">
+        <v>91.062600000000003</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="L48" s="5">
+        <f>K48/J48</f>
+        <v>2.8123510639933408E-3</v>
+      </c>
+      <c r="N48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="3">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3">
+        <v>30</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="3">
+        <v>90.935500000000005</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="L49" s="3">
+        <f>K49/J49</f>
+        <v>2.9801342709942762E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="18">
+        <v>91.070599999999999</v>
+      </c>
+      <c r="K50" s="18">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="L50" s="18">
+        <f>K50/J50</f>
+        <v>3.388579849040195E-3</v>
+      </c>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3">
+        <v>10</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="18">
+        <v>91.093599999999995</v>
+      </c>
+      <c r="K51" s="18">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="L51" s="18">
+        <f>K51/J51</f>
+        <v>3.0583926862040806E-3</v>
+      </c>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="N52" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="N53" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="9">
+        <v>2</v>
+      </c>
+      <c r="E54" s="9">
+        <v>10</v>
+      </c>
+      <c r="F54" s="9">
+        <v>10</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="N54" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3">
+        <v>10</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="N57" s="17"/>
+    </row>
+    <row r="58" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10</v>
+      </c>
+      <c r="F59" s="3">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="3">
+        <v>91.082999999999998</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L59" s="3">
+        <f>K59/J59</f>
+        <v>2.8819867593294032E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="8">
+        <v>91.191599999999994</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="L60" s="8">
+        <f>K60/J60</f>
+        <v>2.9246114773729161E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B42" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
+  <autoFilter ref="B1:B48" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
   <mergeCells count="6">
-    <mergeCell ref="M28:M42"/>
+    <mergeCell ref="M28:M45"/>
     <mergeCell ref="M2:M18"/>
     <mergeCell ref="M19:M27"/>
     <mergeCell ref="N2:N8"/>
@@ -2883,29 +3685,29 @@
     <mergeCell ref="N14:N18"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39:F1048576 F1:F37" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F45:F53 F55:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39:C1048576 C1:C37" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C45:C53 C55:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H39:H1048576 H1:H37" xr:uid="{34DFD1B8-BEDC-624D-ACC8-C741455A86D8}">
-      <formula1>"NA, 0.3, 0.5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A53 A55:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D1048576 D1:D37" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D45:D53 D55:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E1048576 E1:E37" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E45:E53 E55:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{9EC15767-A0DD-D249-900A-4CAD7CCF2A91}">
-      <formula1>"Gaussian, SCP+ensembler"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B53 B55:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+      <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
-      <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H53 H55:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+      <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G53 G55:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+      <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BEE348-A46E-C84F-9E39-D3E905233705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40165E-988C-C048-AB11-67D2E76CBBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="31020" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="14100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="42">
   <si>
     <t>ACQ function</t>
   </si>
@@ -160,7 +160,7 @@
     <t>num_estimator = 5</t>
   </si>
   <si>
-    <t>num_estimator = 8</t>
+    <t xml:space="preserve">explore_factor=0.5 </t>
   </si>
   <si>
     <t>num_estimator = 10</t>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,6 +288,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -303,51 +318,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -667,10 +637,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB63"/>
+  <dimension ref="A1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,13 +741,13 @@
         <v>0.28520000000000001</v>
       </c>
       <c r="L2" s="3">
-        <f>K2/J2</f>
+        <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -816,11 +786,11 @@
         <v>0.3024</v>
       </c>
       <c r="L3" s="3">
-        <f>K3/J3</f>
+        <f t="shared" si="0"/>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="13"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -857,11 +827,11 @@
         <v>0.3039</v>
       </c>
       <c r="L4" s="3">
-        <f>K4/J4</f>
+        <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="13"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -898,11 +868,11 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="L5" s="7">
-        <f>K5/J5</f>
+        <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="13"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -939,11 +909,11 @@
         <v>0.30330000000000001</v>
       </c>
       <c r="L6" s="3">
-        <f>K6/J6</f>
+        <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="13"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -980,11 +950,11 @@
         <v>0.22520000000000001</v>
       </c>
       <c r="L7" s="6">
-        <f>K7/J7</f>
+        <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="13"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1021,11 +991,11 @@
         <v>0.2427</v>
       </c>
       <c r="L8" s="5">
-        <f>K8/J8</f>
+        <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1062,11 +1032,11 @@
         <v>0.62749999999999995</v>
       </c>
       <c r="L9" s="7">
-        <f>K9/J9</f>
+        <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1105,52 +1075,52 @@
         <v>0.66590000000000005</v>
       </c>
       <c r="L10" s="3">
-        <f>K10/J10</f>
+        <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="13"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-      <c r="E11" s="18">
-        <v>10</v>
-      </c>
-      <c r="F11" s="18">
-        <v>10</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="27">
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="7">
         <v>72.538799999999995</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="6">
         <v>0.53869999999999996</v>
       </c>
-      <c r="L11" s="26">
-        <f>K11/J11</f>
+      <c r="L11" s="6">
+        <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1187,11 +1157,11 @@
         <v>0.70789999999999997</v>
       </c>
       <c r="L12" s="3">
-        <f>K12/J12</f>
+        <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1228,136 +1198,136 @@
         <v>0.75290000000000001</v>
       </c>
       <c r="L13" s="5">
-        <f>K13/J13</f>
+        <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18">
-        <v>10</v>
-      </c>
-      <c r="F14" s="18">
-        <v>10</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6">
         <v>46.804000000000002</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="7">
         <v>0.43819999999999998</v>
       </c>
-      <c r="L14" s="27">
-        <f>K14/J14</f>
+      <c r="L14" s="7">
+        <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="15" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>10</v>
-      </c>
-      <c r="F15" s="18">
-        <v>10</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
         <v>0.3</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="I15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3">
         <v>46.622</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="3">
         <v>0.56330000000000002</v>
       </c>
-      <c r="L15" s="18">
-        <f>K15/J15</f>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="29"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18">
-        <v>10</v>
-      </c>
-      <c r="F16" s="18">
-        <v>10</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="27">
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="7">
         <v>46.6447</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="6">
         <v>0.42459999999999998</v>
       </c>
-      <c r="L16" s="26">
-        <f>K16/J16</f>
+      <c r="L16" s="6">
+        <f t="shared" si="0"/>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="29"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1394,11 +1364,11 @@
         <v>0.48249999999999998</v>
       </c>
       <c r="L17" s="3">
-        <f>K17/J17</f>
+        <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="29"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1435,54 +1405,54 @@
         <v>0.50970000000000004</v>
       </c>
       <c r="L18" s="5">
-        <f>K18/J18</f>
+        <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="E19" s="18">
-        <v>10</v>
-      </c>
-      <c r="F19" s="18">
-        <v>10</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3">
         <v>91.107200000000006</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="3">
         <v>0.33160000000000001</v>
       </c>
-      <c r="L19" s="18">
-        <f>K19/J19</f>
+      <c r="L19" s="3">
+        <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1521,52 +1491,50 @@
         <v>0.29289999999999999</v>
       </c>
       <c r="L20" s="3">
-        <f>K20/J20</f>
+        <f t="shared" si="0"/>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="18">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
-        <v>10</v>
-      </c>
-      <c r="F21" s="18">
-        <v>10</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="18">
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
         <v>91.122799999999998</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="3">
         <v>0.28760000000000002</v>
       </c>
-      <c r="L21" s="18">
-        <f>K21/J21</f>
+      <c r="L21" s="3">
+        <f t="shared" si="0"/>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1603,50 +1571,50 @@
         <v>0.64029999999999998</v>
       </c>
       <c r="L22" s="3">
-        <f>K22/J22</f>
+        <f t="shared" si="0"/>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="16"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="18">
-        <v>2</v>
-      </c>
-      <c r="E23" s="18">
-        <v>10</v>
-      </c>
-      <c r="F23" s="18">
-        <v>10</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="28">
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="8">
         <v>72.707599999999999</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="8">
         <v>0.56310000000000004</v>
       </c>
-      <c r="L23" s="28">
-        <f>K23/J23</f>
+      <c r="L23" s="8">
+        <f t="shared" si="0"/>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="16"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1683,10 +1651,10 @@
         <v>0.67569999999999997</v>
       </c>
       <c r="L24" s="3">
-        <f>K24/J24</f>
+        <f t="shared" si="0"/>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="16"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1723,10 +1691,10 @@
         <v>0.46250000000000002</v>
       </c>
       <c r="L25" s="3">
-        <f>K25/J25</f>
+        <f t="shared" si="0"/>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="16"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1763,10 +1731,10 @@
         <v>0.46060000000000001</v>
       </c>
       <c r="L26" s="3">
-        <f>K26/J26</f>
+        <f t="shared" si="0"/>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -1803,10 +1771,10 @@
         <v>0.4768</v>
       </c>
       <c r="L27" s="5">
-        <f>K27/J27</f>
+        <f t="shared" si="0"/>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="16"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1850,726 +1818,452 @@
       <c r="BB27" s="3"/>
     </row>
     <row r="28" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E28" s="18">
-        <v>10</v>
-      </c>
-      <c r="F28" s="18">
-        <v>10</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="18">
+      <c r="I28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="3">
         <v>91.223600000000005</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="3">
         <v>0.249</v>
       </c>
-      <c r="L28" s="18">
-        <f>K28/J28</f>
+      <c r="L28" s="3">
+        <f t="shared" si="0"/>
         <v>2.7295568252075119E-3</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18"/>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
-      <c r="AQ28" s="18"/>
-      <c r="AR28" s="18"/>
     </row>
     <row r="29" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="18">
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3">
         <v>4</v>
       </c>
-      <c r="E29" s="18">
-        <v>10</v>
-      </c>
-      <c r="F29" s="18">
-        <v>10</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="18">
+      <c r="E29" s="3">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3">
         <v>91.136200000000002</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="3">
         <v>0.2707</v>
       </c>
-      <c r="L29" s="18">
-        <f>K29/J29</f>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="18"/>
-      <c r="AQ29" s="18"/>
-      <c r="AR29" s="18"/>
-    </row>
-    <row r="30" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="20">
-        <v>10</v>
-      </c>
-      <c r="F30" s="20">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="20">
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="3">
         <v>72.909599999999998</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="3">
         <v>0.43240000000000001</v>
       </c>
-      <c r="L30" s="20">
-        <f>K30/J30</f>
+      <c r="L30" s="3">
+        <f t="shared" si="0"/>
         <v>5.9306319058121289E-3</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-    </row>
-    <row r="31" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="21" t="s">
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="21">
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3">
         <v>4</v>
       </c>
-      <c r="E31" s="21">
-        <v>10</v>
-      </c>
-      <c r="F31" s="21">
-        <v>10</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="21">
+      <c r="E31" s="3">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3">
         <v>72.492800000000003</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="3">
         <v>0.66300000000000003</v>
       </c>
-      <c r="L31" s="21">
-        <f>K31/J31</f>
+      <c r="L31" s="3">
+        <f t="shared" si="0"/>
         <v>9.1457358523880997E-3</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="24"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-    </row>
-    <row r="32" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="M31" s="15"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="C32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="20">
-        <v>10</v>
-      </c>
-      <c r="F32" s="20">
-        <v>10</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+      <c r="F32" s="3">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="20">
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3">
         <v>46.885300000000001</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="3">
         <v>0.33860000000000001</v>
       </c>
-      <c r="L32" s="20">
-        <f>K32/J32</f>
+      <c r="L32" s="3">
+        <f t="shared" si="0"/>
         <v>7.2218797789499059E-3</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="24"/>
-      <c r="AM32" s="24"/>
-      <c r="AN32" s="24"/>
-      <c r="AO32" s="24"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="24"/>
-      <c r="AR32" s="24"/>
-    </row>
-    <row r="33" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="21" t="s">
+      <c r="M32" s="15"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="21">
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3">
         <v>4</v>
       </c>
-      <c r="E33" s="21">
-        <v>10</v>
-      </c>
-      <c r="F33" s="21">
-        <v>10</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="21">
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3">
         <v>46.592700000000001</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="3">
         <v>0.54159999999999997</v>
       </c>
-      <c r="L33" s="21">
-        <f>K33/J33</f>
+      <c r="L33" s="3">
+        <f t="shared" si="0"/>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AK33" s="24"/>
-      <c r="AL33" s="24"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-      <c r="AP33" s="24"/>
-      <c r="AQ33" s="24"/>
-      <c r="AR33" s="24"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="20">
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3">
         <v>6</v>
       </c>
-      <c r="E34" s="20">
-        <v>10</v>
-      </c>
-      <c r="F34" s="20">
-        <v>10</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="20" t="s">
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="30">
+      <c r="I34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="10">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="10">
         <v>0.27060000000000001</v>
       </c>
-      <c r="L34" s="20">
-        <f>K34/J34</f>
+      <c r="L34" s="3">
+        <f t="shared" ref="L34:L54" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
-      <c r="AO34" s="18"/>
-      <c r="AP34" s="18"/>
-      <c r="AQ34" s="18"/>
-      <c r="AR34" s="18"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="21">
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3">
         <v>6</v>
       </c>
-      <c r="E35" s="21">
-        <v>10</v>
-      </c>
-      <c r="F35" s="21">
-        <v>10</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="21">
+      <c r="E35" s="3">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3">
         <v>91.158799999999999</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="3">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L35" s="21">
-        <f>K35/J35</f>
+      <c r="L35" s="3">
+        <f t="shared" si="1"/>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
-      <c r="AM35" s="18"/>
-      <c r="AN35" s="18"/>
-      <c r="AO35" s="18"/>
-      <c r="AP35" s="18"/>
-      <c r="AQ35" s="18"/>
-      <c r="AR35" s="18"/>
-    </row>
-    <row r="36" spans="1:54" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="20">
+      <c r="C36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="3">
         <v>6</v>
       </c>
-      <c r="E36" s="20">
-        <v>10</v>
-      </c>
-      <c r="F36" s="20">
-        <v>10</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="20">
+      <c r="E36" s="3">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="3">
         <v>72.915599999999998</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="3">
         <v>0.44040000000000001</v>
       </c>
-      <c r="L36" s="20">
-        <f>K36/J36</f>
+      <c r="L36" s="3">
+        <f t="shared" si="1"/>
         <v>6.0398597830916842E-3</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="24"/>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-      <c r="AP36" s="24"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="24"/>
-    </row>
-    <row r="37" spans="1:54" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="20" t="s">
+      <c r="M36" s="15"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="20">
+      <c r="C37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="3">
         <v>6</v>
       </c>
-      <c r="E37" s="20">
-        <v>10</v>
-      </c>
-      <c r="F37" s="20">
-        <v>10</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="20">
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="3">
         <v>72.741200000000006</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="3">
         <v>0.53320000000000001</v>
       </c>
-      <c r="L37" s="20">
-        <f>K37/J37</f>
+      <c r="L37" s="3">
+        <f t="shared" si="1"/>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="24"/>
-      <c r="AL37" s="24"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="24"/>
-      <c r="AQ37" s="24"/>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="22"/>
-      <c r="AT37" s="22"/>
-      <c r="AU37" s="22"/>
-      <c r="AV37" s="22"/>
-      <c r="AW37" s="22"/>
-      <c r="AX37" s="22"/>
-      <c r="AY37" s="22"/>
-      <c r="AZ37" s="22"/>
-      <c r="BA37" s="22"/>
-      <c r="BB37" s="22"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
@@ -2599,48 +2293,17 @@
       <c r="I38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="3">
         <v>46.8</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="3">
         <v>0.40150000000000002</v>
       </c>
-      <c r="L38" s="20">
-        <f>K38/J38</f>
+      <c r="L38" s="3">
+        <f t="shared" si="1"/>
         <v>8.5790598290598295E-3</v>
       </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="18"/>
-      <c r="AP38" s="18"/>
-      <c r="AQ38" s="18"/>
-      <c r="AR38" s="18"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -2677,112 +2340,50 @@
         <v>0.4239</v>
       </c>
       <c r="L39" s="5">
-        <f>K39/J39</f>
+        <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="18"/>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="18"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="18"/>
-      <c r="AP39" s="18"/>
-      <c r="AQ39" s="18"/>
-      <c r="AR39" s="18"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="18">
-        <v>10</v>
-      </c>
-      <c r="F40" s="18">
-        <v>10</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="18">
+      <c r="E40" s="3">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
         <v>0.5</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="3">
         <v>91.021600000000007</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="3">
         <v>0.2651</v>
       </c>
-      <c r="L40" s="18">
-        <f>K40/J40</f>
+      <c r="L40" s="3">
+        <f t="shared" si="1"/>
         <v>2.9124954955746765E-3</v>
       </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="18"/>
-      <c r="AP40" s="18"/>
-      <c r="AQ40" s="18"/>
-      <c r="AR40" s="18"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -2819,183 +2420,121 @@
         <v>0.2364</v>
       </c>
       <c r="L41" s="3">
-        <f>K41/J41</f>
+        <f t="shared" si="1"/>
         <v>2.5993961132210744E-3</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="18"/>
-      <c r="AR41" s="18"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="18">
-        <v>10</v>
-      </c>
-      <c r="F42" s="18">
-        <v>10</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="18">
+      <c r="E42" s="3">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="3">
         <v>72.332800000000006</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="3">
         <v>0.61960000000000004</v>
       </c>
-      <c r="L42" s="18">
-        <f>K42/J42</f>
+      <c r="L42" s="3">
+        <f t="shared" si="1"/>
         <v>8.5659617766766939E-3</v>
       </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="18"/>
-      <c r="AA42" s="18"/>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
-      <c r="AJ42" s="18"/>
-      <c r="AK42" s="18"/>
-      <c r="AL42" s="18"/>
-      <c r="AM42" s="18"/>
-      <c r="AN42" s="18"/>
-      <c r="AO42" s="18"/>
-      <c r="AP42" s="18"/>
-      <c r="AQ42" s="18"/>
-      <c r="AR42" s="18"/>
+      <c r="M42" s="15"/>
     </row>
     <row r="43" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="18">
-        <v>10</v>
-      </c>
-      <c r="F43" s="18">
-        <v>10</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="18">
+      <c r="E43" s="3">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="3">
         <v>72.263999999999996</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="3">
         <v>0.67010000000000003</v>
       </c>
-      <c r="L43" s="18">
-        <f>K43/J43</f>
+      <c r="L43" s="3">
+        <f t="shared" si="1"/>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="18"/>
-      <c r="AA43" s="18"/>
-      <c r="AB43" s="18"/>
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
-      <c r="AJ43" s="18"/>
-      <c r="AK43" s="18"/>
-      <c r="AL43" s="18"/>
-      <c r="AM43" s="18"/>
-      <c r="AN43" s="18"/>
-      <c r="AO43" s="18"/>
-      <c r="AP43" s="18"/>
-      <c r="AQ43" s="18"/>
-      <c r="AR43" s="18"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
       <c r="AT43" s="3"/>
       <c r="AU43" s="3"/>
@@ -3007,11 +2546,11 @@
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
     </row>
-    <row r="44" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -3042,21 +2581,10 @@
         <v>0.45190000000000002</v>
       </c>
       <c r="L44" s="3">
-        <f>K44/J44</f>
+        <f t="shared" si="1"/>
         <v>9.7090924716397402E-3</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="3"/>
-      <c r="AY44" s="3"/>
-      <c r="AZ44" s="3"/>
-      <c r="BA44" s="3"/>
-      <c r="BB44" s="3"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -3093,11 +2621,11 @@
         <v>0.4627</v>
       </c>
       <c r="L45" s="5">
-        <f>K45/J45</f>
+        <f t="shared" si="1"/>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="19"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -3164,7 +2692,7 @@
         <v>0.2757</v>
       </c>
       <c r="L46" s="3">
-        <f>K46/J46</f>
+        <f t="shared" si="1"/>
         <v>3.024366056893624E-3</v>
       </c>
     </row>
@@ -3203,10 +2731,9 @@
         <v>0.26190000000000002</v>
       </c>
       <c r="L47" s="3">
-        <f>K47/J47</f>
+        <f t="shared" si="1"/>
         <v>2.8740425345126527E-3</v>
       </c>
-      <c r="M47" s="18"/>
     </row>
     <row r="48" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -3243,10 +2770,10 @@
         <v>0.25609999999999999</v>
       </c>
       <c r="L48" s="5">
-        <f>K48/J48</f>
+        <f t="shared" si="1"/>
         <v>2.8123510639933408E-3</v>
       </c>
-      <c r="N48" s="19"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -3283,11 +2810,11 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="L49" s="3">
-        <f>K49/J49</f>
+        <f t="shared" si="1"/>
         <v>2.9801342709942762E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -3307,27 +2834,13 @@
         <v>10</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="18">
-        <v>91.070599999999999</v>
-      </c>
-      <c r="K50" s="18">
-        <v>0.30859999999999999</v>
-      </c>
-      <c r="L50" s="18">
-        <f>K50/J50</f>
-        <v>3.388579849040195E-3</v>
-      </c>
-      <c r="N50" s="17"/>
-    </row>
-    <row r="51" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -3347,38 +2860,21 @@
         <v>10</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="18">
-        <v>91.093599999999995</v>
-      </c>
-      <c r="K51" s="18">
-        <v>0.27860000000000001</v>
-      </c>
-      <c r="L51" s="18">
-        <f>K51/J51</f>
-        <v>3.0583926862040806E-3</v>
-      </c>
-      <c r="N51" s="17"/>
-    </row>
-    <row r="52" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2</v>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E52" s="3">
         <v>10</v>
@@ -3387,17 +2883,13 @@
         <v>10</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="N52" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -3417,47 +2909,65 @@
         <v>10</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="N53" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="3">
+        <v>91.070599999999999</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="1"/>
+        <v>3.388579849040195E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9">
-        <v>2</v>
-      </c>
-      <c r="E54" s="9">
-        <v>10</v>
-      </c>
-      <c r="F54" s="9">
-        <v>10</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="N54" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="3">
+        <v>91.093599999999995</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0583926862040806E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -3477,49 +2987,121 @@
         <v>10</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="3">
+        <v>38</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3">
+        <v>10</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="3">
         <v>3</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="N55" s="17"/>
-    </row>
-    <row r="56" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="N56" s="17"/>
-    </row>
-    <row r="57" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="N57" s="17"/>
-    </row>
-    <row r="58" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="N58" s="17"/>
+      <c r="I57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="3">
+        <v>91.082999999999998</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L57" s="3">
+        <f>K57/J57</f>
+        <v>2.8819867593294032E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="8">
+        <v>91.191599999999994</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="L58" s="8">
+        <f>K58/J58</f>
+        <v>2.9246114773729161E-3</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -3529,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="3">
         <v>2</v>
@@ -3546,18 +3128,18 @@
       <c r="H59" s="3">
         <v>3</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I59" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J59" s="3">
-        <v>91.082999999999998</v>
+        <v>91.111800000000002</v>
       </c>
       <c r="K59" s="3">
-        <v>0.26250000000000001</v>
+        <v>0.29730000000000001</v>
       </c>
       <c r="L59" s="3">
         <f>K59/J59</f>
-        <v>2.8819867593294032E-3</v>
+        <v>3.263024108842104E-3</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3568,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" s="3">
         <v>2</v>
@@ -3585,32 +3167,36 @@
       <c r="H60" s="3">
         <v>3</v>
       </c>
-      <c r="I60" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="8">
-        <v>91.191599999999994</v>
-      </c>
-      <c r="K60" s="8">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="L60" s="8">
+      <c r="I60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3">
+        <v>90.766800000000003</v>
+      </c>
+      <c r="K60" s="3">
+        <f>0.3409</f>
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="L60" s="3">
         <f>K60/J60</f>
-        <v>2.9246114773729161E-3</v>
+        <v>3.755778544577973E-3</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E61" s="3">
         <v>10</v>
@@ -3622,55 +3208,6 @@
         <v>35</v>
       </c>
       <c r="H61" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="3">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H63" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3685,28 +3222,28 @@
     <mergeCell ref="N14:N18"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F45:F53 F55:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F45:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C45:C53 C55:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C45:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A53 A55:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D45:D53 D55:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D45:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E45:E53 E55:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E45:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B53 B55:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H53 H55:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G53 G55:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40165E-988C-C048-AB11-67D2E76CBBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA0A9E9-9C0F-4442-954E-4598B7989B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="14100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="14100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="43">
   <si>
     <t>ACQ function</t>
   </si>
@@ -164,13 +164,16 @@
   </si>
   <si>
     <t>num_estimator = 10</t>
+  </si>
+  <si>
+    <t>num_estimator = 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +206,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,10 +646,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB61"/>
+  <dimension ref="A1:BB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2107,7 @@
         <v>0.27060000000000001</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" ref="L34:L54" si="1">K34/J34</f>
+        <f t="shared" ref="L34:L55" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
       <c r="M34" s="15"/>
@@ -2839,6 +2848,19 @@
       <c r="H50" s="3">
         <v>3</v>
       </c>
+      <c r="I50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="3">
+        <v>91.039199999999994</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1491928751570756E-3</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
@@ -2873,6 +2895,9 @@
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D52" s="3" t="s">
         <v>11</v>
       </c>
@@ -2888,19 +2913,32 @@
       <c r="H52" s="3">
         <v>3</v>
       </c>
+      <c r="I52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="3">
+        <v>91.001800000000003</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="L52" s="3">
+        <f>K52/J52</f>
+        <v>3.0197204890452713E-3</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E53" s="3">
         <v>10</v>
@@ -2909,93 +2947,103 @@
         <v>10</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="8">
+        <v>91.134200000000007</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="L53" s="8">
+        <f>K53/J53</f>
+        <v>2.3745202130484493E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="3">
         <v>0.5</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="3">
+      <c r="I54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="3">
         <v>91.070599999999999</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K54" s="3">
         <v>0.30859999999999999</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L54" s="3">
         <f t="shared" si="1"/>
         <v>3.388579849040195E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="3" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3">
+        <v>10</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H55" s="3">
         <v>0.5</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="3">
         <v>91.093599999999995</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K55" s="3">
         <v>0.27860000000000001</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L55" s="3">
         <f t="shared" si="1"/>
         <v>3.0583926862040806E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3">
-        <v>10</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>12</v>
@@ -3021,8 +3069,21 @@
       <c r="H56" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="8">
+        <v>91.13</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L56" s="8">
+        <f>K56/J56</f>
+        <v>2.8420937122791618E-3</v>
+      </c>
       <c r="N56" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3033,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -3045,34 +3106,25 @@
         <v>10</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="3">
-        <v>91.082999999999998</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="L57" s="3">
-        <f>K57/J57</f>
-        <v>2.8819867593294032E-3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -3084,23 +3136,26 @@
         <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="8">
-        <v>91.191599999999994</v>
-      </c>
-      <c r="K58" s="8">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="L58" s="8">
+      <c r="J58" s="3">
+        <v>91.0976</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.2414</v>
+      </c>
+      <c r="L58" s="3">
         <f>K58/J58</f>
-        <v>2.9246114773729161E-3</v>
+        <v>2.6499051566671351E-3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3111,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="3">
         <v>2</v>
@@ -3123,23 +3178,13 @@
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="3">
-        <v>91.111800000000002</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0.29730000000000001</v>
-      </c>
-      <c r="L59" s="3">
-        <f>K59/J59</f>
-        <v>3.263024108842104E-3</v>
+        <v>38</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3150,64 +3195,289 @@
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3">
+        <v>91.087599999999995</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="L60" s="3">
+        <f>K60/J60</f>
+        <v>2.7742524778345242E-3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="3">
+        <v>91.082999999999998</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L61" s="3">
+        <f>K61/J61</f>
+        <v>2.8819867593294032E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="8">
+        <v>91.191599999999994</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="L62" s="8">
+        <f>K62/J62</f>
+        <v>2.9246114773729161E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="3">
+        <v>91.111800000000002</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="L63" s="3">
+        <f>K63/J63</f>
+        <v>3.263024108842104E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H64" s="3">
         <v>3</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="I64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="3">
         <v>90.766800000000003</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K64" s="3">
         <f>0.3409</f>
         <v>0.34089999999999998</v>
       </c>
-      <c r="L60" s="3">
-        <f>K60/J60</f>
+      <c r="L64" s="3">
+        <f>K64/J64</f>
         <v>3.755778544577973E-3</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="N64" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="3">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="E65" s="5">
+        <v>10</v>
+      </c>
+      <c r="F65" s="5">
+        <v>10</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H65" s="5">
+        <v>3</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="5">
+        <v>91.0946</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.3251</v>
+      </c>
+      <c r="L65" s="5">
+        <f>K65/J65</f>
+        <v>3.5688174710685376E-3</v>
+      </c>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="3">
         <v>3</v>
       </c>
     </row>
@@ -3221,6 +3491,7 @@
     <mergeCell ref="N9:N13"/>
     <mergeCell ref="N14:N18"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F45:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
@@ -3237,15 +3508,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E45:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
-      <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A71 B73:B1048576 B1:B71" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+      <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA0A9E9-9C0F-4442-954E-4598B7989B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388EDFDB-DD38-FD41-8F59-36E2BE43D2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="14100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="-60" yWindow="3140" windowWidth="28800" windowHeight="15040" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="43">
   <si>
     <t>ACQ function</t>
   </si>
@@ -157,16 +157,16 @@
     <t>BtCP</t>
   </si>
   <si>
-    <t>num_estimator = 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explore_factor=0.5 </t>
-  </si>
-  <si>
-    <t>num_estimator = 10</t>
-  </si>
-  <si>
-    <t>num_estimator = 8</t>
+    <t>num_estimator = 3, special conformity score</t>
+  </si>
+  <si>
+    <t>num_estimator = 5, special conformity score</t>
+  </si>
+  <si>
+    <t>num_estimator = 8, special conformity score</t>
+  </si>
+  <si>
+    <t>num_estimator = 10, special conformity score</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +649,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB67"/>
+  <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2887,6 +2890,19 @@
       <c r="H51" s="3">
         <v>3</v>
       </c>
+      <c r="I51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="3">
+        <v>91.0578</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8926681734019492E-3</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
@@ -3069,19 +3085,6 @@
       <c r="H56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="8">
-        <v>91.13</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="L56" s="8">
-        <f>K56/J56</f>
-        <v>2.8420937122791618E-3</v>
-      </c>
       <c r="N56" s="3" t="s">
         <v>39</v>
       </c>
@@ -3094,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D57" s="3">
         <v>2</v>
@@ -3111,20 +3114,32 @@
       <c r="H57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="N57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="8">
+        <v>91.13</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="L57" s="8">
+        <f>K57/J57</f>
+        <v>2.8420937122791618E-3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -3144,23 +3159,23 @@
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="3">
-        <v>91.0976</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0.2414</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="J58" s="21">
+        <v>91.123999999999995</v>
+      </c>
+      <c r="K58" s="21">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="L58" s="21">
         <f>K58/J58</f>
-        <v>2.6499051566671351E-3</v>
+        <v>3.8123875159123831E-3</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>8</v>
@@ -3183,8 +3198,21 @@
       <c r="H59" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="3">
+        <v>91.0976</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.2414</v>
+      </c>
+      <c r="L59" s="3">
+        <f>K59/J59</f>
+        <v>2.6499051566671351E-3</v>
+      </c>
       <c r="N59" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3216,14 +3244,14 @@
         <v>17</v>
       </c>
       <c r="J60" s="3">
-        <v>91.087599999999995</v>
+        <v>91.018799999999999</v>
       </c>
       <c r="K60" s="3">
-        <v>0.25269999999999998</v>
+        <v>0.26750000000000002</v>
       </c>
       <c r="L60" s="3">
         <f>K60/J60</f>
-        <v>2.7742524778345242E-3</v>
+        <v>2.9389532711923253E-3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>41</v>
@@ -3249,23 +3277,26 @@
         <v>10</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="3">
-        <v>91.082999999999998</v>
+        <v>91.087599999999995</v>
       </c>
       <c r="K61" s="3">
-        <v>0.26250000000000001</v>
+        <v>0.25269999999999998</v>
       </c>
       <c r="L61" s="3">
         <f>K61/J61</f>
-        <v>2.8819867593294032E-3</v>
+        <v>2.7742524778345242E-3</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3276,7 +3307,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D62" s="3">
         <v>2</v>
@@ -3296,15 +3327,15 @@
       <c r="I62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="8">
-        <v>91.191599999999994</v>
-      </c>
-      <c r="K62" s="8">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="L62" s="8">
+      <c r="J62" s="3">
+        <v>91.082999999999998</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L62" s="3">
         <f>K62/J62</f>
-        <v>2.9246114773729161E-3</v>
+        <v>2.8819867593294032E-3</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3315,7 +3346,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
@@ -3335,15 +3366,15 @@
       <c r="I63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="3">
-        <v>91.111800000000002</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0.29730000000000001</v>
-      </c>
-      <c r="L63" s="3">
+      <c r="J63" s="8">
+        <v>91.191599999999994</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="L63" s="8">
         <f>K63/J63</f>
-        <v>3.263024108842104E-3</v>
+        <v>2.9246114773729161E-3</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3354,7 +3385,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
@@ -3375,95 +3406,105 @@
         <v>17</v>
       </c>
       <c r="J64" s="3">
+        <v>91.111800000000002</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="L64" s="3">
+        <f>K64/J64</f>
+        <v>3.263024108842104E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="3">
         <v>90.766800000000003</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K65" s="3">
         <f>0.3409</f>
         <v>0.34089999999999998</v>
       </c>
-      <c r="L64" s="3">
-        <f>K64/J64</f>
+      <c r="L65" s="3">
+        <f>K65/J65</f>
         <v>3.755778544577973E-3</v>
       </c>
-      <c r="N64" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    </row>
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="5">
-        <v>10</v>
-      </c>
-      <c r="F65" s="5">
-        <v>10</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="E66" s="5">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5">
+        <v>10</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H66" s="5">
         <v>3</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="I66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="5">
         <v>91.0946</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K66" s="5">
         <v>0.3251</v>
       </c>
-      <c r="L65" s="5">
-        <f>K65/J65</f>
+      <c r="L66" s="5">
+        <f>K66/J66</f>
         <v>3.5688174710685376E-3</v>
       </c>
-      <c r="N65" s="11"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="3">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3">
-        <v>10</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3</v>
-      </c>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
@@ -3479,6 +3520,136 @@
       </c>
       <c r="H67" s="3">
         <v>3</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="3">
+        <v>72.591899999999995</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.53990000000000005</v>
+      </c>
+      <c r="L67" s="3">
+        <f>K67/J67</f>
+        <v>7.4374689187085624E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="8">
+        <v>72.8292</v>
+      </c>
+      <c r="K68" s="8">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="L68" s="8">
+        <f>K68/J68</f>
+        <v>7.3734161572556068E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="L69" s="3">
+        <f>K69/J69</f>
+        <v>8.4828326180257513E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="8">
+        <v>46.79</v>
+      </c>
+      <c r="K70" s="8">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="L70" s="8">
+        <f>K70/J70</f>
+        <v>9.281897841419107E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3514,7 +3685,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A71 B73:B1048576 B1:B71" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A72 B74:B1048576 B1:B72" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388EDFDB-DD38-FD41-8F59-36E2BE43D2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA4DA4-6553-1C4E-93D3-4F0A48450D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3140" windowWidth="28800" windowHeight="15040" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="2800" yWindow="3080" windowWidth="28800" windowHeight="15040" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="43">
   <si>
     <t>ACQ function</t>
   </si>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,9 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2110,7 +2107,7 @@
         <v>0.27060000000000001</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" ref="L34:L55" si="1">K34/J34</f>
+        <f t="shared" ref="L34:L56" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
       <c r="M34" s="15"/>
@@ -3085,6 +3082,19 @@
       <c r="H56" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="3">
+        <v>91.091800000000006</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0288126922511133E-3</v>
+      </c>
       <c r="N56" s="3" t="s">
         <v>39</v>
       </c>
@@ -3159,14 +3169,14 @@
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="3">
         <v>91.123999999999995</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="3">
         <v>0.34739999999999999</v>
       </c>
-      <c r="L58" s="21">
-        <f>K58/J58</f>
+      <c r="L58" s="3">
+        <f t="shared" ref="L57:L70" si="2">K58/J58</f>
         <v>3.8123875159123831E-3</v>
       </c>
       <c r="N58" s="3" t="s">
@@ -3208,7 +3218,7 @@
         <v>0.2414</v>
       </c>
       <c r="L59" s="3">
-        <f>K59/J59</f>
+        <f t="shared" si="2"/>
         <v>2.6499051566671351E-3</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3250,7 +3260,7 @@
         <v>0.26750000000000002</v>
       </c>
       <c r="L60" s="3">
-        <f>K60/J60</f>
+        <f t="shared" si="2"/>
         <v>2.9389532711923253E-3</v>
       </c>
       <c r="N60" s="3" t="s">
@@ -3292,7 +3302,7 @@
         <v>0.25269999999999998</v>
       </c>
       <c r="L61" s="3">
-        <f>K61/J61</f>
+        <f t="shared" si="2"/>
         <v>2.7742524778345242E-3</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -3334,7 +3344,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="L62" s="3">
-        <f>K62/J62</f>
+        <f t="shared" si="2"/>
         <v>2.8819867593294032E-3</v>
       </c>
     </row>
@@ -3373,7 +3383,7 @@
         <v>0.26669999999999999</v>
       </c>
       <c r="L63" s="8">
-        <f>K63/J63</f>
+        <f t="shared" si="2"/>
         <v>2.9246114773729161E-3</v>
       </c>
     </row>
@@ -3412,11 +3422,11 @@
         <v>0.29730000000000001</v>
       </c>
       <c r="L64" s="3">
-        <f>K64/J64</f>
+        <f t="shared" si="2"/>
         <v>3.263024108842104E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>0.34089999999999998</v>
       </c>
       <c r="L65" s="3">
-        <f>K65/J65</f>
+        <f t="shared" si="2"/>
         <v>3.755778544577973E-3</v>
       </c>
     </row>
@@ -3491,7 +3501,7 @@
         <v>0.3251</v>
       </c>
       <c r="L66" s="5">
-        <f>K66/J66</f>
+        <f t="shared" si="2"/>
         <v>3.5688174710685376E-3</v>
       </c>
       <c r="N66" s="11"/>
@@ -3531,7 +3541,7 @@
         <v>0.53990000000000005</v>
       </c>
       <c r="L67" s="3">
-        <f>K67/J67</f>
+        <f t="shared" si="2"/>
         <v>7.4374689187085624E-3</v>
       </c>
     </row>
@@ -3570,7 +3580,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="L68" s="8">
-        <f>K68/J68</f>
+        <f t="shared" si="2"/>
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
@@ -3609,7 +3619,7 @@
         <v>0.39529999999999998</v>
       </c>
       <c r="L69" s="3">
-        <f>K69/J69</f>
+        <f t="shared" si="2"/>
         <v>8.4828326180257513E-3</v>
       </c>
     </row>
@@ -3648,7 +3658,7 @@
         <v>0.43430000000000002</v>
       </c>
       <c r="L70" s="8">
-        <f>K70/J70</f>
+        <f t="shared" si="2"/>
         <v>9.281897841419107E-3</v>
       </c>
     </row>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA4DA4-6553-1C4E-93D3-4F0A48450D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96065DA6-0E7C-DB4E-94D7-9120BD5A5097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="3080" windowWidth="28800" windowHeight="15040" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>num_estimator = 10, special conformity score</t>
+  </si>
+  <si>
+    <t>num_estimator = 5</t>
+  </si>
+  <si>
+    <t>num_estimator = 10</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,6 +334,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,10 +655,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB70"/>
+  <dimension ref="A1:BB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D58" s="3">
         <v>2</v>
@@ -3169,29 +3178,29 @@
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="3">
-        <v>91.123999999999995</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0.34739999999999999</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" ref="L57:L70" si="2">K58/J58</f>
-        <v>3.8123875159123831E-3</v>
+      <c r="J58" s="21">
+        <v>91.096599999999995</v>
+      </c>
+      <c r="K58" s="21">
+        <v>0.2132</v>
+      </c>
+      <c r="L58" s="21">
+        <f>K58/J58</f>
+        <v>2.3403727471716838E-3</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D59" s="3">
         <v>2</v>
@@ -3212,454 +3221,776 @@
         <v>17</v>
       </c>
       <c r="J59" s="3">
+        <v>91.123999999999995</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" ref="L59:L79" si="2">K59/J59</f>
+        <v>3.8123875159123831E-3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3">
         <v>91.0976</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K60" s="3">
         <v>0.2414</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L60" s="3">
         <f t="shared" si="2"/>
         <v>2.6499051566671351E-3</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="3">
         <v>91.018799999999999</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K61" s="3">
         <v>0.26750000000000002</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L61" s="3">
         <f t="shared" si="2"/>
         <v>2.9389532711923253E-3</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="C62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="I62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="3">
         <v>91.087599999999995</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K62" s="3">
         <v>0.25269999999999998</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L62" s="3">
         <f t="shared" si="2"/>
         <v>2.7742524778345242E-3</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="C63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="3">
+        <v>91.041200000000003</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8558498789559013E-3</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H64" s="3">
         <v>3</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="I64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="3">
         <v>91.082999999999998</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K64" s="3">
         <v>0.26250000000000001</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L64" s="3">
         <f t="shared" si="2"/>
         <v>2.8819867593294032E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
-      <c r="E63" s="3">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H65" s="3">
         <v>3</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="I65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="8">
         <v>91.191599999999994</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K65" s="8">
         <v>0.26669999999999999</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L65" s="8">
         <f t="shared" si="2"/>
         <v>2.9246114773729161E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H66" s="3">
         <v>3</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="3">
+      <c r="I66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="3">
         <v>91.111800000000002</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K66" s="3">
         <v>0.29730000000000001</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L66" s="3">
         <f t="shared" si="2"/>
         <v>3.263024108842104E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="3">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3">
-        <v>10</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="3">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3">
+        <v>10</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H67" s="3">
         <v>3</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="3">
+      <c r="I67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="3">
         <v>90.766800000000003</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K67" s="3">
         <f>0.3409</f>
         <v>0.34089999999999998</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L67" s="3">
         <f t="shared" si="2"/>
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="5">
-        <v>10</v>
-      </c>
-      <c r="F66" s="5">
-        <v>10</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="E68" s="5">
+        <v>10</v>
+      </c>
+      <c r="F68" s="5">
+        <v>10</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H68" s="5">
         <v>3</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="5">
+      <c r="I68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="5">
         <v>91.0946</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K68" s="5">
         <v>0.3251</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L68" s="5">
         <f t="shared" si="2"/>
         <v>3.5688174710685376E-3</v>
       </c>
-      <c r="N66" s="11"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>10</v>
-      </c>
-      <c r="F67" s="3">
-        <v>10</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H69" s="3">
         <v>3</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="3">
+      <c r="I69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="3">
         <v>72.591899999999995</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K69" s="3">
         <v>0.53990000000000005</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L69" s="3">
         <f t="shared" si="2"/>
         <v>7.4374689187085624E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="3">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3">
-        <v>10</v>
-      </c>
-      <c r="F68" s="3">
-        <v>10</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H70" s="3">
         <v>3</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="8">
+      <c r="I70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="8">
         <v>72.8292</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K70" s="8">
         <v>0.53700000000000003</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L70" s="8">
         <f t="shared" si="2"/>
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" s="3">
+        <v>3</v>
+      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="3">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3">
+        <v>10</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3">
+        <v>10</v>
+      </c>
+      <c r="F74" s="3">
+        <v>10</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" s="3">
+        <v>3</v>
+      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3">
+        <v>10</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="3">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3">
-        <v>10</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>10</v>
+      </c>
+      <c r="F78" s="3">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H78" s="3">
         <v>3</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="3">
+      <c r="I78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="3">
         <v>46.6</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K78" s="3">
         <v>0.39529999999999998</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L78" s="3">
         <f t="shared" si="2"/>
         <v>8.4828326180257513E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3">
-        <v>10</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3">
+        <v>10</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H79" s="3">
         <v>3</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="I79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="8">
         <v>46.79</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K79" s="8">
         <v>0.43430000000000002</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L79" s="8">
         <f t="shared" si="2"/>
         <v>9.281897841419107E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+      <c r="F80" s="3">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J88" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3674,29 +4005,29 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F45:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F89:F1048576 F45:F86" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C45:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C89:C1048576 C45:C86" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D45:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D89:D1048576 D45:D86" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E45:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E89:E1048576 E45:E86" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B1048576 B1:B81" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+      <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J87:J88 H89:H1048576 H1:H86" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G89:G1048576 G1:G86" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A72 B74:B1048576 B1:B72" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
-      <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96065DA6-0E7C-DB4E-94D7-9120BD5A5097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9E459-03D5-B24F-A72F-86FADAFB6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="5380" yWindow="1980" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -657,8 +657,8 @@
   </sheetPr>
   <dimension ref="A1:BB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,14 +3137,14 @@
         <v>17</v>
       </c>
       <c r="J57" s="8">
-        <v>91.13</v>
+        <v>91.121799999999993</v>
       </c>
       <c r="K57" s="8">
-        <v>0.25900000000000001</v>
+        <v>0.2571</v>
       </c>
       <c r="L57" s="8">
         <f>K57/J57</f>
-        <v>2.8420937122791618E-3</v>
+        <v>2.8214982583750544E-3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>40</v>
@@ -3178,13 +3178,13 @@
       <c r="I58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="3">
         <v>91.096599999999995</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="3">
         <v>0.2132</v>
       </c>
-      <c r="L58" s="21">
+      <c r="L58" s="3">
         <f>K58/J58</f>
         <v>2.3403727471716838E-3</v>
       </c>
@@ -3262,10 +3262,10 @@
       <c r="I60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="21">
         <v>91.0976</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="21">
         <v>0.2414</v>
       </c>
       <c r="L60" s="3">
@@ -3702,9 +3702,19 @@
       <c r="H71" s="3">
         <v>3</v>
       </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="I71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="21">
+        <v>72.417199999999994</v>
+      </c>
+      <c r="K71" s="21">
+        <v>0.69940000000000002</v>
+      </c>
+      <c r="L71" s="21">
+        <f t="shared" si="2"/>
+        <v>9.6579265699309018E-3</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
@@ -3731,9 +3741,19 @@
       <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="I72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="21">
+        <v>72.6404</v>
+      </c>
+      <c r="K72" s="21">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="L72" s="21">
+        <f>K72/J72</f>
+        <v>7.691312272509512E-3</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
@@ -3936,7 +3956,7 @@
         <v>34</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>9</v>
@@ -3962,7 +3982,7 @@
         <v>34</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>20</v>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9E459-03D5-B24F-A72F-86FADAFB6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CF992-49BC-8147-BC01-895E56A9D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="1980" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,6 +218,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -655,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB88"/>
+  <dimension ref="A1:BB91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,7 +3234,7 @@
         <v>0.34739999999999999</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" ref="L59:L79" si="2">K59/J59</f>
+        <f t="shared" ref="L59:L82" si="2">K59/J59</f>
         <v>3.8123875159123831E-3</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3262,10 +3269,10 @@
       <c r="I60" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J60" s="3">
         <v>91.0976</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="3">
         <v>0.2414</v>
       </c>
       <c r="L60" s="3">
@@ -3705,13 +3712,13 @@
       <c r="I71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="21">
+      <c r="J71" s="3">
         <v>72.417199999999994</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="3">
         <v>0.69940000000000002</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L71" s="3">
         <f t="shared" si="2"/>
         <v>9.6579265699309018E-3</v>
       </c>
@@ -3744,13 +3751,13 @@
       <c r="I72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="21">
+      <c r="J72" s="3">
         <v>72.6404</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K72" s="3">
         <v>0.55869999999999997</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L72" s="3">
         <f>K72/J72</f>
         <v>7.691312272509512E-3</v>
       </c>
@@ -3815,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>9</v>
@@ -3844,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>20</v>
@@ -3869,147 +3876,269 @@
       <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3">
+        <v>10</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
+      <c r="N77" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>10</v>
+      </c>
+      <c r="F78" s="3">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="N78" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="9">
+        <v>2</v>
+      </c>
+      <c r="E79" s="9">
+        <v>10</v>
+      </c>
+      <c r="F79" s="9">
+        <v>10</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="5">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5">
+        <v>10</v>
+      </c>
+      <c r="F80" s="5">
+        <v>10</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="3">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3">
-        <v>10</v>
-      </c>
-      <c r="F78" s="3">
-        <v>10</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H81" s="3">
         <v>3</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="3">
+      <c r="I81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="3">
         <v>46.6</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K81" s="3">
         <v>0.39529999999999998</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L81" s="3">
         <f t="shared" si="2"/>
         <v>8.4828326180257513E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="3">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3">
-        <v>10</v>
-      </c>
-      <c r="F79" s="3">
-        <v>10</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>10</v>
+      </c>
+      <c r="F82" s="3">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H82" s="3">
         <v>3</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="8">
+      <c r="I82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="8">
         <v>46.79</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K82" s="8">
         <v>0.43430000000000002</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L82" s="8">
         <f t="shared" si="2"/>
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="3" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="3">
-        <v>10</v>
-      </c>
-      <c r="F80" s="3">
-        <v>10</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="E83" s="3">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H83" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="3">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3">
-        <v>10</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="E84" s="3">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3">
+        <v>10</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H84" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J87" s="3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J90" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J88" s="3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J91" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4025,28 +4154,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F89:F1048576 F45:F86" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F92:F1048576 F45:F78 F80:F89" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C89:C1048576 C45:C86" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C92:C1048576 C45:C78 C80:C89" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A78 A80:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D89:D1048576 D45:D86" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D92:D1048576 D45:D78 D80:D89" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E89:E1048576 E45:E86" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E92:E1048576 E45:E78 E80:E89" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83:B1048576 B1:B81" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86:B1048576 B1:B78 B80:B84" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J87:J88 H89:H1048576 H1:H86" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J91 H92:H1048576 H1:H78 H80:H89" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G89:G1048576 G1:G86" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G1048576 G1:G78 G80:G89" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CF992-49BC-8147-BC01-895E56A9D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0453AD0-DA12-6545-A475-E29C684FC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="1980" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +324,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -342,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -662,10 +665,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB91"/>
+  <dimension ref="A1:BB85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="98" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91:J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,10 +772,10 @@
         <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -814,8 +817,8 @@
         <f t="shared" si="0"/>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="18"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -855,8 +858,8 @@
         <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="18"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -896,8 +899,8 @@
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="18"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -937,8 +940,8 @@
         <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="18"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -978,8 +981,8 @@
         <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="18"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1019,8 +1022,8 @@
         <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="19"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1060,8 +1063,8 @@
         <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="20" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1103,8 +1106,8 @@
         <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="18"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1144,8 +1147,8 @@
         <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1185,8 +1188,8 @@
         <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="18"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1226,8 +1229,8 @@
         <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1267,8 +1270,8 @@
         <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="20" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1310,8 +1313,8 @@
         <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="18"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1351,8 +1354,8 @@
         <f t="shared" si="0"/>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="18"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1392,8 +1395,8 @@
         <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="18"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1433,8 +1436,8 @@
         <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="19"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1474,7 +1477,7 @@
         <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -1519,7 +1522,7 @@
         <f t="shared" si="0"/>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="15"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1559,7 +1562,7 @@
         <f t="shared" si="0"/>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="15"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1599,7 +1602,7 @@
         <f t="shared" si="0"/>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1639,7 +1642,7 @@
         <f t="shared" si="0"/>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="15"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1679,7 +1682,7 @@
         <f t="shared" si="0"/>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1719,7 +1722,7 @@
         <f t="shared" si="0"/>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1759,7 +1762,7 @@
         <f t="shared" si="0"/>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -1799,7 +1802,7 @@
         <f t="shared" si="0"/>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1880,7 +1883,7 @@
         <f t="shared" si="0"/>
         <v>2.7295568252075119E-3</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1922,7 +1925,7 @@
         <f t="shared" si="0"/>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1962,7 +1965,7 @@
         <f t="shared" si="0"/>
         <v>5.9306319058121289E-3</v>
       </c>
-      <c r="M30" s="15"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2003,7 +2006,7 @@
         <f t="shared" si="0"/>
         <v>9.1457358523880997E-3</v>
       </c>
-      <c r="M31" s="15"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2044,7 +2047,7 @@
         <f t="shared" si="0"/>
         <v>7.2218797789499059E-3</v>
       </c>
-      <c r="M32" s="15"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="13"/>
     </row>
     <row r="33" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2085,7 +2088,7 @@
         <f t="shared" si="0"/>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
@@ -2126,7 +2129,7 @@
         <f t="shared" ref="L34:L56" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="15"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -2166,7 +2169,7 @@
         <f t="shared" si="1"/>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="15"/>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -2206,7 +2209,7 @@
         <f t="shared" si="1"/>
         <v>6.0398597830916842E-3</v>
       </c>
-      <c r="M36" s="15"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="13"/>
     </row>
     <row r="37" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -2247,7 +2250,7 @@
         <f t="shared" si="1"/>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="15"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="13"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
@@ -2328,7 +2331,7 @@
         <f t="shared" si="1"/>
         <v>8.5790598290598295E-3</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="16"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -2368,7 +2371,7 @@
         <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="15"/>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -2408,7 +2411,7 @@
         <f t="shared" si="1"/>
         <v>2.9124954955746765E-3</v>
       </c>
-      <c r="M40" s="15"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -2448,7 +2451,7 @@
         <f t="shared" si="1"/>
         <v>2.5993961132210744E-3</v>
       </c>
-      <c r="M41" s="15"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -2488,7 +2491,7 @@
         <f t="shared" si="1"/>
         <v>8.5659617766766939E-3</v>
       </c>
-      <c r="M42" s="15"/>
+      <c r="M42" s="16"/>
     </row>
     <row r="43" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -2528,7 +2531,7 @@
         <f t="shared" si="1"/>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M43" s="15"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="4"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2609,7 +2612,7 @@
         <f t="shared" si="1"/>
         <v>9.7090924716397402E-3</v>
       </c>
-      <c r="M44" s="15"/>
+      <c r="M44" s="16"/>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -2649,7 +2652,7 @@
         <f t="shared" si="1"/>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M45" s="16"/>
+      <c r="M45" s="17"/>
       <c r="N45" s="11"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -3234,7 +3237,7 @@
         <v>0.34739999999999999</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" ref="L59:L82" si="2">K59/J59</f>
+        <f t="shared" ref="L59:L83" si="2">K59/J59</f>
         <v>3.8123875159123831E-3</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3526,7 +3529,7 @@
         <v>3.263024108842104E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>12</v>
       </c>
@@ -3566,214 +3569,201 @@
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>20</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="5">
-        <v>10</v>
-      </c>
-      <c r="F68" s="5">
-        <v>10</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="E69" s="5">
+        <v>10</v>
+      </c>
+      <c r="F69" s="5">
+        <v>10</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H69" s="5">
         <v>3</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="5">
+      <c r="I69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="5">
         <v>91.0946</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K69" s="5">
         <v>0.3251</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L69" s="5">
         <f t="shared" si="2"/>
         <v>3.5688174710685376E-3</v>
       </c>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="3">
-        <v>2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3">
-        <v>10</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H70" s="3">
         <v>3</v>
       </c>
-      <c r="I69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="3">
+      <c r="I70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="3">
         <v>72.591899999999995</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K70" s="3">
         <v>0.53990000000000005</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L70" s="3">
         <f t="shared" si="2"/>
         <v>7.4374689187085624E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3">
-        <v>10</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H71" s="3">
         <v>3</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="I71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="8">
         <v>72.8292</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K71" s="8">
         <v>0.53700000000000003</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L71" s="8">
         <f t="shared" si="2"/>
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="3">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>10</v>
-      </c>
-      <c r="F71" s="3">
-        <v>10</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="3">
+      <c r="I72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="3">
         <v>72.417199999999994</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K72" s="3">
         <v>0.69940000000000002</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L72" s="3">
         <f t="shared" si="2"/>
         <v>9.6579265699309018E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2</v>
-      </c>
-      <c r="E72" s="3">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3">
-        <v>10</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="3">
-        <v>72.6404</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0.55869999999999997</v>
-      </c>
-      <c r="L72" s="3">
-        <f>K72/J72</f>
-        <v>7.691312272509512E-3</v>
-      </c>
-    </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
       </c>
       <c r="E73" s="3">
         <v>10</v>
@@ -3786,6 +3776,19 @@
       </c>
       <c r="H73" s="3">
         <v>3</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="3">
+        <v>72.6404</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="L73" s="3">
+        <f>K73/J73</f>
+        <v>7.691312272509512E-3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -3796,7 +3799,7 @@
         <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -3813,22 +3816,32 @@
       <c r="H74" s="3">
         <v>3</v>
       </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="I74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="L74" s="3">
+        <f>K74/J74</f>
+        <v>7.6937931034482751E-3</v>
+      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="3">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E75" s="3">
         <v>10</v>
@@ -3837,14 +3850,24 @@
         <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="22">
+        <v>72.596800000000002</v>
+      </c>
+      <c r="K75" s="22">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="L75" s="22">
+        <f>K75/J75</f>
+        <v>8.4259912282635043E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
@@ -3854,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3">
         <v>2</v>
@@ -3871,9 +3894,19 @@
       <c r="H76" s="3">
         <v>0.5</v>
       </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="I76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="3">
+        <v>72.525999999999996</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="L76" s="3">
+        <f>K76/J76</f>
+        <v>9.4862532057469039E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
@@ -3883,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
@@ -3895,16 +3928,23 @@
         <v>10</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="N77" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="22">
+        <v>72.510999999999996</v>
+      </c>
+      <c r="K77" s="22">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L77" s="22">
+        <f>K77/J77</f>
+        <v>9.0055301954186269E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3936,177 +3976,183 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="N78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3">
+        <v>10</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="N79" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="9" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" s="9">
-        <v>10</v>
-      </c>
-      <c r="F79" s="9">
-        <v>10</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="C80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="9">
+        <v>2</v>
+      </c>
+      <c r="E80" s="9">
+        <v>10</v>
+      </c>
+      <c r="F80" s="9">
+        <v>10</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9" t="s">
+      <c r="I80" s="9"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="5" t="s">
+    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="5">
-        <v>2</v>
-      </c>
-      <c r="E80" s="5">
-        <v>10</v>
-      </c>
-      <c r="F80" s="5">
-        <v>10</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="C81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5">
+        <v>10</v>
+      </c>
+      <c r="F81" s="5">
+        <v>10</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N81" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="3">
-        <v>2</v>
-      </c>
-      <c r="E81" s="3">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3">
-        <v>10</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>10</v>
+      </c>
+      <c r="F82" s="3">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H82" s="3">
         <v>3</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="I82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="3">
         <v>46.6</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K82" s="3">
         <v>0.39529999999999998</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L82" s="3">
         <f t="shared" si="2"/>
         <v>8.4828326180257513E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="3">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3">
-        <v>10</v>
-      </c>
-      <c r="F82" s="3">
-        <v>10</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H83" s="3">
         <v>3</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="8">
+      <c r="I83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="8">
         <v>46.79</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K83" s="8">
         <v>0.43430000000000002</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L83" s="8">
         <f t="shared" si="2"/>
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="3">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>12</v>
       </c>
@@ -4114,7 +4160,7 @@
         <v>14</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>11</v>
@@ -4132,13 +4178,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J90" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J91" s="3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="3">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3">
+        <v>10</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4154,28 +4216,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F92:F1048576 F45:F78 F80:F89" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F93:F1048576 F45:F79 F81:F90" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C92:C1048576 C45:C78 C80:C89" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C93:C1048576 C45:C79 C81:C90" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A78 A80:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A79 A81:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D92:D1048576 D45:D78 D80:D89" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D93:D1048576 D45:D79 D81:D90" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E92:E1048576 E45:E78 E80:E89" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E93:E1048576 E45:E79 E81:E90" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86:B1048576 B1:B78 B80:B84" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87:B1048576 B1:B79 B81:B85" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J91 H92:H1048576 H1:H78 H80:H89" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J91:J92 H93:H1048576 H1:H79 H81:H90" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G92:G1048576 G1:G78 G80:G89" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93:G1048576 G1:G79 G81:G90" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0453AD0-DA12-6545-A475-E29C684FC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36AD91-5FE3-3549-A1B1-B4DEBC6B3083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,9 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB85"/>
+  <dimension ref="A1:BB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91:J93"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3237,7 +3234,7 @@
         <v>0.34739999999999999</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" ref="L59:L83" si="2">K59/J59</f>
+        <f t="shared" ref="L59:L84" si="2">K59/J59</f>
         <v>3.8123875159123831E-3</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3594,6 +3591,19 @@
       <c r="H68" s="3">
         <v>3</v>
       </c>
+      <c r="I68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="8">
+        <v>91.213399999999993</v>
+      </c>
+      <c r="K68" s="8">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="L68" s="8">
+        <f>K68/J68</f>
+        <v>2.567605198359013E-3</v>
+      </c>
     </row>
     <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
@@ -3721,88 +3731,78 @@
         <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D72" s="3">
         <v>2</v>
       </c>
       <c r="E72" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F72" s="3">
         <v>10</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2</v>
+      </c>
+      <c r="E73" s="3">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3">
+        <v>10</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" s="3">
+        <v>3</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="3">
         <v>72.417199999999994</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K73" s="3">
         <v>0.69940000000000002</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L73" s="3">
         <f t="shared" si="2"/>
         <v>9.6579265699309018E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3">
-        <v>10</v>
-      </c>
-      <c r="F73" s="3">
-        <v>10</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" s="3">
-        <v>3</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="3">
-        <v>72.6404</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0.55869999999999997</v>
-      </c>
-      <c r="L73" s="3">
-        <f>K73/J73</f>
-        <v>7.691312272509512E-3</v>
-      </c>
-    </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
       </c>
       <c r="E74" s="3">
         <v>10</v>
@@ -3820,14 +3820,14 @@
         <v>17</v>
       </c>
       <c r="J74" s="3">
-        <v>72.5</v>
+        <v>72.6404</v>
       </c>
       <c r="K74" s="3">
-        <v>0.55779999999999996</v>
+        <v>0.55869999999999997</v>
       </c>
       <c r="L74" s="3">
         <f>K74/J74</f>
-        <v>7.6937931034482751E-3</v>
+        <v>7.691312272509512E-3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
@@ -3858,29 +3858,29 @@
       <c r="I75" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="22">
-        <v>72.596800000000002</v>
-      </c>
-      <c r="K75" s="22">
-        <v>0.61170000000000002</v>
-      </c>
-      <c r="L75" s="22">
+      <c r="J75" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="L75" s="3">
         <f>K75/J75</f>
-        <v>8.4259912282635043E-3</v>
+        <v>7.6937931034482751E-3</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E76" s="3">
         <v>10</v>
@@ -3889,23 +3889,23 @@
         <v>10</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H76" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J76" s="3">
-        <v>72.525999999999996</v>
+        <v>72.596800000000002</v>
       </c>
       <c r="K76" s="3">
-        <v>0.68799999999999994</v>
+        <v>0.61170000000000002</v>
       </c>
       <c r="L76" s="3">
         <f>K76/J76</f>
-        <v>9.4862532057469039E-3</v>
+        <v>8.4259912282635043E-3</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
@@ -3936,15 +3936,15 @@
       <c r="I77" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="22">
-        <v>72.510999999999996</v>
-      </c>
-      <c r="K77" s="22">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="L77" s="22">
+      <c r="J77" s="3">
+        <v>72.525999999999996</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="L77" s="3">
         <f>K77/J77</f>
-        <v>9.0055301954186269E-3</v>
+        <v>9.4862532057469039E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3955,7 +3955,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D78" s="3">
         <v>2</v>
@@ -3967,16 +3967,23 @@
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="N78" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="3">
+        <v>72.510999999999996</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L78" s="3">
+        <f>K78/J78</f>
+        <v>9.0055301954186269E-3</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4008,176 +4015,182 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="N79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+      <c r="F80" s="3">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="N80" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="9">
-        <v>2</v>
-      </c>
-      <c r="E80" s="9">
-        <v>10</v>
-      </c>
-      <c r="F80" s="9">
-        <v>10</v>
-      </c>
-      <c r="G80" s="9" t="s">
+      <c r="C81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="9">
+        <v>2</v>
+      </c>
+      <c r="E81" s="9">
+        <v>10</v>
+      </c>
+      <c r="F81" s="9">
+        <v>10</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9" t="s">
+      <c r="I81" s="9"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="5" t="s">
+    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5">
-        <v>10</v>
-      </c>
-      <c r="F81" s="5">
-        <v>10</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5">
+        <v>2</v>
+      </c>
+      <c r="E82" s="5">
+        <v>10</v>
+      </c>
+      <c r="F82" s="5">
+        <v>10</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N82" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3">
-        <v>10</v>
-      </c>
-      <c r="F82" s="3">
-        <v>10</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H83" s="3">
         <v>3</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="3">
+      <c r="I83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="3">
         <v>46.6</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K83" s="3">
         <v>0.39529999999999998</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L83" s="3">
         <f t="shared" si="2"/>
         <v>8.4828326180257513E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="3">
-        <v>2</v>
-      </c>
-      <c r="E83" s="3">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3">
+        <v>10</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H84" s="3">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="8">
+      <c r="I84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="8">
         <v>46.79</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K84" s="8">
         <v>0.43430000000000002</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L84" s="8">
         <f t="shared" si="2"/>
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="3">
-        <v>10</v>
-      </c>
-      <c r="F84" s="3">
-        <v>10</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" s="3">
-        <v>3</v>
-      </c>
-    </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>12</v>
@@ -4186,7 +4199,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>11</v>
@@ -4201,6 +4214,32 @@
         <v>37</v>
       </c>
       <c r="H85" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3">
+        <v>10</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4216,28 +4255,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F93:F1048576 F45:F79 F81:F90" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F94:F1048576 F82:F91 F45:F80" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C93:C1048576 C45:C79 C81:C90" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C94:C1048576 C82:C91 C45:C80" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A79 A81:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A82:A1048576 A45:A80" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D93:D1048576 D45:D79 D81:D90" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D94:D1048576 D82:D91 D45:D80" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E93:E1048576 E45:E79 E81:E90" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E94:E1048576 E82:E91 E45:E80" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87:B1048576 B1:B79 B81:B85" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88:B1048576 B82:B86 B1:B80" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J91:J92 H93:H1048576 H1:H79 H81:H90" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J92:J93 H94:H1048576 H82:H91 H1:H80" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G93:G1048576 G1:G79 G81:G90" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G94:G1048576 G82:G91 G1:G80" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36AD91-5FE3-3549-A1B1-B4DEBC6B3083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8829BA1-BAD9-9043-9E1A-31EABF3FA99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -662,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB86"/>
+  <dimension ref="A1:BB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3748,9 +3748,19 @@
       <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="I72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="8">
+        <v>72.848799999999997</v>
+      </c>
+      <c r="K72" s="8">
+        <v>0.4602</v>
+      </c>
+      <c r="L72" s="8">
+        <f t="shared" si="2"/>
+        <v>6.3171939688780052E-3</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
@@ -4199,23 +4209,26 @@
         <v>14</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
       </c>
       <c r="E85" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F85" s="3">
         <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H85" s="3">
         <v>3</v>
       </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
@@ -4225,7 +4238,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>11</v>
@@ -4240,6 +4253,32 @@
         <v>37</v>
       </c>
       <c r="H86" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="3">
+        <v>10</v>
+      </c>
+      <c r="F87" s="3">
+        <v>10</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4255,28 +4294,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F94:F1048576 F82:F91 F45:F80" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F95:F1048576 F45:F80 F82:F92" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C94:C1048576 C82:C91 C45:C80" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C95:C1048576 C45:C80 C82:C92" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A82:A1048576 A45:A80" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A80 A82:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D94:D1048576 D82:D91 D45:D80" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D95:D1048576 D45:D80 D82:D92" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E94:E1048576 E82:E91 E45:E80" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E95:E1048576 E45:E80 E82:E92" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88:B1048576 B82:B86 B1:B80" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B1048576 B1:B80 B82:B87" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J92:J93 H94:H1048576 H82:H91 H1:H80" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93:J94 H95:H1048576 H1:H80 H82:H92" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G94:G1048576 G82:G91 G1:G80" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G95:G1048576 G1:G80 G82:G92" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8829BA1-BAD9-9043-9E1A-31EABF3FA99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F6A1A6-93F3-F046-8995-C721928764C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,6 +344,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +674,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB87"/>
+  <dimension ref="A1:BB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86:G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4226,9 +4238,19 @@
       <c r="H85" s="3">
         <v>3</v>
       </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="I85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="22">
+        <v>46.66</v>
+      </c>
+      <c r="K85" s="22">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="L85" s="22">
+        <f>K85/J85</f>
+        <v>9.9357051007286767E-3</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
@@ -4240,8 +4262,8 @@
       <c r="C86" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>11</v>
+      <c r="D86" s="3">
+        <v>2</v>
       </c>
       <c r="E86" s="3">
         <v>10</v>
@@ -4266,8 +4288,8 @@
       <c r="C87" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>11</v>
+      <c r="D87" s="3">
+        <v>2</v>
       </c>
       <c r="E87" s="3">
         <v>10</v>
@@ -4281,6 +4303,215 @@
       <c r="H87" s="3">
         <v>3</v>
       </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="3">
+        <v>10</v>
+      </c>
+      <c r="F88" s="3">
+        <v>10</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>10</v>
+      </c>
+      <c r="F90" s="3">
+        <v>10</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10</v>
+      </c>
+      <c r="F91" s="3">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3">
+        <v>10</v>
+      </c>
+      <c r="F92" s="3">
+        <v>10</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3">
+        <v>10</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="9">
+        <v>2</v>
+      </c>
+      <c r="E94" s="9">
+        <v>10</v>
+      </c>
+      <c r="F94" s="9">
+        <v>10</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="24">
+        <v>2</v>
+      </c>
+      <c r="E95" s="24">
+        <v>10</v>
+      </c>
+      <c r="F95" s="24">
+        <v>10</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N95" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B48" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
@@ -4294,28 +4525,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F95:F1048576 F45:F80 F82:F92" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F82:F93 F45:F80 F95:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C95:C1048576 C45:C80 C82:C92" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C82:C93 C45:C80 C95:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A80 A82:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A80 A82:A93 A95:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D95:D1048576 D45:D80 D82:D92" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D82:D93 D45:D80 D95:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E95:E1048576 E45:E80 E82:E92" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E82:E93 E45:E80 E95:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B1048576 B1:B80 B82:B87" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B80 B82:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93:J94 H95:H1048576 H1:H80 H82:H92" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93:J94 H82:H93 H1:H80 H95:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G95:G1048576 G1:G80 G82:G92" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G82:G93 G1:G80 G95:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F6A1A6-93F3-F046-8995-C721928764C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEFF70-1CB4-FF49-B5C3-60A6A08379C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,18 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:BB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86:G87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="98" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4241,13 +4229,13 @@
       <c r="I85" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="22">
+      <c r="J85" s="3">
         <v>46.66</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K85" s="3">
         <v>0.46360000000000001</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="3">
         <f>K85/J85</f>
         <v>9.9357051007286767E-3</v>
       </c>
@@ -4277,6 +4265,19 @@
       <c r="H86" s="3">
         <v>3</v>
       </c>
+      <c r="I86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0.54810000000000003</v>
+      </c>
+      <c r="L86" s="3">
+        <f>K86/J86</f>
+        <v>1.178709677419355E-2</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
@@ -4302,6 +4303,19 @@
       </c>
       <c r="H87" s="3">
         <v>3</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="3">
+        <v>46.56</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="L87" s="3">
+        <f>K87/J87</f>
+        <v>1.0135309278350515E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4464,7 +4478,7 @@
       <c r="A94" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="9" t="s">
@@ -4486,32 +4500,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="24" t="s">
+    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="24">
-        <v>2</v>
-      </c>
-      <c r="E95" s="24">
-        <v>10</v>
-      </c>
-      <c r="F95" s="24">
-        <v>10</v>
-      </c>
-      <c r="G95" s="24" t="s">
+      <c r="C95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="5">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5">
+        <v>10</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H95" s="24" t="s">
+      <c r="H95" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N95" s="25"/>
+      <c r="N95" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B48" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEFF70-1CB4-FF49-B5C3-60A6A08379C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1AD78-9039-5643-8E80-95BA7840761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -664,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:BB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4395,6 +4395,19 @@
       <c r="H90" s="3">
         <v>0.5</v>
       </c>
+      <c r="I90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="3">
+        <v>46.54</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="L90" s="3">
+        <f>K90/J90</f>
+        <v>1.3839707778255265E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
@@ -4420,6 +4433,19 @@
       </c>
       <c r="H91" s="3">
         <v>0.5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="3">
+        <v>46.74</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0.4078</v>
+      </c>
+      <c r="L91" s="3">
+        <f>K91/J91</f>
+        <v>8.7248609328198536E-3</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A1AD78-9039-5643-8E80-95BA7840761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9E365-D20A-694B-B260-96FCD0903115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -662,10 +662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB95"/>
+  <dimension ref="A1:BB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="98" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85:I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3234,7 +3234,7 @@
         <v>0.34739999999999999</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" ref="L59:L84" si="2">K59/J59</f>
+        <f t="shared" ref="L59:L83" si="2">K59/J59</f>
         <v>3.8123875159123831E-3</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -3881,16 +3881,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
       </c>
       <c r="E76" s="3">
         <v>10</v>
@@ -3899,23 +3899,23 @@
         <v>10</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" s="3">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J76" s="3">
-        <v>72.596800000000002</v>
+        <v>72.525999999999996</v>
       </c>
       <c r="K76" s="3">
-        <v>0.61170000000000002</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="L76" s="3">
         <f>K76/J76</f>
-        <v>8.4259912282635043E-3</v>
+        <v>9.4862532057469039E-3</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -3926,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D77" s="3">
         <v>2</v>
@@ -3947,14 +3947,14 @@
         <v>17</v>
       </c>
       <c r="J77" s="3">
-        <v>72.525999999999996</v>
+        <v>72.510999999999996</v>
       </c>
       <c r="K77" s="3">
-        <v>0.68799999999999994</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="L77" s="3">
         <f>K77/J77</f>
-        <v>9.4862532057469039E-3</v>
+        <v>9.0055301954186269E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3965,7 +3965,7 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D78" s="3">
         <v>2</v>
@@ -3977,23 +3977,16 @@
         <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="3">
-        <v>72.510999999999996</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="L78" s="3">
-        <f>K78/J78</f>
-        <v>9.0055301954186269E-3</v>
+        <v>38</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="N78" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4025,102 +4018,109 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="N79" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="3">
-        <v>2</v>
-      </c>
-      <c r="E80" s="3">
-        <v>10</v>
-      </c>
-      <c r="F80" s="3">
-        <v>10</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="C80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="9">
+        <v>2</v>
+      </c>
+      <c r="E80" s="9">
+        <v>10</v>
+      </c>
+      <c r="F80" s="9">
+        <v>10</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="N80" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="I80" s="9"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="9">
-        <v>2</v>
-      </c>
-      <c r="E81" s="9">
-        <v>10</v>
-      </c>
-      <c r="F81" s="9">
-        <v>10</v>
-      </c>
-      <c r="G81" s="9" t="s">
+      <c r="C81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5">
+        <v>10</v>
+      </c>
+      <c r="F81" s="5">
+        <v>10</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2</v>
-      </c>
-      <c r="E82" s="5">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5">
-        <v>10</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N82" s="5" t="s">
+      <c r="N81" s="5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>10</v>
+      </c>
+      <c r="F82" s="3">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="3">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="2"/>
+        <v>8.4828326180257513E-3</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4131,7 +4131,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D83" s="3">
         <v>2</v>
@@ -4151,15 +4151,15 @@
       <c r="I83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="3">
-        <v>46.6</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="J83" s="8">
+        <v>46.79</v>
+      </c>
+      <c r="K83" s="8">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="L83" s="8">
         <f t="shared" si="2"/>
-        <v>8.4828326180257513E-3</v>
+        <v>9.281897841419107E-3</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F84" s="3">
         <v>10</v>
@@ -4190,15 +4190,15 @@
       <c r="I84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="8">
-        <v>46.79</v>
-      </c>
-      <c r="K84" s="8">
-        <v>0.43430000000000002</v>
-      </c>
-      <c r="L84" s="8">
-        <f t="shared" si="2"/>
-        <v>9.281897841419107E-3</v>
+      <c r="J84" s="3">
+        <v>46.66</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="L84" s="3">
+        <f>K84/J84</f>
+        <v>9.9357051007286767E-3</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4209,19 +4209,19 @@
         <v>14</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3">
         <v>2</v>
       </c>
       <c r="E85" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F85" s="3">
         <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H85" s="3">
         <v>3</v>
@@ -4230,14 +4230,14 @@
         <v>17</v>
       </c>
       <c r="J85" s="3">
-        <v>46.66</v>
+        <v>46.5</v>
       </c>
       <c r="K85" s="3">
-        <v>0.46360000000000001</v>
+        <v>0.54810000000000003</v>
       </c>
       <c r="L85" s="3">
         <f>K85/J85</f>
-        <v>9.9357051007286767E-3</v>
+        <v>1.178709677419355E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4248,7 +4248,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D86" s="3">
         <v>2</v>
@@ -4269,28 +4269,28 @@
         <v>17</v>
       </c>
       <c r="J86" s="3">
-        <v>46.5</v>
+        <v>46.56</v>
       </c>
       <c r="K86" s="3">
-        <v>0.54810000000000003</v>
+        <v>0.47189999999999999</v>
       </c>
       <c r="L86" s="3">
         <f>K86/J86</f>
-        <v>1.178709677419355E-2</v>
+        <v>1.0135309278350515E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="3">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E87" s="3">
         <v>10</v>
@@ -4308,14 +4308,14 @@
         <v>17</v>
       </c>
       <c r="J87" s="3">
-        <v>46.56</v>
+        <v>46.54</v>
       </c>
       <c r="K87" s="3">
-        <v>0.47189999999999999</v>
+        <v>0.53459999999999996</v>
       </c>
       <c r="L87" s="3">
         <f>K87/J87</f>
-        <v>1.0135309278350515E-2</v>
+        <v>1.1486892995272883E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>11</v>
@@ -4343,19 +4343,32 @@
       <c r="H88" s="3">
         <v>3</v>
       </c>
+      <c r="I88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="3">
+        <v>46.65</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="L88" s="3">
+        <f>K88/J88</f>
+        <v>1.0034297963558415E-2</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
       </c>
       <c r="E89" s="3">
         <v>10</v>
@@ -4364,10 +4377,23 @@
         <v>10</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H89" s="3">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="3">
+        <v>46.54</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="L89" s="3">
+        <f>K89/J89</f>
+        <v>1.3839707778255265E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4378,7 +4404,7 @@
         <v>14</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D90" s="3">
         <v>2</v>
@@ -4399,14 +4425,14 @@
         <v>17</v>
       </c>
       <c r="J90" s="3">
-        <v>46.54</v>
+        <v>46.74</v>
       </c>
       <c r="K90" s="3">
-        <v>0.64410000000000001</v>
+        <v>0.4078</v>
       </c>
       <c r="L90" s="3">
         <f>K90/J90</f>
-        <v>1.3839707778255265E-2</v>
+        <v>8.7248609328198536E-3</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -4417,7 +4443,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D91" s="3">
         <v>2</v>
@@ -4429,23 +4455,10 @@
         <v>10</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="3">
-        <v>46.74</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0.4078</v>
-      </c>
-      <c r="L91" s="3">
-        <f>K91/J91</f>
-        <v>8.7248609328198536E-3</v>
+        <v>38</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -4475,83 +4488,57 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="3">
-        <v>2</v>
-      </c>
-      <c r="E93" s="3">
-        <v>10</v>
-      </c>
-      <c r="F93" s="3">
-        <v>10</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="C93" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="9">
+        <v>2</v>
+      </c>
+      <c r="E93" s="9">
+        <v>10</v>
+      </c>
+      <c r="F93" s="9">
+        <v>10</v>
+      </c>
+      <c r="G93" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="9">
-        <v>2</v>
-      </c>
-      <c r="E94" s="9">
-        <v>10</v>
-      </c>
-      <c r="F94" s="9">
-        <v>10</v>
-      </c>
-      <c r="G94" s="9" t="s">
+      <c r="C94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="5">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5">
+        <v>10</v>
+      </c>
+      <c r="F94" s="5">
+        <v>10</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="5">
-        <v>2</v>
-      </c>
-      <c r="E95" s="5">
-        <v>10</v>
-      </c>
-      <c r="F95" s="5">
-        <v>10</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N95" s="11"/>
+      <c r="N94" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B48" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
@@ -4565,28 +4552,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F82:F93 F45:F80 F95:F1048576" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F81:F92 F94:F1048576 F45:F79" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C82:C93 C45:C80 C95:C1048576" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C81:C92 C94:C1048576 C45:C79" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A45:A80 A82:A93 A95:A1048576" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A81:A92 A94:A1048576 A45:A79" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D82:D93 D45:D80 D95:D1048576" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D81:D92 D94:D1048576 D45:D79" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E82:E93 E45:E80 E95:E1048576" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E81:E92 E94:E1048576 E45:E79" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B80 B82:B1048576" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:B1048576 B1:B79" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J93:J94 H82:H93 H1:H80 H95:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J92:J93 H81:H92 H94:H1048576 H1:H79" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G82:G93 G1:G80 G95:G1048576" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G92 G94:G1048576 G1:G79" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9E365-D20A-694B-B260-96FCD0903115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E21411E-AEEF-574B-A8DA-36D85923BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -664,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:BB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85:I88"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E21411E-AEEF-574B-A8DA-36D85923BFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B099244-19B8-5049-977D-91DB41F12756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:BB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="98" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4014,9 +4020,19 @@
       <c r="H79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="I79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="22">
+        <v>72.355999999999995</v>
+      </c>
+      <c r="K79" s="22">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="L79" s="22">
+        <f>K79/J79</f>
+        <v>8.9488086682514238E-3</v>
+      </c>
       <c r="N79" s="3" t="s">
         <v>40</v>
       </c>
@@ -4047,7 +4063,6 @@
         <v>11</v>
       </c>
       <c r="I80" s="9"/>
-      <c r="J80" s="15"/>
       <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="9"/>
@@ -4080,6 +4095,19 @@
       <c r="H81" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="I81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="23">
+        <v>72.527000000000001</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="L81" s="5">
+        <f>K81/J81</f>
+        <v>8.5471617466598652E-3</v>
+      </c>
       <c r="N81" s="5" t="s">
         <v>42</v>
       </c>
@@ -4197,7 +4225,7 @@
         <v>0.46360000000000001</v>
       </c>
       <c r="L84" s="3">
-        <f>K84/J84</f>
+        <f t="shared" ref="L84:L90" si="3">K84/J84</f>
         <v>9.9357051007286767E-3</v>
       </c>
     </row>
@@ -4236,7 +4264,7 @@
         <v>0.54810000000000003</v>
       </c>
       <c r="L85" s="3">
-        <f>K85/J85</f>
+        <f t="shared" si="3"/>
         <v>1.178709677419355E-2</v>
       </c>
     </row>
@@ -4275,7 +4303,7 @@
         <v>0.47189999999999999</v>
       </c>
       <c r="L86" s="3">
-        <f>K86/J86</f>
+        <f t="shared" si="3"/>
         <v>1.0135309278350515E-2</v>
       </c>
     </row>
@@ -4314,7 +4342,7 @@
         <v>0.53459999999999996</v>
       </c>
       <c r="L87" s="3">
-        <f>K87/J87</f>
+        <f t="shared" si="3"/>
         <v>1.1486892995272883E-2</v>
       </c>
     </row>
@@ -4353,7 +4381,7 @@
         <v>0.46810000000000002</v>
       </c>
       <c r="L88" s="3">
-        <f>K88/J88</f>
+        <f t="shared" si="3"/>
         <v>1.0034297963558415E-2</v>
       </c>
     </row>
@@ -4392,7 +4420,7 @@
         <v>0.64410000000000001</v>
       </c>
       <c r="L89" s="3">
-        <f>K89/J89</f>
+        <f t="shared" si="3"/>
         <v>1.3839707778255265E-2</v>
       </c>
     </row>
@@ -4424,14 +4452,14 @@
       <c r="I90" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="8">
         <v>46.74</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="8">
         <v>0.4078</v>
       </c>
-      <c r="L90" s="3">
-        <f>K90/J90</f>
+      <c r="L90" s="8">
+        <f t="shared" si="3"/>
         <v>8.7248609328198536E-3</v>
       </c>
     </row>
@@ -4460,6 +4488,9 @@
       <c r="H91" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="N91" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
@@ -4486,6 +4517,22 @@
       <c r="H92" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="3">
+        <v>46.523000000000003</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="L92" s="3">
+        <f>K92/J92</f>
+        <v>1.1699589450379381E-2</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
@@ -4512,6 +4559,9 @@
       <c r="H93" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="N93" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
@@ -4538,7 +4588,22 @@
       <c r="H94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N94" s="11"/>
+      <c r="I94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="5">
+        <v>46.572000000000003</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="L94" s="5">
+        <f>K94/J94</f>
+        <v>1.0199261358756333E-2</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B48" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
@@ -4570,7 +4635,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:B1048576 B1:B79" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J92:J93 H81:H92 H94:H1048576 H1:H79" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H79 H81:H92 H94:H1048576 J93" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G92 G94:G1048576 G1:G79" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B099244-19B8-5049-977D-91DB41F12756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7ED13-4446-7148-822B-EFFF3593E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="47">
   <si>
     <t>ACQ function</t>
   </si>
@@ -174,6 +174,12 @@
   <si>
     <t>num_estimator = 10</t>
   </si>
+  <si>
+    <t>Appendix</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,12 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:BB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,10 +690,11 @@
     <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="22.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="19" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="3"/>
+    <col min="15" max="15" width="23.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -782,7 +786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -823,7 +827,7 @@
       <c r="M3" s="16"/>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -863,8 +867,11 @@
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -905,7 +912,7 @@
       <c r="M5" s="16"/>
       <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -945,8 +952,11 @@
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -987,7 +997,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1038,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="20"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1112,7 +1122,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1163,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1204,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1245,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1329,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -4023,13 +4033,13 @@
       <c r="I79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J79" s="3">
         <v>72.355999999999995</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K79" s="3">
         <v>0.64749999999999996</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="3">
         <f>K79/J79</f>
         <v>8.9488086682514238E-3</v>
       </c>
@@ -4098,7 +4108,7 @@
       <c r="I81" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="23">
+      <c r="J81" s="5">
         <v>72.527000000000001</v>
       </c>
       <c r="K81" s="5">

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7ED13-4446-7148-822B-EFFF3593E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BA821-D9DF-0F45-83D7-B574454621E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -174,12 +174,6 @@
   <si>
     <t>num_estimator = 10</t>
   </si>
-  <si>
-    <t>Appendix</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
 </sst>
 </file>
 
@@ -236,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +246,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,20 +321,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -350,6 +344,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +698,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB94"/>
+  <dimension ref="A1:BA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,11 +720,10 @@
     <col min="12" max="12" width="10.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="22.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="19" style="4" customWidth="1"/>
-    <col min="15" max="15" width="23.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -737,11 +766,8 @@
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -779,14 +805,14 @@
         <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -824,54 +850,51 @@
         <f t="shared" si="0"/>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="18">
+        <v>10</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="18">
         <v>0.3</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="18">
         <v>91.061599999999999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="18">
         <v>0.3039</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="18">
         <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M4" s="12"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -909,54 +932,51 @@
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="M5" s="12"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="19">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="19">
         <v>0.5</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="19">
         <v>91.015199999999993</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="19">
         <v>0.30330000000000001</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="19">
         <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M6" s="12"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -994,10 +1014,10 @@
         <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="12"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1035,10 +1055,10 @@
         <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M8" s="12"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1076,12 +1096,12 @@
         <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1119,10 +1139,10 @@
         <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1160,10 +1180,10 @@
         <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1201,10 +1221,10 @@
         <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1242,10 +1262,10 @@
         <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M13" s="12"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1283,12 +1303,12 @@
         <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="21" t="s">
+      <c r="M14" s="12"/>
+      <c r="N14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1326,10 +1346,10 @@
         <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1367,10 +1387,10 @@
         <f t="shared" si="0"/>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1408,10 +1428,10 @@
         <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1449,10 +1469,10 @@
         <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:54" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="13"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:53" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1490,14 +1510,14 @@
         <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1535,9 +1555,9 @@
         <f t="shared" si="0"/>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1575,9 +1595,9 @@
         <f t="shared" si="0"/>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1615,9 +1635,9 @@
         <f t="shared" si="0"/>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1655,9 +1675,9 @@
         <f t="shared" si="0"/>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1695,9 +1715,9 @@
         <f t="shared" si="0"/>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1735,9 +1755,9 @@
         <f t="shared" si="0"/>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1775,9 +1795,9 @@
         <f t="shared" si="0"/>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1815,7 +1835,7 @@
         <f t="shared" si="0"/>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="16"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1856,537 +1876,541 @@
       <c r="AY27" s="3"/>
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-    </row>
-    <row r="28" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="28" spans="1:53" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="20">
         <v>4</v>
       </c>
-      <c r="E28" s="3">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="E28" s="20">
+        <v>10</v>
+      </c>
+      <c r="F28" s="20">
+        <v>10</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="20">
         <v>91.223600000000005</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="20">
         <v>0.249</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="20">
         <f t="shared" si="0"/>
         <v>2.7295568252075119E-3</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:54" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="1:53" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="20">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="20">
+        <v>10</v>
+      </c>
+      <c r="F29" s="20">
+        <v>10</v>
+      </c>
+      <c r="G29" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="20">
         <v>0.5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="20">
         <v>91.136200000000002</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="20">
         <v>0.2707</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="20">
         <f t="shared" si="0"/>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="21"/>
+    </row>
+    <row r="30" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="20">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="E30" s="20">
+        <v>10</v>
+      </c>
+      <c r="F30" s="20">
+        <v>10</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="20">
         <v>72.909599999999998</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="20">
         <v>0.43240000000000001</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="20">
         <f t="shared" si="0"/>
         <v>5.9306319058121289E-3</v>
       </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="M30" s="12"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="20">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="20">
+        <v>10</v>
+      </c>
+      <c r="F31" s="20">
+        <v>10</v>
+      </c>
+      <c r="G31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="20">
         <v>0.5</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="20">
         <v>72.492800000000003</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="20">
         <v>0.66300000000000003</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="20">
         <f t="shared" si="0"/>
         <v>9.1457358523880997E-3</v>
       </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="M31" s="12"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="20">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="E32" s="20">
+        <v>10</v>
+      </c>
+      <c r="F32" s="20">
+        <v>10</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="20">
         <v>46.885300000000001</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="20">
         <v>0.33860000000000001</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="20">
         <f t="shared" si="0"/>
         <v>7.2218797789499059E-3</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="M32" s="12"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="20">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="E33" s="20">
+        <v>10</v>
+      </c>
+      <c r="F33" s="20">
+        <v>10</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="20">
         <v>0.5</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="20">
         <v>46.592700000000001</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="20">
         <v>0.54159999999999997</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="20">
         <f t="shared" si="0"/>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="C34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="20">
         <v>6</v>
       </c>
-      <c r="E34" s="3">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="E34" s="20">
+        <v>10</v>
+      </c>
+      <c r="F34" s="20">
+        <v>10</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="24">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="24">
         <v>0.27060000000000001</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="20">
         <f t="shared" ref="L34:L56" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="M34" s="12"/>
+      <c r="N34" s="21"/>
+    </row>
+    <row r="35" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="20">
         <v>6</v>
       </c>
-      <c r="E35" s="3">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="E35" s="20">
+        <v>10</v>
+      </c>
+      <c r="F35" s="20">
+        <v>10</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="20">
         <v>0.5</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="20">
         <v>91.158799999999999</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="20">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="20">
         <f t="shared" si="1"/>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="1:54" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="M35" s="12"/>
+      <c r="N35" s="21"/>
+    </row>
+    <row r="36" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="C36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="20">
         <v>6</v>
       </c>
-      <c r="E36" s="3">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="E36" s="20">
+        <v>10</v>
+      </c>
+      <c r="F36" s="20">
+        <v>10</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="20">
         <v>0.5</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="20">
         <v>72.915599999999998</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="20">
         <v>0.44040000000000001</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="20">
         <f t="shared" si="1"/>
         <v>6.0398597830916842E-3</v>
       </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="M36" s="12"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="1:53" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="20">
         <v>6</v>
       </c>
-      <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3">
-        <v>10</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="E37" s="20">
+        <v>10</v>
+      </c>
+      <c r="F37" s="20">
+        <v>10</v>
+      </c>
+      <c r="G37" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="20">
         <v>0.5</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="20">
         <v>72.741200000000006</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="20">
         <v>0.53320000000000001</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="20">
         <f t="shared" si="1"/>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
-      <c r="AF37" s="12"/>
-      <c r="AG37" s="12"/>
-      <c r="AH37" s="12"/>
-      <c r="AI37" s="12"/>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="12"/>
-      <c r="AL37" s="12"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="12"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="12"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="12"/>
-      <c r="AX37" s="12"/>
-      <c r="AY37" s="12"/>
-      <c r="AZ37" s="12"/>
-      <c r="BA37" s="12"/>
-      <c r="BB37" s="12"/>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="M37" s="12"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="23"/>
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
+    </row>
+    <row r="38" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="C38" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="26">
         <v>6</v>
       </c>
-      <c r="E38" s="9">
-        <v>10</v>
-      </c>
-      <c r="F38" s="9">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="9">
+      <c r="E38" s="26">
+        <v>10</v>
+      </c>
+      <c r="F38" s="26">
+        <v>10</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="26">
         <v>0.5</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="20">
         <v>46.8</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="20">
         <v>0.40150000000000002</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="20">
         <f t="shared" si="1"/>
         <v>8.5790598290598295E-3</v>
       </c>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="5" t="s">
+      <c r="M38" s="12"/>
+      <c r="N38" s="21"/>
+    </row>
+    <row r="39" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="27">
         <v>6</v>
       </c>
-      <c r="E39" s="5">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5">
-        <v>10</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="E39" s="27">
+        <v>10</v>
+      </c>
+      <c r="F39" s="27">
+        <v>10</v>
+      </c>
+      <c r="G39" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="27">
         <v>0.5</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="I39" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="27">
         <v>46.727200000000003</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="27">
         <v>0.4239</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="27">
         <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="16"/>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M39" s="12"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -2424,9 +2448,9 @@
         <f t="shared" si="1"/>
         <v>2.9124954955746765E-3</v>
       </c>
-      <c r="M40" s="16"/>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -2464,9 +2488,9 @@
         <f t="shared" si="1"/>
         <v>2.5993961132210744E-3</v>
       </c>
-      <c r="M41" s="16"/>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -2504,9 +2528,9 @@
         <f t="shared" si="1"/>
         <v>8.5659617766766939E-3</v>
       </c>
-      <c r="M42" s="16"/>
-    </row>
-    <row r="43" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -2544,7 +2568,7 @@
         <f t="shared" si="1"/>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M43" s="16"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="4"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2585,9 +2609,8 @@
       <c r="AY43" s="3"/>
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
-      <c r="BB43" s="3"/>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>21</v>
       </c>
@@ -2625,9 +2648,9 @@
         <f t="shared" si="1"/>
         <v>9.7090924716397402E-3</v>
       </c>
-      <c r="M44" s="16"/>
-    </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -2665,8 +2688,8 @@
         <f t="shared" si="1"/>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M45" s="17"/>
-      <c r="N45" s="11"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="10"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -2696,9 +2719,8 @@
       <c r="AO45" s="5"/>
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -2737,46 +2759,47 @@
         <v>3.024366056893624E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:53" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="3">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="28">
+        <v>10</v>
+      </c>
+      <c r="F47" s="28">
         <v>30</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="28">
         <v>0.3</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="I47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="28">
         <v>91.126000000000005</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="28">
         <v>0.26190000000000002</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="28">
         <f t="shared" si="1"/>
         <v>2.8740425345126527E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:54" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2837,7 @@
         <f t="shared" si="1"/>
         <v>2.8123510639933408E-3</v>
       </c>
-      <c r="N48" s="11"/>
+      <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -3659,7 +3682,7 @@
         <f t="shared" si="2"/>
         <v>3.5688174710685376E-3</v>
       </c>
-      <c r="N69" s="11"/>
+      <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
@@ -4073,8 +4096,8 @@
         <v>11</v>
       </c>
       <c r="I80" s="9"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9" t="s">
         <v>44</v>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BA821-D9DF-0F45-83D7-B574454621E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D943089-B2CF-144C-A6A0-3A9EC474D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="-360" yWindow="2660" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,13 +222,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF70AD47"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -251,13 +244,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,9 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -345,37 +335,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -700,8 +693,8 @@
   </sheetPr>
   <dimension ref="A1:BA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,10 +798,10 @@
         <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -850,49 +843,49 @@
         <f t="shared" si="0"/>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="26">
+        <v>2</v>
+      </c>
+      <c r="E4" s="26">
         <v>20</v>
       </c>
-      <c r="F4" s="18">
-        <v>10</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="26">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="26">
         <v>0.3</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="I4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="26">
         <v>91.061599999999999</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="26">
         <v>0.3039</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="26">
         <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="15"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -932,49 +925,49 @@
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="C6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="27">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27">
         <v>20</v>
       </c>
-      <c r="F6" s="19">
-        <v>10</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="27">
+        <v>10</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="27">
         <v>0.5</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="19">
+      <c r="I6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="27">
         <v>91.015199999999993</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="27">
         <v>0.30330000000000001</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="27">
         <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1014,8 +1007,8 @@
         <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="15"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1055,8 +1048,8 @@
         <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="16"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1096,8 +1089,8 @@
         <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="17" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1139,8 +1132,8 @@
         <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="15"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1180,8 +1173,8 @@
         <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="15"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1221,8 +1214,8 @@
         <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="15"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1262,8 +1255,8 @@
         <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1303,8 +1296,8 @@
         <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="11"/>
+      <c r="N14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1346,8 +1339,8 @@
         <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="15"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1387,8 +1380,8 @@
         <f t="shared" si="0"/>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="15"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1428,8 +1421,8 @@
         <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="15"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1469,8 +1462,8 @@
         <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="16"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:53" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1510,7 +1503,7 @@
         <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -1555,7 +1548,7 @@
         <f t="shared" si="0"/>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1595,7 +1588,7 @@
         <f t="shared" si="0"/>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1635,7 +1628,7 @@
         <f t="shared" si="0"/>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1675,7 +1668,7 @@
         <f t="shared" si="0"/>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1715,7 +1708,7 @@
         <f t="shared" si="0"/>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1755,7 +1748,7 @@
         <f t="shared" si="0"/>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1795,7 +1788,7 @@
         <f t="shared" si="0"/>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -1835,7 +1828,7 @@
         <f t="shared" si="0"/>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1877,538 +1870,538 @@
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
     </row>
-    <row r="28" spans="1:53" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="20" t="s">
+    <row r="28" spans="1:53" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="20">
+      <c r="C28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="18">
         <v>4</v>
       </c>
-      <c r="E28" s="20">
-        <v>10</v>
-      </c>
-      <c r="F28" s="20">
-        <v>10</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="20" t="s">
+      <c r="E28" s="18">
+        <v>10</v>
+      </c>
+      <c r="F28" s="18">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="20">
+      <c r="I28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="18">
         <v>91.223600000000005</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="18">
         <v>0.249</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="18">
         <f t="shared" si="0"/>
         <v>2.7295568252075119E-3</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="21"/>
-    </row>
-    <row r="29" spans="1:53" s="20" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="20" t="s">
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:53" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="20">
+      <c r="C29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="18">
         <v>4</v>
       </c>
-      <c r="E29" s="20">
-        <v>10</v>
-      </c>
-      <c r="F29" s="20">
-        <v>10</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="E29" s="18">
+        <v>10</v>
+      </c>
+      <c r="F29" s="18">
+        <v>10</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>0.5</v>
       </c>
-      <c r="I29" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="20">
+      <c r="I29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="18">
         <v>91.136200000000002</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="18">
         <v>0.2707</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="18">
         <f t="shared" si="0"/>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="M29" s="11"/>
+      <c r="N29" s="19"/>
+    </row>
+    <row r="30" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="18">
         <v>4</v>
       </c>
-      <c r="E30" s="20">
-        <v>10</v>
-      </c>
-      <c r="F30" s="20">
-        <v>10</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="20" t="s">
+      <c r="E30" s="18">
+        <v>10</v>
+      </c>
+      <c r="F30" s="18">
+        <v>10</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="20">
+      <c r="I30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="18">
         <v>72.909599999999998</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="18">
         <v>0.43240000000000001</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <f t="shared" si="0"/>
         <v>5.9306319058121289E-3</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="22"/>
-    </row>
-    <row r="31" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="20" t="s">
+      <c r="M30" s="11"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="20">
+      <c r="C31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="18">
         <v>4</v>
       </c>
-      <c r="E31" s="20">
-        <v>10</v>
-      </c>
-      <c r="F31" s="20">
-        <v>10</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="E31" s="18">
+        <v>10</v>
+      </c>
+      <c r="F31" s="18">
+        <v>10</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>0.5</v>
       </c>
-      <c r="I31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="20">
+      <c r="I31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="18">
         <v>72.492800000000003</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="18">
         <v>0.66300000000000003</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="18">
         <f t="shared" si="0"/>
         <v>9.1457358523880997E-3</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="22"/>
-    </row>
-    <row r="32" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="M31" s="11"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="20">
+      <c r="C32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="18">
         <v>4</v>
       </c>
-      <c r="E32" s="20">
-        <v>10</v>
-      </c>
-      <c r="F32" s="20">
-        <v>10</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="E32" s="18">
+        <v>10</v>
+      </c>
+      <c r="F32" s="18">
+        <v>10</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="20">
+      <c r="I32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="18">
         <v>46.885300000000001</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="18">
         <v>0.33860000000000001</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="18">
         <f t="shared" si="0"/>
         <v>7.2218797789499059E-3</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="M32" s="11"/>
+      <c r="N32" s="20"/>
+    </row>
+    <row r="33" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="20">
+      <c r="C33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="18">
         <v>4</v>
       </c>
-      <c r="E33" s="20">
-        <v>10</v>
-      </c>
-      <c r="F33" s="20">
-        <v>10</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="E33" s="18">
+        <v>10</v>
+      </c>
+      <c r="F33" s="18">
+        <v>10</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>0.5</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="20">
+      <c r="I33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="18">
         <v>46.592700000000001</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="18">
         <v>0.54159999999999997</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="18">
         <f t="shared" si="0"/>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="20" t="s">
+      <c r="M33" s="11"/>
+      <c r="N33" s="20"/>
+    </row>
+    <row r="34" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="20">
+      <c r="C34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="18">
         <v>6</v>
       </c>
-      <c r="E34" s="20">
-        <v>10</v>
-      </c>
-      <c r="F34" s="20">
-        <v>10</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="20" t="s">
+      <c r="E34" s="18">
+        <v>10</v>
+      </c>
+      <c r="F34" s="18">
+        <v>10</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="24">
+      <c r="I34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="22">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="22">
         <v>0.27060000000000001</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="18">
         <f t="shared" ref="L34:L56" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="21"/>
-    </row>
-    <row r="35" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="M34" s="11"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="20">
+      <c r="C35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="18">
         <v>6</v>
       </c>
-      <c r="E35" s="20">
-        <v>10</v>
-      </c>
-      <c r="F35" s="20">
-        <v>10</v>
-      </c>
-      <c r="G35" s="20" t="s">
+      <c r="E35" s="18">
+        <v>10</v>
+      </c>
+      <c r="F35" s="18">
+        <v>10</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>0.5</v>
       </c>
-      <c r="I35" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="20">
+      <c r="I35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="18">
         <v>91.158799999999999</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="18">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="18">
         <f t="shared" si="1"/>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="21"/>
-    </row>
-    <row r="36" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="M35" s="11"/>
+      <c r="N35" s="19"/>
+    </row>
+    <row r="36" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="20">
+      <c r="C36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="18">
         <v>6</v>
       </c>
-      <c r="E36" s="20">
-        <v>10</v>
-      </c>
-      <c r="F36" s="20">
-        <v>10</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="20">
+      <c r="E36" s="18">
+        <v>10</v>
+      </c>
+      <c r="F36" s="18">
+        <v>10</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="18">
         <v>0.5</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="20">
+      <c r="I36" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="18">
         <v>72.915599999999998</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="18">
         <v>0.44040000000000001</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="18">
         <f t="shared" si="1"/>
         <v>6.0398597830916842E-3</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="22"/>
-    </row>
-    <row r="37" spans="1:53" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="20" t="s">
+      <c r="M36" s="11"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="20">
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="18">
         <v>6</v>
       </c>
-      <c r="E37" s="20">
-        <v>10</v>
-      </c>
-      <c r="F37" s="20">
-        <v>10</v>
-      </c>
-      <c r="G37" s="20" t="s">
+      <c r="E37" s="18">
+        <v>10</v>
+      </c>
+      <c r="F37" s="18">
+        <v>10</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>0.5</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="20">
+      <c r="I37" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="18">
         <v>72.741200000000006</v>
       </c>
-      <c r="K37" s="20">
+      <c r="K37" s="18">
         <v>0.53320000000000001</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="18">
         <f t="shared" si="1"/>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="23"/>
-      <c r="AG37" s="23"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="23"/>
-      <c r="AK37" s="23"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="23"/>
-      <c r="AO37" s="23"/>
-      <c r="AP37" s="23"/>
-      <c r="AQ37" s="23"/>
-      <c r="AR37" s="23"/>
-      <c r="AS37" s="23"/>
-      <c r="AT37" s="23"/>
-      <c r="AU37" s="23"/>
-      <c r="AV37" s="23"/>
-      <c r="AW37" s="23"/>
-      <c r="AX37" s="23"/>
-      <c r="AY37" s="23"/>
-      <c r="AZ37" s="23"/>
-      <c r="BA37" s="23"/>
-    </row>
-    <row r="38" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="20" t="s">
+      <c r="M37" s="11"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="21"/>
+      <c r="AS37" s="21"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="21"/>
+      <c r="BA37" s="21"/>
+    </row>
+    <row r="38" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="26">
+      <c r="C38" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="24">
         <v>6</v>
       </c>
-      <c r="E38" s="26">
-        <v>10</v>
-      </c>
-      <c r="F38" s="26">
-        <v>10</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="26">
+      <c r="E38" s="24">
+        <v>10</v>
+      </c>
+      <c r="F38" s="24">
+        <v>10</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="24">
         <v>0.5</v>
       </c>
-      <c r="I38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="20">
+      <c r="I38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="18">
         <v>46.8</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="18">
         <v>0.40150000000000002</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="18">
         <f t="shared" si="1"/>
         <v>8.5790598290598295E-3</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="21"/>
-    </row>
-    <row r="39" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="27" t="s">
+      <c r="M38" s="11"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="27">
+      <c r="C39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="25">
         <v>6</v>
       </c>
-      <c r="E39" s="27">
-        <v>10</v>
-      </c>
-      <c r="F39" s="27">
-        <v>10</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="E39" s="25">
+        <v>10</v>
+      </c>
+      <c r="F39" s="25">
+        <v>10</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="25">
         <v>0.5</v>
       </c>
-      <c r="I39" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="27">
+      <c r="I39" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="25">
         <v>46.727200000000003</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K39" s="25">
         <v>0.4239</v>
       </c>
-      <c r="L39" s="27">
+      <c r="L39" s="25">
         <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="21"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -2448,7 +2441,7 @@
         <f t="shared" si="1"/>
         <v>2.9124954955746765E-3</v>
       </c>
-      <c r="M40" s="12"/>
+      <c r="M40" s="11"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -2488,7 +2481,7 @@
         <f t="shared" si="1"/>
         <v>2.5993961132210744E-3</v>
       </c>
-      <c r="M41" s="12"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -2528,7 +2521,7 @@
         <f t="shared" si="1"/>
         <v>8.5659617766766939E-3</v>
       </c>
-      <c r="M42" s="12"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -2568,7 +2561,7 @@
         <f t="shared" si="1"/>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M43" s="12"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="4"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2648,7 +2641,7 @@
         <f t="shared" si="1"/>
         <v>9.7090924716397402E-3</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -2688,7 +2681,7 @@
         <f t="shared" si="1"/>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M45" s="13"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="10"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -2759,45 +2752,45 @@
         <v>3.024366056893624E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:53" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+    <row r="47" spans="1:53" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="28">
-        <v>10</v>
-      </c>
-      <c r="F47" s="28">
+      <c r="E47" s="18">
+        <v>10</v>
+      </c>
+      <c r="F47" s="18">
         <v>30</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="18">
         <v>0.3</v>
       </c>
-      <c r="I47" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="28">
+      <c r="I47" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="18">
         <v>91.126000000000005</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="18">
         <v>0.26190000000000002</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="18">
         <f t="shared" si="1"/>
         <v>2.8740425345126527E-3</v>
       </c>
-      <c r="N47" s="29"/>
+      <c r="N47" s="19"/>
     </row>
     <row r="48" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -3526,7 +3519,7 @@
         <v>2.9246114773729161E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3558,7 @@
         <v>3.263024108842104E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>12</v>
       </c>
@@ -3605,44 +3598,45 @@
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:14" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="3">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="D68" s="27">
+        <v>2</v>
+      </c>
+      <c r="E68" s="27">
         <v>20</v>
       </c>
-      <c r="F68" s="3">
-        <v>10</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="F68" s="27">
+        <v>10</v>
+      </c>
+      <c r="G68" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="27">
         <v>3</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="8">
+      <c r="I68" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="28">
         <v>91.213399999999993</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="28">
         <v>0.23419999999999999</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="28">
         <f>K68/J68</f>
         <v>2.567605198359013E-3</v>
       </c>
+      <c r="N68" s="29"/>
     </row>
     <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
@@ -3762,44 +3756,45 @@
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="3">
-        <v>2</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="27">
+        <v>2</v>
+      </c>
+      <c r="E72" s="27">
         <v>20</v>
       </c>
-      <c r="F72" s="3">
-        <v>10</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="27">
+        <v>10</v>
+      </c>
+      <c r="G72" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="27">
         <v>3</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="8">
+      <c r="I72" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="28">
         <v>72.848799999999997</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="28">
         <v>0.4602</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L72" s="28">
         <f t="shared" si="2"/>
         <v>6.3171939688780052E-3</v>
       </c>
+      <c r="N72" s="29"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
@@ -4021,9 +4016,19 @@
       <c r="H78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="I78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="17">
+        <v>72.276399999999995</v>
+      </c>
+      <c r="K78" s="17">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="L78" s="17">
+        <f>K78/J78</f>
+        <v>1.0075211272282515E-2</v>
+      </c>
       <c r="N78" s="3" t="s">
         <v>43</v>
       </c>
@@ -4095,9 +4100,19 @@
       <c r="H80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
+      <c r="I80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="3">
+        <v>72.311999999999998</v>
+      </c>
+      <c r="K80" s="17">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="L80" s="17">
+        <f>K80/J80</f>
+        <v>8.9293616550503389E-3</v>
+      </c>
       <c r="M80" s="9"/>
       <c r="N80" s="9" t="s">
         <v>44</v>
@@ -4223,44 +4238,45 @@
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="84" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="3">
-        <v>2</v>
-      </c>
-      <c r="E84" s="3">
+      <c r="D84" s="27">
+        <v>2</v>
+      </c>
+      <c r="E84" s="27">
         <v>20</v>
       </c>
-      <c r="F84" s="3">
-        <v>10</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="F84" s="27">
+        <v>10</v>
+      </c>
+      <c r="G84" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="27">
         <v>3</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="3">
+      <c r="I84" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="27">
         <v>46.66</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="27">
         <v>0.46360000000000001</v>
       </c>
-      <c r="L84" s="3">
-        <f t="shared" ref="L84:L90" si="3">K84/J84</f>
+      <c r="L84" s="27">
+        <f t="shared" ref="L84:L91" si="3">K84/J84</f>
         <v>9.9357051007286767E-3</v>
       </c>
+      <c r="N84" s="29"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
@@ -4521,6 +4537,19 @@
       <c r="H91" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="I91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="3">
+        <v>46.286999999999999</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L91" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2962602890660445E-2</v>
+      </c>
       <c r="N91" s="3" t="s">
         <v>43</v>
       </c>
@@ -4591,6 +4620,19 @@
       </c>
       <c r="H93" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="3">
+        <v>46.369</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="L93" s="3">
+        <f>K93/J93</f>
+        <v>1.1703940132416053E-2</v>
       </c>
       <c r="N93" s="9" t="s">
         <v>44</v>
@@ -4668,7 +4710,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:B1048576 B1:B79" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H79 H81:H92 H94:H1048576 J93" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H79 H81:H92 H94:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G92 G94:G1048576 G1:G79" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D943089-B2CF-144C-A6A0-3A9EC474D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D33C2-F105-3A4B-9849-84E14735BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="2660" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="45">
   <si>
     <t>ACQ function</t>
   </si>
@@ -223,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -311,9 +317,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -334,9 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,6 +373,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,10 +712,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,10 +819,10 @@
         <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -843,49 +864,49 @@
         <f t="shared" si="0"/>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="26">
-        <v>2</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="C4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2</v>
+      </c>
+      <c r="E4" s="24">
         <v>20</v>
       </c>
-      <c r="F4" s="26">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="24">
+        <v>10</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>0.3</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="26">
+      <c r="I4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="24">
         <v>91.061599999999999</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="24">
         <v>0.3039</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="24">
         <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -925,49 +946,49 @@
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="27">
-        <v>2</v>
-      </c>
-      <c r="E6" s="27">
+      <c r="C6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25">
         <v>20</v>
       </c>
-      <c r="F6" s="27">
-        <v>10</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="25">
+        <v>10</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>0.5</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="I6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="25">
         <v>91.015199999999993</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="25">
         <v>0.30330000000000001</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="25">
         <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1007,8 +1028,8 @@
         <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="14"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1048,8 +1069,8 @@
         <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="15"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1089,8 +1110,8 @@
         <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="16" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1132,8 +1153,8 @@
         <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1173,8 +1194,8 @@
         <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="14"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1214,8 +1235,8 @@
         <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="14"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1255,8 +1276,8 @@
         <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1296,8 +1317,8 @@
         <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="10"/>
+      <c r="N14" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1339,8 +1360,8 @@
         <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="14"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1380,8 +1401,8 @@
         <f t="shared" si="0"/>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="14"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1421,8 +1442,8 @@
         <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="14"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1462,8 +1483,8 @@
         <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:53" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1503,7 +1524,7 @@
         <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -1548,7 +1569,7 @@
         <f t="shared" si="0"/>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1588,7 +1609,7 @@
         <f t="shared" si="0"/>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="11"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1628,7 +1649,7 @@
         <f t="shared" si="0"/>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="11"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1668,7 +1689,7 @@
         <f t="shared" si="0"/>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="11"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1708,7 +1729,7 @@
         <f t="shared" si="0"/>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="11"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1748,7 +1769,7 @@
         <f t="shared" si="0"/>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="11"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1788,7 +1809,7 @@
         <f t="shared" si="0"/>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="11"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -1828,7 +1849,7 @@
         <f t="shared" si="0"/>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="11"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1870,578 +1891,579 @@
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
     </row>
-    <row r="28" spans="1:53" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:53" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="C28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="16">
         <v>4</v>
       </c>
-      <c r="E28" s="18">
-        <v>10</v>
-      </c>
-      <c r="F28" s="18">
-        <v>10</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="E28" s="16">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16">
+        <v>10</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="18">
+      <c r="I28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="16">
         <v>91.223600000000005</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="16">
         <v>0.249</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="16">
         <f t="shared" si="0"/>
         <v>2.7295568252075119E-3</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="19"/>
-    </row>
-    <row r="29" spans="1:53" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="18" t="s">
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:53" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="18">
+      <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="16">
         <v>4</v>
       </c>
-      <c r="E29" s="18">
-        <v>10</v>
-      </c>
-      <c r="F29" s="18">
-        <v>10</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="E29" s="16">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16">
+        <v>10</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>0.5</v>
       </c>
-      <c r="I29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="18">
+      <c r="I29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="16">
         <v>91.136200000000002</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="16">
         <v>0.2707</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="16">
         <f t="shared" si="0"/>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="19"/>
-    </row>
-    <row r="30" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="M29" s="10"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="18">
+      <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="16">
         <v>4</v>
       </c>
-      <c r="E30" s="18">
-        <v>10</v>
-      </c>
-      <c r="F30" s="18">
-        <v>10</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="18" t="s">
+      <c r="E30" s="16">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16">
+        <v>10</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="18">
+      <c r="I30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="16">
         <v>72.909599999999998</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="16">
         <v>0.43240000000000001</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="16">
         <f t="shared" si="0"/>
         <v>5.9306319058121289E-3</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="20"/>
-    </row>
-    <row r="31" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="18" t="s">
+      <c r="M30" s="10"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="18">
+      <c r="C31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="16">
         <v>4</v>
       </c>
-      <c r="E31" s="18">
-        <v>10</v>
-      </c>
-      <c r="F31" s="18">
-        <v>10</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="E31" s="16">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16">
+        <v>10</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <v>0.5</v>
       </c>
-      <c r="I31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="18">
+      <c r="I31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="16">
         <v>72.492800000000003</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="16">
         <v>0.66300000000000003</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="16">
         <f t="shared" si="0"/>
         <v>9.1457358523880997E-3</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="M31" s="10"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="18">
+      <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="16">
         <v>4</v>
       </c>
-      <c r="E32" s="18">
-        <v>10</v>
-      </c>
-      <c r="F32" s="18">
-        <v>10</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="18" t="s">
+      <c r="E32" s="16">
+        <v>10</v>
+      </c>
+      <c r="F32" s="16">
+        <v>10</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="18">
+      <c r="I32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="16">
         <v>46.885300000000001</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="16">
         <v>0.33860000000000001</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="16">
         <f t="shared" si="0"/>
         <v>7.2218797789499059E-3</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="18" t="s">
+      <c r="M32" s="10"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="18">
+      <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="16">
         <v>4</v>
       </c>
-      <c r="E33" s="18">
-        <v>10</v>
-      </c>
-      <c r="F33" s="18">
-        <v>10</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="E33" s="16">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16">
+        <v>10</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>0.5</v>
       </c>
-      <c r="I33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="18">
+      <c r="I33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="16">
         <v>46.592700000000001</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="16">
         <v>0.54159999999999997</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="16">
         <f t="shared" si="0"/>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="M33" s="10"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="18">
+      <c r="C34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="16">
         <v>6</v>
       </c>
-      <c r="E34" s="18">
-        <v>10</v>
-      </c>
-      <c r="F34" s="18">
-        <v>10</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="18" t="s">
+      <c r="E34" s="16">
+        <v>10</v>
+      </c>
+      <c r="F34" s="16">
+        <v>10</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="22">
+      <c r="I34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="20">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="20">
         <v>0.27060000000000001</v>
       </c>
-      <c r="L34" s="18">
-        <f t="shared" ref="L34:L56" si="1">K34/J34</f>
+      <c r="L34" s="16">
+        <f t="shared" ref="L34:L60" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="19"/>
-    </row>
-    <row r="35" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="18" t="s">
+      <c r="M34" s="10"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="18">
+      <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="16">
         <v>6</v>
       </c>
-      <c r="E35" s="18">
-        <v>10</v>
-      </c>
-      <c r="F35" s="18">
-        <v>10</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="E35" s="16">
+        <v>10</v>
+      </c>
+      <c r="F35" s="16">
+        <v>10</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <v>0.5</v>
       </c>
-      <c r="I35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="18">
+      <c r="I35" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="16">
         <v>91.158799999999999</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="16">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="16">
         <f t="shared" si="1"/>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="19"/>
-    </row>
-    <row r="36" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="18" t="s">
+      <c r="M35" s="10"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="18">
+      <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="16">
         <v>6</v>
       </c>
-      <c r="E36" s="18">
-        <v>10</v>
-      </c>
-      <c r="F36" s="18">
-        <v>10</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="18">
+      <c r="E36" s="16">
+        <v>10</v>
+      </c>
+      <c r="F36" s="16">
+        <v>10</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="16">
         <v>0.5</v>
       </c>
-      <c r="I36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="18">
+      <c r="I36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="16">
         <v>72.915599999999998</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="16">
         <v>0.44040000000000001</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="16">
         <f t="shared" si="1"/>
         <v>6.0398597830916842E-3</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="20"/>
-    </row>
-    <row r="37" spans="1:53" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="18" t="s">
+      <c r="M36" s="10"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="18">
+      <c r="C37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="16">
         <v>6</v>
       </c>
-      <c r="E37" s="18">
-        <v>10</v>
-      </c>
-      <c r="F37" s="18">
-        <v>10</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="E37" s="16">
+        <v>10</v>
+      </c>
+      <c r="F37" s="16">
+        <v>10</v>
+      </c>
+      <c r="G37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <v>0.5</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="18">
+      <c r="I37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="16">
         <v>72.741200000000006</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="16">
         <v>0.53320000000000001</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="16">
         <f t="shared" si="1"/>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-    </row>
-    <row r="38" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="M37" s="10"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+      <c r="AQ37" s="19"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+    </row>
+    <row r="38" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="24">
+      <c r="C38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="22">
         <v>6</v>
       </c>
-      <c r="E38" s="24">
-        <v>10</v>
-      </c>
-      <c r="F38" s="24">
-        <v>10</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="24">
+      <c r="E38" s="22">
+        <v>10</v>
+      </c>
+      <c r="F38" s="22">
+        <v>10</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="22">
         <v>0.5</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="18">
+      <c r="I38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="16">
         <v>46.8</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="16">
         <v>0.40150000000000002</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="16">
         <f t="shared" si="1"/>
         <v>8.5790598290598295E-3</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="19"/>
-    </row>
-    <row r="39" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="25" t="s">
+      <c r="M38" s="10"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="25">
+      <c r="C39" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="23">
         <v>6</v>
       </c>
-      <c r="E39" s="25">
-        <v>10</v>
-      </c>
-      <c r="F39" s="25">
-        <v>10</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="E39" s="23">
+        <v>10</v>
+      </c>
+      <c r="F39" s="23">
+        <v>10</v>
+      </c>
+      <c r="G39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="23">
         <v>0.5</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="25">
+      <c r="I39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="23">
         <v>46.727200000000003</v>
       </c>
-      <c r="K39" s="25">
+      <c r="K39" s="23">
         <v>0.4239</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="23">
         <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="19"/>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="M39" s="10"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="3">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3">
-        <v>10</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="3">
+      <c r="E40" s="16">
+        <v>10</v>
+      </c>
+      <c r="F40" s="16">
+        <v>10</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="16">
         <v>0.5</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="3">
+      <c r="I40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="16">
         <v>91.021600000000007</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="16">
         <v>0.2651</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="16">
         <f t="shared" si="1"/>
         <v>2.9124954955746765E-3</v>
       </c>
-      <c r="M40" s="11"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -2481,47 +2503,48 @@
         <f t="shared" si="1"/>
         <v>2.5993961132210744E-3</v>
       </c>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="C42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="3">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="E42" s="16">
+        <v>10</v>
+      </c>
+      <c r="F42" s="16">
+        <v>10</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="16">
         <v>0.5</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="16">
         <v>72.332800000000006</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="16">
         <v>0.61960000000000004</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="16">
         <f t="shared" si="1"/>
         <v>8.5659617766766939E-3</v>
       </c>
-      <c r="M42" s="11"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -2561,7 +2584,7 @@
         <f t="shared" si="1"/>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M43" s="11"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="4"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2603,47 +2626,48 @@
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="9">
-        <v>10</v>
-      </c>
-      <c r="F44" s="9">
-        <v>10</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="9">
+      <c r="E44" s="22">
+        <v>10</v>
+      </c>
+      <c r="F44" s="22">
+        <v>10</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="22">
         <v>0.5</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="I44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="16">
         <v>46.543999999999997</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="16">
         <v>0.45190000000000002</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="16">
         <f t="shared" si="1"/>
         <v>9.7090924716397402E-3</v>
       </c>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="M44" s="10"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="1:53" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -2681,8 +2705,8 @@
         <f t="shared" si="1"/>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M45" s="12"/>
-      <c r="N45" s="10"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="9"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -2713,86 +2737,87 @@
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:53" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="3">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="E46" s="16">
+        <v>10</v>
+      </c>
+      <c r="F46" s="16">
+        <v>10</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="16">
         <v>0.5</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="I46" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="16">
         <v>91.159599999999998</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="16">
         <v>0.2757</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="16">
         <f t="shared" si="1"/>
         <v>3.024366056893624E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:53" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:53" s="16" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="18" t="s">
+      <c r="C47" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="18">
-        <v>10</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="E47" s="16">
+        <v>10</v>
+      </c>
+      <c r="F47" s="16">
         <v>30</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="16">
         <v>0.3</v>
       </c>
-      <c r="I47" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="18">
+      <c r="I47" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="16">
         <v>91.126000000000005</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="16">
         <v>0.26190000000000002</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="16">
         <f t="shared" si="1"/>
         <v>2.8740425345126527E-3</v>
       </c>
-      <c r="N47" s="19"/>
-    </row>
-    <row r="48" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="1:53" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>34</v>
       </c>
@@ -2830,1858 +2855,2024 @@
         <f t="shared" si="1"/>
         <v>2.8123510639933408E-3</v>
       </c>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="16">
+        <v>10</v>
+      </c>
+      <c r="F49" s="16">
+        <v>10</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="30">
+        <v>72.748000000000005</v>
+      </c>
+      <c r="K49" s="30">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="L49" s="30">
+        <f t="shared" si="1"/>
+        <v>7.31429042722824E-3</v>
+      </c>
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="1:14" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="5">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5">
+        <v>10</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="28">
+        <v>72.396000000000001</v>
+      </c>
+      <c r="K50" s="28">
+        <v>0.61260000000000003</v>
+      </c>
+      <c r="L50" s="28">
+        <f t="shared" si="1"/>
+        <v>8.4617934692524446E-3</v>
+      </c>
+      <c r="N50" s="29"/>
+    </row>
+    <row r="51" spans="1:14" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="16">
+        <v>10</v>
+      </c>
+      <c r="F51" s="16">
+        <v>10</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="30">
+        <v>46.747</v>
+      </c>
+      <c r="K51" s="30">
+        <v>0.4733</v>
+      </c>
+      <c r="L51" s="30">
+        <f>K51/J51</f>
+        <v>1.0124713885383019E-2</v>
+      </c>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="1:14" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="28">
+        <v>46.427</v>
+      </c>
+      <c r="K52" s="28">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="L52" s="28">
+        <f>K52/J52</f>
+        <v>1.1506235595666315E-2</v>
+      </c>
+      <c r="N52" s="29"/>
+    </row>
+    <row r="53" spans="1:14" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="3">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E53" s="3">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3">
         <v>30</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H53" s="3">
         <v>3</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="I53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="3">
         <v>90.935500000000005</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K53" s="3">
         <v>0.27100000000000002</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L53" s="3">
         <f t="shared" si="1"/>
         <v>2.9801342709942762E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2</v>
-      </c>
-      <c r="E50" s="3">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3">
-        <v>10</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H54" s="3">
         <v>3</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="3">
+      <c r="I54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="3">
         <v>91.039199999999994</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K54" s="3">
         <v>0.28670000000000001</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L54" s="3">
         <f t="shared" si="1"/>
         <v>3.1491928751570756E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="55" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="3">
-        <v>2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3">
-        <v>10</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="D55" s="16">
+        <v>2</v>
+      </c>
+      <c r="E55" s="16">
+        <v>10</v>
+      </c>
+      <c r="F55" s="16">
+        <v>10</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H55" s="16">
         <v>3</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="3">
+      <c r="I55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="16">
         <v>91.0578</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K55" s="16">
         <v>0.26340000000000002</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L55" s="16">
         <f t="shared" si="1"/>
         <v>2.8926681734019492E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B56" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="3" t="s">
+      <c r="C56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="3">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="E56" s="16">
+        <v>10</v>
+      </c>
+      <c r="F56" s="16">
+        <v>10</v>
+      </c>
+      <c r="G56" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H56" s="16">
         <v>3</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I56" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="16">
         <v>91.001800000000003</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K56" s="16">
         <v>0.27479999999999999</v>
       </c>
-      <c r="L52" s="3">
-        <f>K52/J52</f>
+      <c r="L56" s="16">
+        <f>K56/J56</f>
         <v>3.0197204890452713E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="3">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3">
-        <v>10</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="E57" s="3">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H57" s="3">
         <v>3</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="I57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="8">
         <v>91.134200000000007</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K57" s="8">
         <v>0.21640000000000001</v>
       </c>
-      <c r="L53" s="8">
-        <f>K53/J53</f>
+      <c r="L57" s="8">
+        <f>K57/J57</f>
         <v>2.3745202130484493E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H58" s="3">
         <v>0.5</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="3">
         <v>91.070599999999999</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K58" s="3">
         <v>0.30859999999999999</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L58" s="3">
         <f t="shared" si="1"/>
         <v>3.388579849040195E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="59" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C59" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3">
-        <v>10</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="D59" s="16">
+        <v>2</v>
+      </c>
+      <c r="E59" s="16">
+        <v>10</v>
+      </c>
+      <c r="F59" s="16">
+        <v>10</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H59" s="16">
         <v>0.5</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="3">
+      <c r="I59" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="16">
         <v>91.093599999999995</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K59" s="16">
         <v>0.27860000000000001</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L59" s="16">
         <f t="shared" si="1"/>
         <v>3.0583926862040806E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="3">
-        <v>2</v>
-      </c>
-      <c r="E56" s="3">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3">
-        <v>10</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10</v>
+      </c>
+      <c r="F60" s="3">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="3">
+      <c r="I60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="3">
         <v>91.091800000000006</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K60" s="3">
         <v>0.27589999999999998</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L60" s="3">
         <f t="shared" si="1"/>
         <v>3.0288126922511133E-3</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="8">
         <v>91.121799999999993</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K61" s="8">
         <v>0.2571</v>
       </c>
-      <c r="L57" s="8">
-        <f>K57/J57</f>
+      <c r="L61" s="8">
+        <f>K61/J61</f>
         <v>2.8214982583750544E-3</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    <row r="62" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="C62" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="33">
+        <v>2</v>
+      </c>
+      <c r="E62" s="33">
+        <v>10</v>
+      </c>
+      <c r="F62" s="33">
+        <v>10</v>
+      </c>
+      <c r="G62" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H62" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="I62" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="33">
         <v>91.096599999999995</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K62" s="33">
         <v>0.2132</v>
       </c>
-      <c r="L58" s="3">
-        <f>K58/J58</f>
+      <c r="L62" s="33">
+        <f>K62/J62</f>
         <v>2.3403727471716838E-3</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N62" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="3" t="s">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="3">
-        <v>2</v>
-      </c>
-      <c r="E59" s="3">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="I63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="3">
         <v>91.123999999999995</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K63" s="3">
         <v>0.34739999999999999</v>
       </c>
-      <c r="L59" s="3">
-        <f t="shared" ref="L59:L83" si="2">K59/J59</f>
+      <c r="L63" s="3">
+        <f t="shared" ref="L63:L87" si="2">K63/J63</f>
         <v>3.8123875159123831E-3</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="3">
-        <v>2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="C64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="I64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="3">
         <v>91.0976</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K64" s="3">
         <v>0.2414</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L64" s="3">
         <f t="shared" si="2"/>
         <v>2.6499051566671351E-3</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2</v>
-      </c>
-      <c r="E61" s="3">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3">
-        <v>10</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="I65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="3">
         <v>91.018799999999999</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K65" s="3">
         <v>0.26750000000000002</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L65" s="3">
         <f t="shared" si="2"/>
         <v>2.9389532711923253E-3</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="3">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="C66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="I66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="3">
         <v>91.087599999999995</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K66" s="3">
         <v>0.25269999999999998</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L66" s="3">
         <f t="shared" si="2"/>
         <v>2.7742524778345242E-3</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="67" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2</v>
-      </c>
-      <c r="E63" s="3">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="C67" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="33">
+        <v>2</v>
+      </c>
+      <c r="E67" s="33">
+        <v>10</v>
+      </c>
+      <c r="F67" s="33">
+        <v>10</v>
+      </c>
+      <c r="G67" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H67" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J63" s="3">
+      <c r="I67" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="33">
         <v>91.041200000000003</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K67" s="33">
         <v>0.26</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L67" s="33">
         <f t="shared" si="2"/>
         <v>2.8558498789559013E-3</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="N67" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" s="3">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="3">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3">
+        <v>10</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H68" s="3">
         <v>3</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="3">
+      <c r="I68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="3">
         <v>91.082999999999998</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K68" s="3">
         <v>0.26250000000000001</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L68" s="3">
         <f t="shared" si="2"/>
         <v>2.8819867593294032E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="3">
-        <v>2</v>
-      </c>
-      <c r="E65" s="3">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3">
-        <v>10</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3">
+        <v>10</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H69" s="3">
         <v>3</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J65" s="8">
+      <c r="I69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="8">
         <v>91.191599999999994</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K69" s="8">
         <v>0.26669999999999999</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L69" s="8">
         <f t="shared" si="2"/>
         <v>2.9246114773729161E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="3">
-        <v>2</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3">
-        <v>10</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3">
+        <v>10</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H70" s="3">
         <v>3</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="I70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="3">
         <v>91.111800000000002</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K70" s="3">
         <v>0.29730000000000001</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L70" s="3">
         <f t="shared" si="2"/>
         <v>3.263024108842104E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="71" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="3">
-        <v>2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>10</v>
-      </c>
-      <c r="F67" s="3">
-        <v>10</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H71" s="3">
         <v>3</v>
       </c>
-      <c r="I67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="3">
+      <c r="I71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="3">
         <v>90.766800000000003</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K71" s="3">
         <f>0.3409</f>
         <v>0.34089999999999998</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L71" s="3">
         <f t="shared" si="2"/>
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="27" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68" s="27" t="s">
+    <row r="72" spans="1:14" s="25" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C72" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="27">
-        <v>2</v>
-      </c>
-      <c r="E68" s="27">
+      <c r="D72" s="25">
+        <v>2</v>
+      </c>
+      <c r="E72" s="25">
         <v>20</v>
       </c>
-      <c r="F68" s="27">
-        <v>10</v>
-      </c>
-      <c r="G68" s="27" t="s">
+      <c r="F72" s="25">
+        <v>10</v>
+      </c>
+      <c r="G72" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H72" s="25">
         <v>3</v>
       </c>
-      <c r="I68" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68" s="28">
+      <c r="I72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="26">
         <v>91.213399999999993</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K72" s="26">
         <v>0.23419999999999999</v>
       </c>
-      <c r="L68" s="28">
-        <f>K68/J68</f>
+      <c r="L72" s="26">
+        <f>K72/J72</f>
         <v>2.567605198359013E-3</v>
       </c>
-      <c r="N68" s="29"/>
-    </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="N72" s="27"/>
+    </row>
+    <row r="73" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="5">
-        <v>10</v>
-      </c>
-      <c r="F69" s="5">
-        <v>10</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="E73" s="5">
+        <v>10</v>
+      </c>
+      <c r="F73" s="5">
+        <v>10</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H73" s="5">
         <v>3</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="5">
+      <c r="I73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="5">
         <v>91.0946</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K73" s="5">
         <v>0.3251</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L73" s="5">
         <f t="shared" si="2"/>
         <v>3.5688174710685376E-3</v>
       </c>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="3">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3">
-        <v>10</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="C74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>10</v>
+      </c>
+      <c r="F74" s="3">
+        <v>10</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H74" s="3">
         <v>3</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="I74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="3">
         <v>72.591899999999995</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K74" s="3">
         <v>0.53990000000000005</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L74" s="3">
         <f t="shared" si="2"/>
         <v>7.4374689187085624E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="3">
-        <v>2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>10</v>
-      </c>
-      <c r="F71" s="3">
-        <v>10</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="D75" s="3">
+        <v>2</v>
+      </c>
+      <c r="E75" s="3">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3">
+        <v>10</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H75" s="3">
         <v>3</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="I75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="8">
         <v>72.8292</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K75" s="8">
         <v>0.53700000000000003</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L75" s="8">
         <f t="shared" si="2"/>
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="27" t="s">
+    <row r="76" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C76" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="27">
-        <v>2</v>
-      </c>
-      <c r="E72" s="27">
+      <c r="D76" s="25">
+        <v>2</v>
+      </c>
+      <c r="E76" s="25">
         <v>20</v>
       </c>
-      <c r="F72" s="27">
-        <v>10</v>
-      </c>
-      <c r="G72" s="27" t="s">
+      <c r="F76" s="25">
+        <v>10</v>
+      </c>
+      <c r="G76" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H76" s="25">
         <v>3</v>
       </c>
-      <c r="I72" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="28">
+      <c r="I76" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="26">
         <v>72.848799999999997</v>
       </c>
-      <c r="K72" s="28">
+      <c r="K76" s="26">
         <v>0.4602</v>
       </c>
-      <c r="L72" s="28">
+      <c r="L76" s="26">
         <f t="shared" si="2"/>
         <v>6.3171939688780052E-3</v>
       </c>
-      <c r="N72" s="29"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="N76" s="27"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2</v>
-      </c>
-      <c r="E73" s="3">
-        <v>10</v>
-      </c>
-      <c r="F73" s="3">
-        <v>10</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3">
+        <v>10</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H77" s="3">
         <v>3</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="3">
+      <c r="I77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="3">
         <v>72.417199999999994</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K77" s="3">
         <v>0.69940000000000002</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L77" s="3">
         <f t="shared" si="2"/>
         <v>9.6579265699309018E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="78" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C78" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="3">
-        <v>2</v>
-      </c>
-      <c r="E74" s="3">
-        <v>10</v>
-      </c>
-      <c r="F74" s="3">
-        <v>10</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="D78" s="16">
+        <v>2</v>
+      </c>
+      <c r="E78" s="16">
+        <v>10</v>
+      </c>
+      <c r="F78" s="16">
+        <v>10</v>
+      </c>
+      <c r="G78" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H78" s="16">
         <v>3</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="3">
+      <c r="I78" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="16">
         <v>72.6404</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K78" s="16">
         <v>0.55869999999999997</v>
       </c>
-      <c r="L74" s="3">
-        <f>K74/J74</f>
+      <c r="L78" s="16">
+        <f>K78/J78</f>
         <v>7.691312272509512E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B79" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C79" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="3">
-        <v>10</v>
-      </c>
-      <c r="F75" s="3">
-        <v>10</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="E79" s="16">
+        <v>10</v>
+      </c>
+      <c r="F79" s="16">
+        <v>10</v>
+      </c>
+      <c r="G79" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H79" s="16">
         <v>3</v>
       </c>
-      <c r="I75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="3">
+      <c r="I79" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="16">
         <v>72.5</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K79" s="16">
         <v>0.55779999999999996</v>
       </c>
-      <c r="L75" s="3">
-        <f>K75/J75</f>
+      <c r="L79" s="16">
+        <f>K79/J79</f>
         <v>7.6937931034482751E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="N79" s="17"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2</v>
-      </c>
-      <c r="E76" s="3">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3">
-        <v>10</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="C80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2</v>
+      </c>
+      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+      <c r="F80" s="3">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H80" s="3">
         <v>0.5</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="I80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="3">
         <v>72.525999999999996</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K80" s="3">
         <v>0.68799999999999994</v>
       </c>
-      <c r="L76" s="3">
-        <f>K76/J76</f>
+      <c r="L80" s="3">
+        <f>K80/J80</f>
         <v>9.4862532057469039E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="3">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>10</v>
-      </c>
-      <c r="F77" s="3">
-        <v>10</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="D81" s="3">
+        <v>2</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3">
+        <v>10</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H81" s="3">
         <v>0.5</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="I81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="3">
         <v>72.510999999999996</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K81" s="3">
         <v>0.65300000000000002</v>
       </c>
-      <c r="L77" s="3">
-        <f>K77/J77</f>
+      <c r="L81" s="3">
+        <f>K81/J81</f>
         <v>9.0055301954186269E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="82" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="3">
-        <v>2</v>
-      </c>
-      <c r="E78" s="3">
-        <v>10</v>
-      </c>
-      <c r="F78" s="3">
-        <v>10</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="C82" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="33">
+        <v>2</v>
+      </c>
+      <c r="E82" s="33">
+        <v>10</v>
+      </c>
+      <c r="F82" s="33">
+        <v>10</v>
+      </c>
+      <c r="G82" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H82" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="17">
+      <c r="I82" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="34">
         <v>72.276399999999995</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K82" s="34">
         <v>0.72819999999999996</v>
       </c>
-      <c r="L78" s="17">
-        <f>K78/J78</f>
+      <c r="L82" s="34">
+        <f>K82/J82</f>
         <v>1.0075211272282515E-2</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="N82" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="3">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3">
-        <v>10</v>
-      </c>
-      <c r="F79" s="3">
-        <v>10</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="3">
+      <c r="I83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="3">
         <v>72.355999999999995</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K83" s="3">
         <v>0.64749999999999996</v>
       </c>
-      <c r="L79" s="3">
-        <f>K79/J79</f>
+      <c r="L83" s="3">
+        <f>K83/J83</f>
         <v>8.9488086682514238E-3</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    <row r="84" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="9">
-        <v>2</v>
-      </c>
-      <c r="E80" s="9">
-        <v>10</v>
-      </c>
-      <c r="F80" s="9">
-        <v>10</v>
-      </c>
-      <c r="G80" s="9" t="s">
+      <c r="C84" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="32">
+        <v>2</v>
+      </c>
+      <c r="E84" s="32">
+        <v>10</v>
+      </c>
+      <c r="F84" s="32">
+        <v>10</v>
+      </c>
+      <c r="G84" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H84" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="3">
+      <c r="I84" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="33">
         <v>72.311999999999998</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K84" s="34">
         <v>0.64570000000000005</v>
       </c>
-      <c r="L80" s="17">
-        <f>K80/J80</f>
+      <c r="L84" s="34">
+        <f>K84/J84</f>
         <v>8.9293616550503389E-3</v>
       </c>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9" t="s">
+      <c r="M84" s="32"/>
+      <c r="N84" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="5" t="s">
+    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="5">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5">
-        <v>10</v>
-      </c>
-      <c r="F81" s="5">
-        <v>10</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="C85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5">
+        <v>10</v>
+      </c>
+      <c r="F85" s="5">
+        <v>10</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="5">
+      <c r="I85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="5">
         <v>72.527000000000001</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K85" s="5">
         <v>0.61990000000000001</v>
       </c>
-      <c r="L81" s="5">
-        <f>K81/J81</f>
+      <c r="L85" s="5">
+        <f>K85/J85</f>
         <v>8.5471617466598652E-3</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N85" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="3">
-        <v>2</v>
-      </c>
-      <c r="E82" s="3">
-        <v>10</v>
-      </c>
-      <c r="F82" s="3">
-        <v>10</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3">
+        <v>10</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H86" s="3">
         <v>3</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="3">
+      <c r="I86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="3">
         <v>46.6</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K86" s="3">
         <v>0.39529999999999998</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L86" s="3">
         <f t="shared" si="2"/>
         <v>8.4828326180257513E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="3">
-        <v>2</v>
-      </c>
-      <c r="E83" s="3">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="3">
+        <v>10</v>
+      </c>
+      <c r="F87" s="3">
+        <v>10</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H87" s="3">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="8">
+      <c r="I87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="8">
         <v>46.79</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K87" s="8">
         <v>0.43430000000000002</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L87" s="8">
         <f t="shared" si="2"/>
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="27" t="s">
+    <row r="88" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C88" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="27">
-        <v>2</v>
-      </c>
-      <c r="E84" s="27">
+      <c r="D88" s="25">
+        <v>2</v>
+      </c>
+      <c r="E88" s="25">
         <v>20</v>
       </c>
-      <c r="F84" s="27">
-        <v>10</v>
-      </c>
-      <c r="G84" s="27" t="s">
+      <c r="F88" s="25">
+        <v>10</v>
+      </c>
+      <c r="G88" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H88" s="25">
         <v>3</v>
       </c>
-      <c r="I84" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="27">
+      <c r="I88" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="25">
         <v>46.66</v>
       </c>
-      <c r="K84" s="27">
+      <c r="K88" s="25">
         <v>0.46360000000000001</v>
       </c>
-      <c r="L84" s="27">
-        <f t="shared" ref="L84:L91" si="3">K84/J84</f>
+      <c r="L88" s="25">
+        <f t="shared" ref="L88:L95" si="3">K88/J88</f>
         <v>9.9357051007286767E-3</v>
       </c>
-      <c r="N84" s="29"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="N88" s="27"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="3">
-        <v>2</v>
-      </c>
-      <c r="E85" s="3">
-        <v>10</v>
-      </c>
-      <c r="F85" s="3">
-        <v>10</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="C89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2</v>
+      </c>
+      <c r="E89" s="3">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H89" s="3">
         <v>3</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="I89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="3">
         <v>46.5</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K89" s="3">
         <v>0.54810000000000003</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L89" s="3">
         <f t="shared" si="3"/>
         <v>1.178709677419355E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="90" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="3">
-        <v>2</v>
-      </c>
-      <c r="E86" s="3">
-        <v>10</v>
-      </c>
-      <c r="F86" s="3">
-        <v>10</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="D90" s="16">
+        <v>2</v>
+      </c>
+      <c r="E90" s="16">
+        <v>10</v>
+      </c>
+      <c r="F90" s="16">
+        <v>10</v>
+      </c>
+      <c r="G90" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H90" s="16">
         <v>3</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="3">
+      <c r="I90" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="16">
         <v>46.56</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K90" s="16">
         <v>0.47189999999999999</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L90" s="16">
         <f t="shared" si="3"/>
         <v>1.0135309278350515E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="N90" s="17"/>
+    </row>
+    <row r="91" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B91" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C91" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="3">
-        <v>10</v>
-      </c>
-      <c r="F87" s="3">
-        <v>10</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="E91" s="16">
+        <v>10</v>
+      </c>
+      <c r="F91" s="16">
+        <v>10</v>
+      </c>
+      <c r="G91" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H91" s="16">
         <v>3</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J87" s="3">
+      <c r="I91" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="16">
         <v>46.54</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K91" s="16">
         <v>0.53459999999999996</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L91" s="16">
         <f t="shared" si="3"/>
         <v>1.1486892995272883E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="N91" s="17"/>
+    </row>
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="3">
-        <v>10</v>
-      </c>
-      <c r="F88" s="3">
-        <v>10</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="E92" s="3">
+        <v>10</v>
+      </c>
+      <c r="F92" s="3">
+        <v>10</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H92" s="3">
         <v>3</v>
       </c>
-      <c r="I88" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="3">
+      <c r="I92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="3">
         <v>46.65</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K92" s="3">
         <v>0.46810000000000002</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L92" s="3">
         <f t="shared" si="3"/>
         <v>1.0034297963558415E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="3">
-        <v>2</v>
-      </c>
-      <c r="E89" s="3">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3">
-        <v>10</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="C93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3">
+        <v>10</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H93" s="3">
         <v>0.5</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="I93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="3">
         <v>46.54</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K93" s="3">
         <v>0.64410000000000001</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L93" s="3">
         <f t="shared" si="3"/>
         <v>1.3839707778255265E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="3" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="3">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3">
-        <v>10</v>
-      </c>
-      <c r="F90" s="3">
-        <v>10</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3">
+        <v>10</v>
+      </c>
+      <c r="F94" s="3">
+        <v>10</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H94" s="3">
         <v>0.5</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="8">
+      <c r="I94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="8">
         <v>46.74</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K94" s="8">
         <v>0.4078</v>
       </c>
-      <c r="L90" s="8">
+      <c r="L94" s="8">
         <f t="shared" si="3"/>
         <v>8.7248609328198536E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B91" s="3" t="s">
+    <row r="95" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="3">
-        <v>2</v>
-      </c>
-      <c r="E91" s="3">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="C95" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="33">
+        <v>2</v>
+      </c>
+      <c r="E95" s="33">
+        <v>10</v>
+      </c>
+      <c r="F95" s="33">
+        <v>10</v>
+      </c>
+      <c r="G95" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H95" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="I95" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="33">
         <v>46.286999999999999</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K95" s="33">
         <v>0.6</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L95" s="33">
         <f t="shared" si="3"/>
         <v>1.2962602890660445E-2</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N95" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B92" s="3" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="3">
-        <v>2</v>
-      </c>
-      <c r="E92" s="3">
-        <v>10</v>
-      </c>
-      <c r="F92" s="3">
-        <v>10</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="C96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="3">
+        <v>10</v>
+      </c>
+      <c r="F96" s="3">
+        <v>10</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I92" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="3">
+      <c r="I96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="3">
         <v>46.523000000000003</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K96" s="3">
         <v>0.54430000000000001</v>
       </c>
-      <c r="L92" s="3">
-        <f>K92/J92</f>
+      <c r="L96" s="3">
+        <f>K96/J96</f>
         <v>1.1699589450379381E-2</v>
       </c>
-      <c r="N92" s="3" t="s">
+      <c r="N96" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B93" s="3" t="s">
+    <row r="97" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="9">
-        <v>2</v>
-      </c>
-      <c r="E93" s="9">
-        <v>10</v>
-      </c>
-      <c r="F93" s="9">
-        <v>10</v>
-      </c>
-      <c r="G93" s="9" t="s">
+      <c r="C97" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="32">
+        <v>2</v>
+      </c>
+      <c r="E97" s="32">
+        <v>10</v>
+      </c>
+      <c r="F97" s="32">
+        <v>10</v>
+      </c>
+      <c r="G97" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H97" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" s="3">
+      <c r="I97" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="33">
         <v>46.369</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K97" s="33">
         <v>0.54269999999999996</v>
       </c>
-      <c r="L93" s="3">
-        <f>K93/J93</f>
+      <c r="L97" s="33">
+        <f>K97/J97</f>
         <v>1.1703940132416053E-2</v>
       </c>
-      <c r="N93" s="9" t="s">
+      <c r="N97" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="5" t="s">
+    <row r="98" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="5">
-        <v>2</v>
-      </c>
-      <c r="E94" s="5">
-        <v>10</v>
-      </c>
-      <c r="F94" s="5">
-        <v>10</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="C98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="5">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5">
+        <v>10</v>
+      </c>
+      <c r="F98" s="5">
+        <v>10</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="5">
+      <c r="I98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="5">
         <v>46.572000000000003</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K98" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="L94" s="5">
-        <f>K94/J94</f>
+      <c r="L98" s="5">
+        <f>K98/J98</f>
         <v>1.0199261358756333E-2</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N98" s="5" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B48" xr:uid="{0925D319-5138-EC4A-B468-88F4F6DB9336}"/>
   <mergeCells count="6">
     <mergeCell ref="M28:M45"/>
     <mergeCell ref="M2:M18"/>
@@ -4692,28 +4883,28 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F81:F92 F94:F1048576 F45:F79" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F37 F39:F43 F85:F96 F98:F1048576 F45:F83" xr:uid="{5BD20831-746F-FD45-BCE5-BD1EA2874D8B}">
       <formula1>"10, 30"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C81:C92 C94:C1048576 C45:C79" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C37 C39:C43 C85:C96 C98:C1048576 C45:C83" xr:uid="{331C593D-BEE4-8448-91E2-4F45023D00DE}">
       <formula1>"ITS, PI, EI, UCB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A81:A92 A94:A1048576 A45:A79" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A43 A85:A96 A98:A1048576 A45:A83" xr:uid="{3725A888-F58A-6A43-B651-03A86BE31F1A}">
       <formula1>"mutation, random_sampling, dynamic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D81:D92 D94:D1048576 D45:D79" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D37 D39:D43 D85:D96 D98:D1048576 D45:D83" xr:uid="{C9159AC4-0915-664B-9393-E3C5B0BCE85B}">
       <formula1>"2, 4, 6, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E81:E92 E94:E1048576 E45:E79" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E37 E39:E43 E85:E96 E98:E1048576 E45:E83" xr:uid="{646AD2B1-F937-6541-BDF5-B643AF2BD8CB}">
       <formula1>"10,20,NA,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:B1048576 B1:B79" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85:B1048576 B1:B83" xr:uid="{A6397971-01D4-F641-8567-4DAF687DF919}">
       <formula1>"cifar10, cifar100, ImageNet16-120"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H79 H81:H92 H94:H1048576" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H98:H1048576 H85:H96 H1:H83" xr:uid="{DC0198F6-D5B8-7046-80E2-CEFE32AA7CAB}">
       <formula1>"NA, 0.3, 0.5, 3, 5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G81:G92 G94:G1048576 G1:G79" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G85:G96 G98:G1048576 G1:G83" xr:uid="{E5123609-4FE5-E74A-B8B8-DF591FCA55AB}">
       <formula1>"Gaussian, SCP+ensembler, CVCP+quantile, SCP+quantile, CVCP+ensembler, BtCP"</formula1>
     </dataValidation>
   </dataValidations>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D33C2-F105-3A4B-9849-84E14735BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667763D3-CA3B-5641-A70B-D32C2B10E7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -714,8 +714,8 @@
   </sheetPr>
   <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M30" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667763D3-CA3B-5641-A70B-D32C2B10E7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B1F838-FEBF-C748-A9BF-64338158DA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -343,6 +343,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -714,8 +717,8 @@
   </sheetPr>
   <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,41 +870,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="24">
-        <v>2</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="C4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="25">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25">
         <v>20</v>
       </c>
-      <c r="F4" s="24">
-        <v>10</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="25">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="25">
         <v>0.3</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="24">
+      <c r="I4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="25">
         <v>91.061599999999999</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="25">
         <v>0.3039</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="25">
         <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
@@ -949,41 +952,41 @@
       <c r="M5" s="10"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="25">
-        <v>2</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="C6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2</v>
+      </c>
+      <c r="E6" s="26">
         <v>20</v>
       </c>
-      <c r="F6" s="25">
-        <v>10</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="26">
+        <v>10</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>0.5</v>
       </c>
-      <c r="I6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="I6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="26">
         <v>91.015199999999993</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <v>0.30330000000000001</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
@@ -1975,7 +1978,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>12</v>
       </c>
@@ -2014,9 +2017,9 @@
         <v>5.9306319058121289E-3</v>
       </c>
       <c r="M30" s="10"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>12</v>
       </c>
@@ -2055,9 +2058,9 @@
         <v>9.1457358523880997E-3</v>
       </c>
       <c r="M31" s="10"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>12</v>
       </c>
@@ -2096,9 +2099,9 @@
         <v>7.2218797789499059E-3</v>
       </c>
       <c r="M32" s="10"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="19"/>
+    </row>
+    <row r="33" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>1.1624138545308599E-2</v>
       </c>
       <c r="M33" s="10"/>
-      <c r="N33" s="18"/>
+      <c r="N33" s="19"/>
     </row>
     <row r="34" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
@@ -2167,10 +2170,10 @@
       <c r="I34" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="21">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="21">
         <v>0.27060000000000001</v>
       </c>
       <c r="L34" s="16">
@@ -2221,7 +2224,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:53" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>12</v>
       </c>
@@ -2260,9 +2263,9 @@
         <v>6.0398597830916842E-3</v>
       </c>
       <c r="M36" s="10"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:53" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="19"/>
+    </row>
+    <row r="37" spans="1:53" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>12</v>
       </c>
@@ -2301,70 +2304,70 @@
         <v>7.3300962865611233E-3</v>
       </c>
       <c r="M37" s="10"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="19"/>
-      <c r="AC37" s="19"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="19"/>
-      <c r="AF37" s="19"/>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
-      <c r="AM37" s="19"/>
-      <c r="AN37" s="19"/>
-      <c r="AO37" s="19"/>
-      <c r="AP37" s="19"/>
-      <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="20"/>
+      <c r="AV37" s="20"/>
+      <c r="AW37" s="20"/>
+      <c r="AX37" s="20"/>
+      <c r="AY37" s="20"/>
+      <c r="AZ37" s="20"/>
+      <c r="BA37" s="20"/>
     </row>
     <row r="38" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="22">
+      <c r="C38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="23">
         <v>6</v>
       </c>
-      <c r="E38" s="22">
-        <v>10</v>
-      </c>
-      <c r="F38" s="22">
+      <c r="E38" s="23">
+        <v>10</v>
+      </c>
+      <c r="F38" s="23">
         <v>10</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="23">
         <v>0.5</v>
       </c>
       <c r="I38" s="16" t="s">
@@ -2384,40 +2387,40 @@
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="C39" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="24">
         <v>6</v>
       </c>
-      <c r="E39" s="23">
-        <v>10</v>
-      </c>
-      <c r="F39" s="23">
-        <v>10</v>
-      </c>
-      <c r="G39" s="23" t="s">
+      <c r="E39" s="24">
+        <v>10</v>
+      </c>
+      <c r="F39" s="24">
+        <v>10</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="24">
         <v>0.5</v>
       </c>
-      <c r="I39" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="23">
+      <c r="I39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="24">
         <v>46.727200000000003</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="24">
         <v>0.4239</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="24">
         <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
@@ -2627,28 +2630,28 @@
       <c r="BA43" s="3"/>
     </row>
     <row r="44" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="C44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="22">
-        <v>10</v>
-      </c>
-      <c r="F44" s="22">
-        <v>10</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="22">
+      <c r="E44" s="23">
+        <v>10</v>
+      </c>
+      <c r="F44" s="23">
+        <v>10</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="23">
         <v>0.5</v>
       </c>
       <c r="I44" s="16" t="s">
@@ -2857,7 +2860,7 @@
       </c>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:14" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>34</v>
       </c>
@@ -2885,19 +2888,19 @@
       <c r="I49" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="31">
         <v>72.748000000000005</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="31">
         <v>0.53210000000000002</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="31">
         <f t="shared" si="1"/>
         <v>7.31429042722824E-3</v>
       </c>
-      <c r="N49" s="31"/>
-    </row>
-    <row r="50" spans="1:14" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="32"/>
+    </row>
+    <row r="50" spans="1:14" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>34</v>
       </c>
@@ -2925,19 +2928,19 @@
       <c r="I50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="29">
         <v>72.396000000000001</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="29">
         <v>0.61260000000000003</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="29">
         <f t="shared" si="1"/>
         <v>8.4617934692524446E-3</v>
       </c>
-      <c r="N50" s="29"/>
-    </row>
-    <row r="51" spans="1:14" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="30"/>
+    </row>
+    <row r="51" spans="1:14" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>34</v>
       </c>
@@ -2965,19 +2968,19 @@
       <c r="I51" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="31">
         <v>46.747</v>
       </c>
-      <c r="K51" s="30">
+      <c r="K51" s="31">
         <v>0.4733</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="31">
         <f>K51/J51</f>
         <v>1.0124713885383019E-2</v>
       </c>
-      <c r="N51" s="31"/>
-    </row>
-    <row r="52" spans="1:14" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="32"/>
+    </row>
+    <row r="52" spans="1:14" s="29" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -3005,17 +3008,17 @@
       <c r="I52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="29">
         <v>46.427</v>
       </c>
-      <c r="K52" s="28">
+      <c r="K52" s="29">
         <v>0.53420000000000001</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L52" s="29">
         <f>K52/J52</f>
         <v>1.1506235595666315E-2</v>
       </c>
-      <c r="N52" s="29"/>
+      <c r="N52" s="30"/>
     </row>
     <row r="53" spans="1:14" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
@@ -3377,45 +3380,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="33" t="s">
+    <row r="62" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="33">
-        <v>2</v>
-      </c>
-      <c r="E62" s="33">
-        <v>10</v>
-      </c>
-      <c r="F62" s="33">
-        <v>10</v>
-      </c>
-      <c r="G62" s="33" t="s">
+      <c r="C62" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="34">
+        <v>2</v>
+      </c>
+      <c r="E62" s="34">
+        <v>10</v>
+      </c>
+      <c r="F62" s="34">
+        <v>10</v>
+      </c>
+      <c r="G62" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="33">
+      <c r="I62" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="34">
         <v>91.096599999999995</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="34">
         <v>0.2132</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="34">
         <f>K62/J62</f>
         <v>2.3403727471716838E-3</v>
       </c>
-      <c r="N62" s="33" t="s">
+      <c r="N62" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3587,45 +3590,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="33" t="s">
+    <row r="67" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="33">
-        <v>2</v>
-      </c>
-      <c r="E67" s="33">
-        <v>10</v>
-      </c>
-      <c r="F67" s="33">
-        <v>10</v>
-      </c>
-      <c r="G67" s="33" t="s">
+      <c r="C67" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="34">
+        <v>2</v>
+      </c>
+      <c r="E67" s="34">
+        <v>10</v>
+      </c>
+      <c r="F67" s="34">
+        <v>10</v>
+      </c>
+      <c r="G67" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="33" t="s">
+      <c r="H67" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="33">
+      <c r="I67" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="34">
         <v>91.041200000000003</v>
       </c>
-      <c r="K67" s="33">
+      <c r="K67" s="34">
         <v>0.26</v>
       </c>
-      <c r="L67" s="33">
+      <c r="L67" s="34">
         <f t="shared" si="2"/>
         <v>2.8558498789559013E-3</v>
       </c>
-      <c r="N67" s="33" t="s">
+      <c r="N67" s="34" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3786,45 +3789,45 @@
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="25" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="25" t="s">
+    <row r="72" spans="1:14" s="26" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="25">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="D72" s="26">
+        <v>2</v>
+      </c>
+      <c r="E72" s="26">
         <v>20</v>
       </c>
-      <c r="F72" s="25">
-        <v>10</v>
-      </c>
-      <c r="G72" s="25" t="s">
+      <c r="F72" s="26">
+        <v>10</v>
+      </c>
+      <c r="G72" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="25">
+      <c r="H72" s="26">
         <v>3</v>
       </c>
-      <c r="I72" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="26">
+      <c r="I72" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="27">
         <v>91.213399999999993</v>
       </c>
-      <c r="K72" s="26">
+      <c r="K72" s="27">
         <v>0.23419999999999999</v>
       </c>
-      <c r="L72" s="26">
+      <c r="L72" s="27">
         <f>K72/J72</f>
         <v>2.567605198359013E-3</v>
       </c>
-      <c r="N72" s="27"/>
+      <c r="N72" s="28"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -3944,45 +3947,45 @@
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="25" t="s">
+    <row r="76" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="25">
-        <v>2</v>
-      </c>
-      <c r="E76" s="25">
+      <c r="D76" s="26">
+        <v>2</v>
+      </c>
+      <c r="E76" s="26">
         <v>20</v>
       </c>
-      <c r="F76" s="25">
-        <v>10</v>
-      </c>
-      <c r="G76" s="25" t="s">
+      <c r="F76" s="26">
+        <v>10</v>
+      </c>
+      <c r="G76" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="25">
+      <c r="H76" s="26">
         <v>3</v>
       </c>
-      <c r="I76" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="26">
+      <c r="I76" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="27">
         <v>72.848799999999997</v>
       </c>
-      <c r="K76" s="26">
+      <c r="K76" s="27">
         <v>0.4602</v>
       </c>
-      <c r="L76" s="26">
+      <c r="L76" s="27">
         <f t="shared" si="2"/>
         <v>6.3171939688780052E-3</v>
       </c>
-      <c r="N76" s="27"/>
+      <c r="N76" s="28"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
@@ -4142,84 +4145,85 @@
         <v>9.4862532057469039E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="81" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="3">
-        <v>2</v>
-      </c>
-      <c r="E81" s="3">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3">
-        <v>10</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="D81" s="16">
+        <v>2</v>
+      </c>
+      <c r="E81" s="16">
+        <v>10</v>
+      </c>
+      <c r="F81" s="16">
+        <v>10</v>
+      </c>
+      <c r="G81" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="16">
         <v>0.5</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="I81" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="16">
         <v>72.510999999999996</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="16">
         <v>0.65300000000000002</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="16">
         <f>K81/J81</f>
         <v>9.0055301954186269E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="33" t="s">
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="33">
-        <v>2</v>
-      </c>
-      <c r="E82" s="33">
-        <v>10</v>
-      </c>
-      <c r="F82" s="33">
-        <v>10</v>
-      </c>
-      <c r="G82" s="33" t="s">
+      <c r="C82" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="34">
+        <v>2</v>
+      </c>
+      <c r="E82" s="34">
+        <v>10</v>
+      </c>
+      <c r="F82" s="34">
+        <v>10</v>
+      </c>
+      <c r="G82" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="34">
+      <c r="I82" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="35">
         <v>72.276399999999995</v>
       </c>
-      <c r="K82" s="34">
+      <c r="K82" s="35">
         <v>0.72819999999999996</v>
       </c>
-      <c r="L82" s="34">
+      <c r="L82" s="35">
         <f>K82/J82</f>
         <v>1.0075211272282515E-2</v>
       </c>
-      <c r="N82" s="33" t="s">
+      <c r="N82" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4252,59 +4256,59 @@
         <v>17</v>
       </c>
       <c r="J83" s="3">
-        <v>72.355999999999995</v>
+        <v>72.325999999999993</v>
       </c>
       <c r="K83" s="3">
         <v>0.64749999999999996</v>
       </c>
       <c r="L83" s="3">
         <f>K83/J83</f>
-        <v>8.9488086682514238E-3</v>
+        <v>8.9525205320355062E-3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="32" t="s">
+    <row r="84" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="32">
-        <v>2</v>
-      </c>
-      <c r="E84" s="32">
-        <v>10</v>
-      </c>
-      <c r="F84" s="32">
-        <v>10</v>
-      </c>
-      <c r="G84" s="32" t="s">
+      <c r="C84" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="33">
+        <v>2</v>
+      </c>
+      <c r="E84" s="33">
+        <v>10</v>
+      </c>
+      <c r="F84" s="33">
+        <v>10</v>
+      </c>
+      <c r="G84" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="H84" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="33">
+      <c r="I84" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="34">
         <v>72.311999999999998</v>
       </c>
-      <c r="K84" s="34">
+      <c r="K84" s="35">
         <v>0.64570000000000005</v>
       </c>
-      <c r="L84" s="34">
+      <c r="L84" s="35">
         <f>K84/J84</f>
         <v>8.9293616550503389E-3</v>
       </c>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32" t="s">
+      <c r="M84" s="33"/>
+      <c r="N84" s="33" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4428,45 +4432,45 @@
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="25" t="s">
+    <row r="88" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="25">
-        <v>2</v>
-      </c>
-      <c r="E88" s="25">
+      <c r="D88" s="26">
+        <v>2</v>
+      </c>
+      <c r="E88" s="26">
         <v>20</v>
       </c>
-      <c r="F88" s="25">
-        <v>10</v>
-      </c>
-      <c r="G88" s="25" t="s">
+      <c r="F88" s="26">
+        <v>10</v>
+      </c>
+      <c r="G88" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="25">
+      <c r="H88" s="26">
         <v>3</v>
       </c>
-      <c r="I88" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="25">
+      <c r="I88" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="26">
         <v>46.66</v>
       </c>
-      <c r="K88" s="25">
+      <c r="K88" s="26">
         <v>0.46360000000000001</v>
       </c>
-      <c r="L88" s="25">
+      <c r="L88" s="26">
         <f t="shared" ref="L88:L95" si="3">K88/J88</f>
         <v>9.9357051007286767E-3</v>
       </c>
-      <c r="N88" s="27"/>
+      <c r="N88" s="28"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -4665,84 +4669,85 @@
         <v>1.3839707778255265E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="3" t="s">
+    <row r="94" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="3">
-        <v>2</v>
-      </c>
-      <c r="E94" s="3">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3">
-        <v>10</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="D94" s="16">
+        <v>2</v>
+      </c>
+      <c r="E94" s="16">
+        <v>10</v>
+      </c>
+      <c r="F94" s="16">
+        <v>10</v>
+      </c>
+      <c r="G94" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="16">
         <v>0.5</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="8">
+      <c r="I94" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="18">
         <v>46.74</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K94" s="18">
         <v>0.4078</v>
       </c>
-      <c r="L94" s="8">
+      <c r="L94" s="18">
         <f t="shared" si="3"/>
         <v>8.7248609328198536E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="33" t="s">
+      <c r="N94" s="17"/>
+    </row>
+    <row r="95" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="33">
-        <v>2</v>
-      </c>
-      <c r="E95" s="33">
-        <v>10</v>
-      </c>
-      <c r="F95" s="33">
-        <v>10</v>
-      </c>
-      <c r="G95" s="33" t="s">
+      <c r="C95" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="34">
+        <v>2</v>
+      </c>
+      <c r="E95" s="34">
+        <v>10</v>
+      </c>
+      <c r="F95" s="34">
+        <v>10</v>
+      </c>
+      <c r="G95" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="33">
+      <c r="I95" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="34">
         <v>46.286999999999999</v>
       </c>
-      <c r="K95" s="33">
+      <c r="K95" s="34">
         <v>0.6</v>
       </c>
-      <c r="L95" s="33">
+      <c r="L95" s="34">
         <f t="shared" si="3"/>
         <v>1.2962602890660445E-2</v>
       </c>
-      <c r="N95" s="33" t="s">
+      <c r="N95" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4788,45 +4793,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="33" t="s">
+    <row r="97" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="32">
-        <v>2</v>
-      </c>
-      <c r="E97" s="32">
-        <v>10</v>
-      </c>
-      <c r="F97" s="32">
-        <v>10</v>
-      </c>
-      <c r="G97" s="32" t="s">
+      <c r="C97" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="33">
+        <v>2</v>
+      </c>
+      <c r="E97" s="33">
+        <v>10</v>
+      </c>
+      <c r="F97" s="33">
+        <v>10</v>
+      </c>
+      <c r="G97" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="32" t="s">
+      <c r="H97" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I97" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="33">
+      <c r="I97" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="34">
         <v>46.369</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K97" s="34">
         <v>0.54269999999999996</v>
       </c>
-      <c r="L97" s="33">
+      <c r="L97" s="34">
         <f>K97/J97</f>
         <v>1.1703940132416053E-2</v>
       </c>
-      <c r="N97" s="32" t="s">
+      <c r="N97" s="33" t="s">
         <v>44</v>
       </c>
     </row>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B1F838-FEBF-C748-A9BF-64338158DA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A5655-A460-6F4B-9B85-52EFEB8F8810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="38260" windowHeight="19700" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
   </sheetPr>
   <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="99" workbookViewId="0">
       <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A5655-A460-6F4B-9B85-52EFEB8F8810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0644E-B6B3-0640-87BB-03EC97540AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="38260" windowHeight="19700" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -320,24 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -365,29 +347,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,8 +356,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +702,8 @@
   </sheetPr>
   <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,10 +807,10 @@
         <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -867,49 +852,49 @@
         <f t="shared" si="0"/>
         <v>3.3209383847324692E-3</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="25">
-        <v>2</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="C4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
         <v>20</v>
       </c>
-      <c r="F4" s="25">
-        <v>10</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="19">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="19">
         <v>0.3</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="25">
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="19">
         <v>91.061599999999999</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="19">
         <v>0.3039</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="19">
         <f t="shared" si="0"/>
         <v>3.3373013432665363E-3</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="13"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -949,49 +934,49 @@
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="26">
-        <v>2</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
         <v>20</v>
       </c>
-      <c r="F6" s="26">
-        <v>10</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="19">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="19">
         <v>0.5</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="26">
+      <c r="I6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="19">
         <v>91.015199999999993</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="19">
         <v>0.30330000000000001</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="19">
         <f t="shared" si="0"/>
         <v>3.3324104105687843E-3</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="13"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1031,8 +1016,8 @@
         <f t="shared" si="0"/>
         <v>2.4716560754228269E-3</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="13"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1072,8 +1057,8 @@
         <f t="shared" si="0"/>
         <v>2.6658377342905597E-3</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1113,8 +1098,8 @@
         <f t="shared" si="0"/>
         <v>8.6324185491758951E-3</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1156,8 +1141,8 @@
         <f t="shared" si="0"/>
         <v>9.1880719260870047E-3</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="13"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1197,8 +1182,8 @@
         <f t="shared" si="0"/>
         <v>7.4263704389926494E-3</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1238,8 +1223,8 @@
         <f t="shared" si="0"/>
         <v>9.7590766719604736E-3</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="13"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1279,8 +1264,8 @@
         <f t="shared" si="0"/>
         <v>1.0424801307080947E-2</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="14"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1320,8 +1305,8 @@
         <f t="shared" si="0"/>
         <v>9.3624476540466618E-3</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="15" t="s">
+      <c r="M14" s="22"/>
+      <c r="N14" s="27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1363,8 +1348,8 @@
         <f t="shared" si="0"/>
         <v>1.208227875252027E-2</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="13"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="25"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1404,8 +1389,8 @@
         <f t="shared" si="0"/>
         <v>9.1028562730599612E-3</v>
       </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="13"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="25"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1445,8 +1430,8 @@
         <f t="shared" si="0"/>
         <v>1.0404985767273355E-2</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="13"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1486,8 +1471,8 @@
         <f t="shared" si="0"/>
         <v>1.0994225712726513E-2</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:53" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1527,7 +1512,7 @@
         <f t="shared" si="0"/>
         <v>3.639668434547434E-3</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="24" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="4" t="s">
@@ -1572,7 +1557,7 @@
         <f t="shared" si="0"/>
         <v>3.214047439296311E-3</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -1612,7 +1597,7 @@
         <f t="shared" si="0"/>
         <v>3.1561804509957995E-3</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1652,7 +1637,7 @@
         <f t="shared" si="0"/>
         <v>8.8130526223063957E-3</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -1692,7 +1677,7 @@
         <f t="shared" si="0"/>
         <v>7.7447199467455957E-3</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
@@ -1732,7 +1717,7 @@
         <f t="shared" si="0"/>
         <v>9.3388580526746427E-3</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1772,7 +1757,7 @@
         <f t="shared" si="0"/>
         <v>9.8996761468105928E-3</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1812,7 +1797,7 @@
         <f t="shared" si="0"/>
         <v>9.8796043868360599E-3</v>
       </c>
-      <c r="M26" s="10"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
@@ -1852,7 +1837,7 @@
         <f t="shared" si="0"/>
         <v>1.0261707988980717E-2</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1894,579 +1879,579 @@
       <c r="AZ27" s="3"/>
       <c r="BA27" s="3"/>
     </row>
-    <row r="28" spans="1:53" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="1:53" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="10">
         <v>4</v>
       </c>
-      <c r="E28" s="16">
-        <v>10</v>
-      </c>
-      <c r="F28" s="16">
-        <v>10</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="16" t="s">
+      <c r="E28" s="10">
+        <v>10</v>
+      </c>
+      <c r="F28" s="10">
+        <v>10</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="16">
+      <c r="I28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="10">
         <v>91.223600000000005</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="10">
         <v>0.249</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="10">
         <f t="shared" si="0"/>
         <v>2.7295568252075119E-3</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="17"/>
-    </row>
-    <row r="29" spans="1:53" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:53" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="10">
         <v>4</v>
       </c>
-      <c r="E29" s="16">
-        <v>10</v>
-      </c>
-      <c r="F29" s="16">
-        <v>10</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="10">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10">
+        <v>10</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="10">
         <v>0.5</v>
       </c>
-      <c r="I29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="16">
+      <c r="I29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="10">
         <v>91.136200000000002</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="10">
         <v>0.2707</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="10">
         <f t="shared" si="0"/>
         <v>2.9702796473849028E-3</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="17"/>
-    </row>
-    <row r="30" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="M29" s="22"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="C30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="10">
         <v>4</v>
       </c>
-      <c r="E30" s="16">
-        <v>10</v>
-      </c>
-      <c r="F30" s="16">
-        <v>10</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="16" t="s">
+      <c r="E30" s="10">
+        <v>10</v>
+      </c>
+      <c r="F30" s="10">
+        <v>10</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="16">
+      <c r="I30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="10">
         <v>72.909599999999998</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="10">
         <v>0.43240000000000001</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="10">
         <f t="shared" si="0"/>
         <v>5.9306319058121289E-3</v>
       </c>
-      <c r="M30" s="10"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="16" t="s">
+      <c r="M30" s="22"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="E31" s="16">
-        <v>10</v>
-      </c>
-      <c r="F31" s="16">
-        <v>10</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="E31" s="10">
+        <v>10</v>
+      </c>
+      <c r="F31" s="10">
+        <v>10</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="10">
         <v>0.5</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="16">
+      <c r="I31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="10">
         <v>72.492800000000003</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="10">
         <v>0.66300000000000003</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="10">
         <f t="shared" si="0"/>
         <v>9.1457358523880997E-3</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="19"/>
-    </row>
-    <row r="32" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="M31" s="22"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="C32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="10">
         <v>4</v>
       </c>
-      <c r="E32" s="16">
-        <v>10</v>
-      </c>
-      <c r="F32" s="16">
-        <v>10</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="16" t="s">
+      <c r="E32" s="10">
+        <v>10</v>
+      </c>
+      <c r="F32" s="10">
+        <v>10</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="16">
+      <c r="I32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="10">
         <v>46.885300000000001</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="10">
         <v>0.33860000000000001</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="10">
         <f t="shared" si="0"/>
         <v>7.2218797789499059E-3</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="19"/>
-    </row>
-    <row r="33" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="16" t="s">
+      <c r="M32" s="22"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="10">
         <v>4</v>
       </c>
-      <c r="E33" s="16">
-        <v>10</v>
-      </c>
-      <c r="F33" s="16">
-        <v>10</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="E33" s="10">
+        <v>10</v>
+      </c>
+      <c r="F33" s="10">
+        <v>10</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="10">
         <v>0.5</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="16">
+      <c r="I33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="10">
         <v>46.592700000000001</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="10">
         <v>0.54159999999999997</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="10">
         <f t="shared" si="0"/>
         <v>1.1624138545308599E-2</v>
       </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="16" t="s">
+      <c r="M33" s="22"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="C34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" s="16">
-        <v>10</v>
-      </c>
-      <c r="F34" s="16">
-        <v>10</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="16" t="s">
+      <c r="E34" s="10">
+        <v>10</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="21">
+      <c r="I34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="15">
         <v>91.231200000000001</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="15">
         <v>0.27060000000000001</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="10">
         <f t="shared" ref="L34:L60" si="1">K34/J34</f>
         <v>2.9660905479704314E-3</v>
       </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="17"/>
-    </row>
-    <row r="35" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="16" t="s">
+      <c r="M34" s="22"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="10">
         <v>6</v>
       </c>
-      <c r="E35" s="16">
-        <v>10</v>
-      </c>
-      <c r="F35" s="16">
-        <v>10</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="E35" s="10">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10">
+        <v>10</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="10">
         <v>0.5</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="16">
+      <c r="I35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="10">
         <v>91.158799999999999</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="10">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="10">
         <f t="shared" si="1"/>
         <v>2.8444867637573111E-3</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="17"/>
-    </row>
-    <row r="36" spans="1:53" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="M35" s="22"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:53" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="C36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="10">
         <v>6</v>
       </c>
-      <c r="E36" s="16">
-        <v>10</v>
-      </c>
-      <c r="F36" s="16">
-        <v>10</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="16">
+      <c r="E36" s="10">
+        <v>10</v>
+      </c>
+      <c r="F36" s="10">
+        <v>10</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="10">
         <v>0.5</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="16">
+      <c r="I36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="10">
         <v>72.915599999999998</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="10">
         <v>0.44040000000000001</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="10">
         <f t="shared" si="1"/>
         <v>6.0398597830916842E-3</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="19"/>
-    </row>
-    <row r="37" spans="1:53" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="16" t="s">
+      <c r="M36" s="22"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="10">
         <v>6</v>
       </c>
-      <c r="E37" s="16">
-        <v>10</v>
-      </c>
-      <c r="F37" s="16">
-        <v>10</v>
-      </c>
-      <c r="G37" s="16" t="s">
+      <c r="E37" s="10">
+        <v>10</v>
+      </c>
+      <c r="F37" s="10">
+        <v>10</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="10">
         <v>0.5</v>
       </c>
-      <c r="I37" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="I37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="10">
         <v>72.741200000000006</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="10">
         <v>0.53320000000000001</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="10">
         <f t="shared" si="1"/>
         <v>7.3300962865611233E-3</v>
       </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
-      <c r="AT37" s="20"/>
-      <c r="AU37" s="20"/>
-      <c r="AV37" s="20"/>
-      <c r="AW37" s="20"/>
-      <c r="AX37" s="20"/>
-      <c r="AY37" s="20"/>
-      <c r="AZ37" s="20"/>
-      <c r="BA37" s="20"/>
-    </row>
-    <row r="38" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="16" t="s">
+      <c r="M37" s="22"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
+      <c r="BA37" s="14"/>
+    </row>
+    <row r="38" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="C38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="17">
         <v>6</v>
       </c>
-      <c r="E38" s="23">
-        <v>10</v>
-      </c>
-      <c r="F38" s="23">
-        <v>10</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="23">
+      <c r="E38" s="17">
+        <v>10</v>
+      </c>
+      <c r="F38" s="17">
+        <v>10</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="17">
         <v>0.5</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="16">
+      <c r="I38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="10">
         <v>46.8</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="10">
         <v>0.40150000000000002</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="10">
         <f t="shared" si="1"/>
         <v>8.5790598290598295E-3</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="17"/>
-    </row>
-    <row r="39" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="24" t="s">
+      <c r="M38" s="22"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="24">
+      <c r="C39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="18">
         <v>6</v>
       </c>
-      <c r="E39" s="24">
-        <v>10</v>
-      </c>
-      <c r="F39" s="24">
-        <v>10</v>
-      </c>
-      <c r="G39" s="24" t="s">
+      <c r="E39" s="18">
+        <v>10</v>
+      </c>
+      <c r="F39" s="18">
+        <v>10</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="18">
         <v>0.5</v>
       </c>
-      <c r="I39" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="24">
+      <c r="I39" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="18">
         <v>46.727200000000003</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="18">
         <v>0.4239</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="18">
         <f t="shared" si="1"/>
         <v>9.0718040028077863E-3</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="M39" s="22"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="16">
-        <v>10</v>
-      </c>
-      <c r="F40" s="16">
-        <v>10</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="16">
+      <c r="E40" s="10">
+        <v>10</v>
+      </c>
+      <c r="F40" s="10">
+        <v>10</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="10">
         <v>0.5</v>
       </c>
-      <c r="I40" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="16">
+      <c r="I40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="10">
         <v>91.021600000000007</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="10">
         <v>0.2651</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="10">
         <f t="shared" si="1"/>
         <v>2.9124954955746765E-3</v>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="17"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -2506,48 +2491,48 @@
         <f t="shared" si="1"/>
         <v>2.5993961132210744E-3</v>
       </c>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="16" t="s">
+      <c r="C42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="16">
-        <v>10</v>
-      </c>
-      <c r="F42" s="16">
-        <v>10</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="16">
+      <c r="E42" s="10">
+        <v>10</v>
+      </c>
+      <c r="F42" s="10">
+        <v>10</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="10">
         <v>0.5</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="16">
+      <c r="I42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="10">
         <v>72.332800000000006</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="10">
         <v>0.61960000000000004</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="10">
         <f t="shared" si="1"/>
         <v>8.5659617766766939E-3</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="17"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -2587,7 +2572,7 @@
         <f t="shared" si="1"/>
         <v>9.2729436510572347E-3</v>
       </c>
-      <c r="M43" s="10"/>
+      <c r="M43" s="22"/>
       <c r="N43" s="4"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2629,46 +2614,46 @@
       <c r="AZ43" s="3"/>
       <c r="BA43" s="3"/>
     </row>
-    <row r="44" spans="1:53" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:53" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="23">
-        <v>10</v>
-      </c>
-      <c r="F44" s="23">
-        <v>10</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="23">
+      <c r="E44" s="17">
+        <v>10</v>
+      </c>
+      <c r="F44" s="17">
+        <v>10</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="17">
         <v>0.5</v>
       </c>
-      <c r="I44" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="16">
+      <c r="I44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="10">
         <v>46.543999999999997</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="10">
         <v>0.45190000000000002</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="10">
         <f t="shared" si="1"/>
         <v>9.7090924716397402E-3</v>
       </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="17"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:53" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -2708,7 +2693,7 @@
         <f t="shared" si="1"/>
         <v>9.991082090116234E-3</v>
       </c>
-      <c r="M45" s="11"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="9"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -2740,85 +2725,85 @@
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
     </row>
-    <row r="46" spans="1:53" s="16" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:53" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="16" t="s">
+      <c r="C46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="16">
-        <v>10</v>
-      </c>
-      <c r="F46" s="16">
-        <v>10</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="16">
+      <c r="E46" s="10">
+        <v>10</v>
+      </c>
+      <c r="F46" s="10">
+        <v>10</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="10">
         <v>0.5</v>
       </c>
-      <c r="I46" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="16">
+      <c r="I46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="10">
         <v>91.159599999999998</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="10">
         <v>0.2757</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="10">
         <f t="shared" si="1"/>
         <v>3.024366056893624E-3</v>
       </c>
-      <c r="N46" s="17"/>
-    </row>
-    <row r="47" spans="1:53" s="16" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:53" s="10" customFormat="1" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="16">
-        <v>10</v>
-      </c>
-      <c r="F47" s="16">
+      <c r="E47" s="10">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10">
         <v>30</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="10">
         <v>0.3</v>
       </c>
-      <c r="I47" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="16">
+      <c r="I47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="10">
         <v>91.126000000000005</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="10">
         <v>0.26190000000000002</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L47" s="10">
         <f t="shared" si="1"/>
         <v>2.8740425345126527E-3</v>
       </c>
-      <c r="N47" s="17"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:53" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -2860,47 +2845,47 @@
       </c>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:14" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:14" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="16" t="s">
+      <c r="C49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="16">
-        <v>10</v>
-      </c>
-      <c r="F49" s="16">
-        <v>10</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="E49" s="10">
+        <v>10</v>
+      </c>
+      <c r="F49" s="10">
+        <v>10</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="10">
         <v>0.5</v>
       </c>
-      <c r="I49" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="31">
+      <c r="I49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="10">
         <v>72.748000000000005</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="10">
         <v>0.53210000000000002</v>
       </c>
-      <c r="L49" s="31">
+      <c r="L49" s="10">
         <f t="shared" si="1"/>
         <v>7.31429042722824E-3</v>
       </c>
-      <c r="N49" s="32"/>
-    </row>
-    <row r="50" spans="1:14" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>34</v>
       </c>
@@ -2928,59 +2913,58 @@
       <c r="I50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="3">
         <v>72.396000000000001</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="3">
         <v>0.61260000000000003</v>
       </c>
-      <c r="L50" s="29">
+      <c r="L50" s="3">
         <f t="shared" si="1"/>
         <v>8.4617934692524446E-3</v>
       </c>
-      <c r="N50" s="30"/>
-    </row>
-    <row r="51" spans="1:14" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="16">
-        <v>10</v>
-      </c>
-      <c r="F51" s="16">
-        <v>10</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="16">
+      <c r="E51" s="10">
+        <v>10</v>
+      </c>
+      <c r="F51" s="10">
+        <v>10</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="10">
         <v>0.5</v>
       </c>
-      <c r="I51" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="31">
+      <c r="I51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="10">
         <v>46.747</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="10">
         <v>0.4733</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="10">
         <f>K51/J51</f>
         <v>1.0124713885383019E-2</v>
       </c>
-      <c r="N51" s="32"/>
-    </row>
-    <row r="52" spans="1:14" s="29" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -3008,17 +2992,16 @@
       <c r="I52" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="3">
         <v>46.427</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="3">
         <v>0.53420000000000001</v>
       </c>
-      <c r="L52" s="29">
+      <c r="L52" s="3">
         <f>K52/J52</f>
         <v>1.1506235595666315E-2</v>
       </c>
-      <c r="N52" s="30"/>
     </row>
     <row r="53" spans="1:14" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
@@ -3098,85 +3081,85 @@
         <v>3.1491928751570756E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="16" t="s">
+    <row r="55" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="16">
-        <v>2</v>
-      </c>
-      <c r="E55" s="16">
-        <v>10</v>
-      </c>
-      <c r="F55" s="16">
-        <v>10</v>
-      </c>
-      <c r="G55" s="16" t="s">
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10">
+        <v>10</v>
+      </c>
+      <c r="F55" s="10">
+        <v>10</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="10">
         <v>3</v>
       </c>
-      <c r="I55" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="16">
+      <c r="I55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="10">
         <v>91.0578</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="10">
         <v>0.26340000000000002</v>
       </c>
-      <c r="L55" s="16">
+      <c r="L55" s="10">
         <f t="shared" si="1"/>
         <v>2.8926681734019492E-3</v>
       </c>
-      <c r="N55" s="17"/>
-    </row>
-    <row r="56" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="16" t="s">
+      <c r="C56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="16">
-        <v>10</v>
-      </c>
-      <c r="F56" s="16">
-        <v>10</v>
-      </c>
-      <c r="G56" s="16" t="s">
+      <c r="E56" s="10">
+        <v>10</v>
+      </c>
+      <c r="F56" s="10">
+        <v>10</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="10">
         <v>3</v>
       </c>
-      <c r="I56" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56" s="16">
+      <c r="I56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="10">
         <v>91.001800000000003</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="10">
         <v>0.27479999999999999</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L56" s="10">
         <f>K56/J56</f>
         <v>3.0197204890452713E-3</v>
       </c>
-      <c r="N56" s="17"/>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
@@ -3256,45 +3239,45 @@
         <v>3.388579849040195E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="16">
-        <v>2</v>
-      </c>
-      <c r="E59" s="16">
-        <v>10</v>
-      </c>
-      <c r="F59" s="16">
-        <v>10</v>
-      </c>
-      <c r="G59" s="16" t="s">
+      <c r="D59" s="10">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10">
+        <v>10</v>
+      </c>
+      <c r="F59" s="10">
+        <v>10</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="10">
         <v>0.5</v>
       </c>
-      <c r="I59" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="16">
+      <c r="I59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="10">
         <v>91.093599999999995</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="10">
         <v>0.27860000000000001</v>
       </c>
-      <c r="L59" s="16">
+      <c r="L59" s="10">
         <f t="shared" si="1"/>
         <v>3.0583926862040806E-3</v>
       </c>
-      <c r="N59" s="17"/>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
@@ -3380,45 +3363,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="34" t="s">
+    <row r="62" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="34">
-        <v>2</v>
-      </c>
-      <c r="E62" s="34">
-        <v>10</v>
-      </c>
-      <c r="F62" s="34">
-        <v>10</v>
-      </c>
-      <c r="G62" s="34" t="s">
+      <c r="C62" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="21">
+        <v>2</v>
+      </c>
+      <c r="E62" s="21">
+        <v>10</v>
+      </c>
+      <c r="F62" s="21">
+        <v>10</v>
+      </c>
+      <c r="G62" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="34" t="s">
+      <c r="H62" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J62" s="34">
+      <c r="I62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="21">
         <v>91.096599999999995</v>
       </c>
-      <c r="K62" s="34">
+      <c r="K62" s="21">
         <v>0.2132</v>
       </c>
-      <c r="L62" s="34">
+      <c r="L62" s="21">
         <f>K62/J62</f>
         <v>2.3403727471716838E-3</v>
       </c>
-      <c r="N62" s="34" t="s">
+      <c r="N62" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3590,45 +3573,45 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="34" t="s">
+    <row r="67" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="34">
-        <v>2</v>
-      </c>
-      <c r="E67" s="34">
-        <v>10</v>
-      </c>
-      <c r="F67" s="34">
-        <v>10</v>
-      </c>
-      <c r="G67" s="34" t="s">
+      <c r="C67" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="21">
+        <v>2</v>
+      </c>
+      <c r="E67" s="21">
+        <v>10</v>
+      </c>
+      <c r="F67" s="21">
+        <v>10</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="34" t="s">
+      <c r="H67" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I67" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="34">
+      <c r="I67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="21">
         <v>91.041200000000003</v>
       </c>
-      <c r="K67" s="34">
+      <c r="K67" s="21">
         <v>0.26</v>
       </c>
-      <c r="L67" s="34">
+      <c r="L67" s="21">
         <f t="shared" si="2"/>
         <v>2.8558498789559013E-3</v>
       </c>
-      <c r="N67" s="34" t="s">
+      <c r="N67" s="21" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3789,45 +3772,45 @@
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="26" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="26" t="s">
+    <row r="72" spans="1:14" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="26">
-        <v>2</v>
-      </c>
-      <c r="E72" s="26">
+      <c r="D72" s="28">
+        <v>2</v>
+      </c>
+      <c r="E72" s="28">
         <v>20</v>
       </c>
-      <c r="F72" s="26">
-        <v>10</v>
-      </c>
-      <c r="G72" s="26" t="s">
+      <c r="F72" s="28">
+        <v>10</v>
+      </c>
+      <c r="G72" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H72" s="28">
         <v>3</v>
       </c>
-      <c r="I72" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="27">
+      <c r="I72" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="29">
         <v>91.213399999999993</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K72" s="29">
         <v>0.23419999999999999</v>
       </c>
-      <c r="L72" s="27">
+      <c r="L72" s="29">
         <f>K72/J72</f>
         <v>2.567605198359013E-3</v>
       </c>
-      <c r="N72" s="28"/>
+      <c r="N72" s="30"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -3947,45 +3930,45 @@
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="26" t="s">
+    <row r="76" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="26">
-        <v>2</v>
-      </c>
-      <c r="E76" s="26">
+      <c r="D76" s="28">
+        <v>2</v>
+      </c>
+      <c r="E76" s="28">
         <v>20</v>
       </c>
-      <c r="F76" s="26">
-        <v>10</v>
-      </c>
-      <c r="G76" s="26" t="s">
+      <c r="F76" s="28">
+        <v>10</v>
+      </c>
+      <c r="G76" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="26">
+      <c r="H76" s="28">
         <v>3</v>
       </c>
-      <c r="I76" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="27">
+      <c r="I76" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="29">
         <v>72.848799999999997</v>
       </c>
-      <c r="K76" s="27">
+      <c r="K76" s="29">
         <v>0.4602</v>
       </c>
-      <c r="L76" s="27">
+      <c r="L76" s="29">
         <f t="shared" si="2"/>
         <v>6.3171939688780052E-3</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="30"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
@@ -4026,85 +4009,85 @@
         <v>9.6579265699309018E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="16" t="s">
+    <row r="78" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="16">
-        <v>2</v>
-      </c>
-      <c r="E78" s="16">
-        <v>10</v>
-      </c>
-      <c r="F78" s="16">
-        <v>10</v>
-      </c>
-      <c r="G78" s="16" t="s">
+      <c r="D78" s="10">
+        <v>2</v>
+      </c>
+      <c r="E78" s="10">
+        <v>10</v>
+      </c>
+      <c r="F78" s="10">
+        <v>10</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="10">
         <v>3</v>
       </c>
-      <c r="I78" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="16">
+      <c r="I78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="10">
         <v>72.6404</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="10">
         <v>0.55869999999999997</v>
       </c>
-      <c r="L78" s="16">
-        <f>K78/J78</f>
+      <c r="L78" s="10">
+        <f t="shared" ref="L78:L85" si="3">K78/J78</f>
         <v>7.691312272509512E-3</v>
       </c>
-      <c r="N78" s="17"/>
-    </row>
-    <row r="79" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="16" t="s">
+      <c r="C79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="16">
-        <v>10</v>
-      </c>
-      <c r="F79" s="16">
-        <v>10</v>
-      </c>
-      <c r="G79" s="16" t="s">
+      <c r="E79" s="10">
+        <v>10</v>
+      </c>
+      <c r="F79" s="10">
+        <v>10</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="10">
         <v>3</v>
       </c>
-      <c r="I79" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="16">
+      <c r="I79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="10">
         <v>72.5</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="10">
         <v>0.55779999999999996</v>
       </c>
-      <c r="L79" s="16">
-        <f>K79/J79</f>
+      <c r="L79" s="10">
+        <f t="shared" si="3"/>
         <v>7.6937931034482751E-3</v>
       </c>
-      <c r="N79" s="17"/>
+      <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
@@ -4141,89 +4124,89 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="L80" s="3">
-        <f>K80/J80</f>
+        <f t="shared" si="3"/>
         <v>9.4862532057469039E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="16" t="s">
+    <row r="81" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="16">
-        <v>2</v>
-      </c>
-      <c r="E81" s="16">
-        <v>10</v>
-      </c>
-      <c r="F81" s="16">
-        <v>10</v>
-      </c>
-      <c r="G81" s="16" t="s">
+      <c r="D81" s="10">
+        <v>2</v>
+      </c>
+      <c r="E81" s="10">
+        <v>10</v>
+      </c>
+      <c r="F81" s="10">
+        <v>10</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H81" s="10">
         <v>0.5</v>
       </c>
-      <c r="I81" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="16">
+      <c r="I81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="10">
         <v>72.510999999999996</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="10">
         <v>0.65300000000000002</v>
       </c>
-      <c r="L81" s="16">
-        <f>K81/J81</f>
+      <c r="L81" s="10">
+        <f t="shared" si="3"/>
         <v>9.0055301954186269E-3</v>
       </c>
-      <c r="N81" s="17"/>
-    </row>
-    <row r="82" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="34" t="s">
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="34">
-        <v>2</v>
-      </c>
-      <c r="E82" s="34">
-        <v>10</v>
-      </c>
-      <c r="F82" s="34">
-        <v>10</v>
-      </c>
-      <c r="G82" s="34" t="s">
+      <c r="C82" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="21">
+        <v>2</v>
+      </c>
+      <c r="E82" s="21">
+        <v>10</v>
+      </c>
+      <c r="F82" s="21">
+        <v>10</v>
+      </c>
+      <c r="G82" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="34" t="s">
+      <c r="H82" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="35">
+      <c r="I82" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="21">
         <v>72.276399999999995</v>
       </c>
-      <c r="K82" s="35">
+      <c r="K82" s="21">
         <v>0.72819999999999996</v>
       </c>
-      <c r="L82" s="35">
-        <f>K82/J82</f>
+      <c r="L82" s="21">
+        <f t="shared" si="3"/>
         <v>1.0075211272282515E-2</v>
       </c>
-      <c r="N82" s="34" t="s">
+      <c r="N82" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4262,53 +4245,53 @@
         <v>0.64749999999999996</v>
       </c>
       <c r="L83" s="3">
-        <f>K83/J83</f>
+        <f t="shared" si="3"/>
         <v>8.9525205320355062E-3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="33" t="s">
+    <row r="84" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="33">
-        <v>2</v>
-      </c>
-      <c r="E84" s="33">
-        <v>10</v>
-      </c>
-      <c r="F84" s="33">
-        <v>10</v>
-      </c>
-      <c r="G84" s="33" t="s">
+      <c r="C84" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="20">
+        <v>2</v>
+      </c>
+      <c r="E84" s="20">
+        <v>10</v>
+      </c>
+      <c r="F84" s="20">
+        <v>10</v>
+      </c>
+      <c r="G84" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="34">
+      <c r="I84" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="21">
         <v>72.311999999999998</v>
       </c>
-      <c r="K84" s="35">
+      <c r="K84" s="21">
         <v>0.64570000000000005</v>
       </c>
-      <c r="L84" s="35">
-        <f>K84/J84</f>
+      <c r="L84" s="21">
+        <f t="shared" si="3"/>
         <v>8.9293616550503389E-3</v>
       </c>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33" t="s">
+      <c r="M84" s="20"/>
+      <c r="N84" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4347,7 +4330,7 @@
         <v>0.61990000000000001</v>
       </c>
       <c r="L85" s="5">
-        <f>K85/J85</f>
+        <f t="shared" si="3"/>
         <v>8.5471617466598652E-3</v>
       </c>
       <c r="N85" s="5" t="s">
@@ -4432,45 +4415,45 @@
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="26" t="s">
+    <row r="88" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="26">
-        <v>2</v>
-      </c>
-      <c r="E88" s="26">
+      <c r="D88" s="28">
+        <v>2</v>
+      </c>
+      <c r="E88" s="28">
         <v>20</v>
       </c>
-      <c r="F88" s="26">
-        <v>10</v>
-      </c>
-      <c r="G88" s="26" t="s">
+      <c r="F88" s="28">
+        <v>10</v>
+      </c>
+      <c r="G88" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="26">
+      <c r="H88" s="28">
         <v>3</v>
       </c>
-      <c r="I88" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="26">
+      <c r="I88" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="28">
         <v>46.66</v>
       </c>
-      <c r="K88" s="26">
+      <c r="K88" s="28">
         <v>0.46360000000000001</v>
       </c>
-      <c r="L88" s="26">
-        <f t="shared" ref="L88:L95" si="3">K88/J88</f>
+      <c r="L88" s="28">
+        <f t="shared" ref="L88:L95" si="4">K88/J88</f>
         <v>9.9357051007286767E-3</v>
       </c>
-      <c r="N88" s="28"/>
+      <c r="N88" s="30"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -4507,89 +4490,89 @@
         <v>0.54810000000000003</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.178709677419355E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90" s="16" t="s">
+    <row r="90" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="16">
-        <v>2</v>
-      </c>
-      <c r="E90" s="16">
-        <v>10</v>
-      </c>
-      <c r="F90" s="16">
-        <v>10</v>
-      </c>
-      <c r="G90" s="16" t="s">
+      <c r="D90" s="10">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10">
+        <v>10</v>
+      </c>
+      <c r="F90" s="10">
+        <v>10</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H90" s="16">
+      <c r="H90" s="10">
         <v>3</v>
       </c>
-      <c r="I90" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="16">
+      <c r="I90" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="10">
         <v>46.56</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="10">
         <v>0.47189999999999999</v>
       </c>
-      <c r="L90" s="16">
-        <f t="shared" si="3"/>
+      <c r="L90" s="10">
+        <f t="shared" si="4"/>
         <v>1.0135309278350515E-2</v>
       </c>
-      <c r="N90" s="17"/>
-    </row>
-    <row r="91" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="16" t="s">
+      <c r="C91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="16">
-        <v>10</v>
-      </c>
-      <c r="F91" s="16">
-        <v>10</v>
-      </c>
-      <c r="G91" s="16" t="s">
+      <c r="E91" s="10">
+        <v>10</v>
+      </c>
+      <c r="F91" s="10">
+        <v>10</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H91" s="16">
+      <c r="H91" s="10">
         <v>3</v>
       </c>
-      <c r="I91" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="16">
+      <c r="I91" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="10">
         <v>46.54</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="10">
         <v>0.53459999999999996</v>
       </c>
-      <c r="L91" s="16">
-        <f t="shared" si="3"/>
+      <c r="L91" s="10">
+        <f t="shared" si="4"/>
         <v>1.1486892995272883E-2</v>
       </c>
-      <c r="N91" s="17"/>
+      <c r="N91" s="11"/>
     </row>
     <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
@@ -4626,7 +4609,7 @@
         <v>0.46810000000000002</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0034297963558415E-2</v>
       </c>
     </row>
@@ -4665,89 +4648,89 @@
         <v>0.64410000000000001</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3839707778255265E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="16" t="s">
+    <row r="94" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="16">
-        <v>2</v>
-      </c>
-      <c r="E94" s="16">
-        <v>10</v>
-      </c>
-      <c r="F94" s="16">
-        <v>10</v>
-      </c>
-      <c r="G94" s="16" t="s">
+      <c r="D94" s="10">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
+        <v>10</v>
+      </c>
+      <c r="F94" s="10">
+        <v>10</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H94" s="16">
+      <c r="H94" s="10">
         <v>0.5</v>
       </c>
-      <c r="I94" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J94" s="18">
+      <c r="I94" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="12">
         <v>46.74</v>
       </c>
-      <c r="K94" s="18">
+      <c r="K94" s="12">
         <v>0.4078</v>
       </c>
-      <c r="L94" s="18">
-        <f t="shared" si="3"/>
+      <c r="L94" s="12">
+        <f t="shared" si="4"/>
         <v>8.7248609328198536E-3</v>
       </c>
-      <c r="N94" s="17"/>
-    </row>
-    <row r="95" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="34" t="s">
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="34">
-        <v>2</v>
-      </c>
-      <c r="E95" s="34">
-        <v>10</v>
-      </c>
-      <c r="F95" s="34">
-        <v>10</v>
-      </c>
-      <c r="G95" s="34" t="s">
+      <c r="C95" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="21">
+        <v>2</v>
+      </c>
+      <c r="E95" s="21">
+        <v>10</v>
+      </c>
+      <c r="F95" s="21">
+        <v>10</v>
+      </c>
+      <c r="G95" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H95" s="34" t="s">
+      <c r="H95" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="34">
+      <c r="I95" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J95" s="21">
         <v>46.286999999999999</v>
       </c>
-      <c r="K95" s="34">
+      <c r="K95" s="21">
         <v>0.6</v>
       </c>
-      <c r="L95" s="34">
-        <f t="shared" si="3"/>
+      <c r="L95" s="21">
+        <f t="shared" si="4"/>
         <v>1.2962602890660445E-2</v>
       </c>
-      <c r="N95" s="34" t="s">
+      <c r="N95" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4793,45 +4776,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="34" t="s">
+    <row r="97" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="33">
-        <v>2</v>
-      </c>
-      <c r="E97" s="33">
-        <v>10</v>
-      </c>
-      <c r="F97" s="33">
-        <v>10</v>
-      </c>
-      <c r="G97" s="33" t="s">
+      <c r="C97" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="20">
+        <v>2</v>
+      </c>
+      <c r="E97" s="20">
+        <v>10</v>
+      </c>
+      <c r="F97" s="20">
+        <v>10</v>
+      </c>
+      <c r="G97" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H97" s="33" t="s">
+      <c r="H97" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I97" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J97" s="34">
+      <c r="I97" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J97" s="21">
         <v>46.369</v>
       </c>
-      <c r="K97" s="34">
+      <c r="K97" s="21">
         <v>0.54269999999999996</v>
       </c>
-      <c r="L97" s="34">
+      <c r="L97" s="21">
         <f>K97/J97</f>
         <v>1.1703940132416053E-2</v>
       </c>
-      <c r="N97" s="33" t="s">
+      <c r="N97" s="20" t="s">
         <v>44</v>
       </c>
     </row>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E0644E-B6B3-0640-87BB-03EC97540AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20500B86-DABD-2A48-9EC0-84F307ACC251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -374,14 +374,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +702,8 @@
   </sheetPr>
   <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,41 +769,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28">
+        <v>10</v>
+      </c>
+      <c r="F2" s="28">
+        <v>10</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="29">
         <v>91.148399999999995</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="28">
         <v>0.28520000000000001</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="28">
         <f t="shared" ref="L2:L33" si="0">K2/J2</f>
         <v>3.1289633169644233E-3</v>
       </c>
@@ -896,41 +896,41 @@
       <c r="M4" s="22"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>10</v>
+      </c>
+      <c r="F5" s="28">
+        <v>10</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="28">
         <v>0.5</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="30">
         <v>91.130399999999995</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="30">
         <v>0.23200000000000001</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>2.5458024983979004E-3</v>
       </c>
@@ -3772,45 +3772,44 @@
         <v>3.755778544577973E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="28" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="28" t="s">
+    <row r="72" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="28">
-        <v>2</v>
-      </c>
-      <c r="E72" s="28">
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
         <v>20</v>
       </c>
-      <c r="F72" s="28">
-        <v>10</v>
-      </c>
-      <c r="G72" s="28" t="s">
+      <c r="F72" s="3">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H72" s="28">
+      <c r="H72" s="3">
         <v>3</v>
       </c>
-      <c r="I72" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="29">
+      <c r="I72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="8">
         <v>91.213399999999993</v>
       </c>
-      <c r="K72" s="29">
+      <c r="K72" s="8">
         <v>0.23419999999999999</v>
       </c>
-      <c r="L72" s="29">
+      <c r="L72" s="8">
         <f>K72/J72</f>
         <v>2.567605198359013E-3</v>
       </c>
-      <c r="N72" s="30"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -3930,45 +3929,44 @@
         <v>7.3734161572556068E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="28" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="28">
-        <v>2</v>
-      </c>
-      <c r="E76" s="28">
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
         <v>20</v>
       </c>
-      <c r="F76" s="28">
-        <v>10</v>
-      </c>
-      <c r="G76" s="28" t="s">
+      <c r="F76" s="3">
+        <v>10</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="28">
+      <c r="H76" s="3">
         <v>3</v>
       </c>
-      <c r="I76" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="29">
+      <c r="I76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="8">
         <v>72.848799999999997</v>
       </c>
-      <c r="K76" s="29">
+      <c r="K76" s="8">
         <v>0.4602</v>
       </c>
-      <c r="L76" s="29">
+      <c r="L76" s="8">
         <f t="shared" si="2"/>
         <v>6.3171939688780052E-3</v>
       </c>
-      <c r="N76" s="30"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
@@ -4415,45 +4413,44 @@
         <v>9.281897841419107E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="28" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="28">
-        <v>2</v>
-      </c>
-      <c r="E88" s="28">
+      <c r="D88" s="3">
+        <v>2</v>
+      </c>
+      <c r="E88" s="3">
         <v>20</v>
       </c>
-      <c r="F88" s="28">
-        <v>10</v>
-      </c>
-      <c r="G88" s="28" t="s">
+      <c r="F88" s="3">
+        <v>10</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="3">
         <v>3</v>
       </c>
-      <c r="I88" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="28">
+      <c r="I88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="3">
         <v>46.66</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="3">
         <v>0.46360000000000001</v>
       </c>
-      <c r="L88" s="28">
+      <c r="L88" s="3">
         <f t="shared" ref="L88:L95" si="4">K88/J88</f>
         <v>9.9357051007286767E-3</v>
       </c>
-      <c r="N88" s="30"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
@@ -4574,7 +4571,7 @@
       </c>
       <c r="N91" s="11"/>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="19" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>34</v>
       </c>

--- a/report/experiment_plan.xlsx
+++ b/report/experiment_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengchen/GitHub/master_thesis/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20500B86-DABD-2A48-9EC0-84F307ACC251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82837226-5158-1643-A87F-E26D320ED5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{F6D8400F-B912-A94E-8399-434B778D62B2}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_50_trials" sheetId="1" r:id="rId1"/>
@@ -702,7 +702,7 @@
   </sheetPr>
   <dimension ref="A1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="99" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="99" workbookViewId="0">
       <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
